--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -208,10 +208,13 @@
     <t>Testa hela applikationen. All funktionalitet. Har ändringar påverkat annat? Försöka trigga buggar. Gör saker i olika ordning.</t>
   </si>
   <si>
-    <t>Hur gör man…?</t>
+    <t xml:space="preserve">Uppdatering efter handledning. Konkurrerande systerm m m </t>
   </si>
   <si>
-    <t xml:space="preserve">Uppdatering efter handledning. Konkurrerande systerm m m </t>
+    <t>Ny uppskattn</t>
+  </si>
+  <si>
+    <t>Hur gör man…? Testar, läser…</t>
   </si>
 </sst>
 </file>
@@ -522,11 +525,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -860,8 +863,8 @@
       </c>
       <c r="H2" s="4"/>
       <c r="L2" s="28">
-        <f>+'Sprint-1'!L14+'Sprint 0'!L19+Sprint1!L28+'Sprint 2'!L14+'Sprint 3'!L15+'Sprint 4'!L14+'Sprint 5'!L14+'Sprint 6'!L14+'Sprint 7'!L14+Avslut_Redovisning!L11</f>
-        <v>54</v>
+        <f>+'Sprint-1'!L14+'Sprint 0'!L19+Sprint1!M28+'Sprint 2'!L14+'Sprint 3'!L15+'Sprint 4'!L14+'Sprint 5'!L14+'Sprint 6'!L14+'Sprint 7'!L14+Avslut_Redovisning!L11</f>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -906,14 +909,14 @@
         <v>26</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -926,19 +929,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -949,31 +952,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -2207,14 +2210,14 @@
         <v>27</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -2223,19 +2226,19 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -2244,29 +2247,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -2477,14 +2480,14 @@
         <v>4</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2494,19 +2497,19 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" s="33"/>
@@ -2515,19 +2518,19 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="33"/>
@@ -2690,13 +2693,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI165"/>
+  <dimension ref="A1:AMI20"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
@@ -2732,7 +2735,7 @@
       </c>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28"/>
       <c r="C2" s="32"/>
       <c r="D2" s="3" t="s">
@@ -2745,14 +2748,14 @@
       </c>
       <c r="M2" s="46"/>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
       <c r="C3" s="32"/>
       <c r="D3" s="3"/>
       <c r="L3" s="28"/>
       <c r="M3" s="46"/>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="35"/>
       <c r="D4" s="46"/>
@@ -2764,14 +2767,14 @@
         <v>14</v>
       </c>
       <c r="C5" s="32"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="3"/>
       <c r="M5" s="46"/>
     </row>
@@ -2783,22 +2786,22 @@
       <c r="M6" s="46"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="46"/>
     </row>
-    <row r="8" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C8" s="33"/>
       <c r="D8" s="3"/>
       <c r="E8" s="28"/>
@@ -2806,32 +2809,32 @@
       <c r="M8" s="46"/>
     </row>
     <row r="9" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="35"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="3"/>
       <c r="M10" s="46"/>
     </row>
@@ -2871,7 +2874,7 @@
       </c>
       <c r="M11" s="46"/>
     </row>
-    <row r="12" spans="2:13" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29"/>
       <c r="C12" s="37" t="s">
         <v>37</v>
@@ -2887,7 +2890,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="46"/>
     </row>
-    <row r="13" spans="2:13" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="29"/>
       <c r="C13" s="35" t="s">
         <v>34</v>
@@ -2914,7 +2917,7 @@
       </c>
       <c r="M13" s="46"/>
     </row>
-    <row r="14" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="35" t="s">
         <v>31</v>
@@ -2940,7 +2943,7 @@
       </c>
       <c r="M14" s="46"/>
     </row>
-    <row r="15" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="35" t="s">
         <v>11</v>
@@ -2959,7 +2962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="35" t="s">
         <v>36</v>
@@ -2981,7 +2984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="35"/>
       <c r="D17" s="12"/>
@@ -2991,7 +2994,7 @@
       </c>
       <c r="M17" s="46"/>
     </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="35" t="s">
         <v>54</v>
@@ -3011,7 +3014,7 @@
       </c>
       <c r="M18" s="46"/>
     </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="36" t="s">
         <v>13</v>
@@ -3054,158 +3057,13 @@
       </c>
       <c r="M19" s="46"/>
     </row>
-    <row r="20" spans="2:13" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38"/>
       <c r="D20" s="27"/>
       <c r="E20" s="23"/>
       <c r="L20" s="27"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E10:K10"/>
@@ -3219,10 +3077,615 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI29"/>
+  <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.875" style="35" customWidth="1"/>
+    <col min="4" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="12" width="7.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="28" customWidth="1"/>
+    <col min="14" max="14" width="41.625" style="46" customWidth="1"/>
+    <col min="15" max="1024" width="10.75" style="1" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="46"/>
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="46"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="33"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="28"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="46"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="46"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="35"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="46"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9">
+        <v>6</v>
+      </c>
+      <c r="L7" s="9">
+        <v>7</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="46"/>
+    </row>
+    <row r="8" spans="2:14" s="28" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="13">
+        <f>+SUM(F8:L8)</f>
+        <v>1.5</v>
+      </c>
+      <c r="N8" s="46"/>
+    </row>
+    <row r="9" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="46"/>
+    </row>
+    <row r="11" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="13">
+        <f>+SUM(F11:L11)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N11" s="46"/>
+    </row>
+    <row r="12" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="13">
+        <f>+SUM(F12:L12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="13">
+        <f>+SUM(F14:L14)</f>
+        <v>5</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="13">
+        <f>+SUM(F16:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="46"/>
+    </row>
+    <row r="18" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="46"/>
+    </row>
+    <row r="19" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="12">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="13">
+        <f>+SUM(F19:L19)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="46"/>
+    </row>
+    <row r="20" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="46"/>
+    </row>
+    <row r="21" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="12">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="13">
+        <f>+SUM(F21:L21)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="46"/>
+    </row>
+    <row r="22" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="46"/>
+    </row>
+    <row r="23" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="13">
+        <f>+SUM(F23:L23)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="46"/>
+    </row>
+    <row r="24" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="46"/>
+    </row>
+    <row r="25" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="M25" s="13">
+        <f>+SUM(F25:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="G26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="M26" s="13">
+        <f>+SUM(F26:L26)</f>
+        <v>3</v>
+      </c>
+      <c r="N26" s="46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="M27" s="13">
+        <f>+SUM(F27:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="46"/>
+    </row>
+    <row r="28" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="16">
+        <f t="shared" ref="D28:L28" si="0">+SUM(D8:D27)</f>
+        <v>20.5</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <f>+SUM(F28:L28)</f>
+        <v>11.5</v>
+      </c>
+      <c r="N28" s="46"/>
+    </row>
+    <row r="29" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="38"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="23"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="F6:L6"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSida &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3240,17 +3703,17 @@
   <sheetData>
     <row r="1" spans="2:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -3261,20 +3724,20 @@
       <c r="L2" s="28"/>
       <c r="M2" s="46"/>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3285,603 +3748,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="B5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="2:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9">
-        <v>4</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9">
-        <v>6</v>
-      </c>
-      <c r="K7" s="9">
-        <v>7</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="2:13" s="28" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="13">
-        <f>+SUM(E8:K8)</f>
-        <v>1.5</v>
-      </c>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="13">
-        <f>+SUM(E11:K11)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="13">
-        <f>+SUM(E12:K12)</f>
-        <v>1.5</v>
-      </c>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="31"/>
-    </row>
-    <row r="14" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="12">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="13">
-        <f>+SUM(E14:K14)</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="46"/>
-    </row>
-    <row r="16" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="13">
-        <f>+SUM(E16:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="46"/>
-    </row>
-    <row r="18" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="46"/>
-    </row>
-    <row r="19" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="12">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="13">
-        <f>+SUM(E19:K19)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="46"/>
-    </row>
-    <row r="20" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="46"/>
-    </row>
-    <row r="21" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="12">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="13">
-        <f>+SUM(E21:K21)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="46"/>
-    </row>
-    <row r="22" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="46"/>
-    </row>
-    <row r="23" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="13">
-        <f>+SUM(E23:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="46"/>
-    </row>
-    <row r="24" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="46"/>
-    </row>
-    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="L25" s="13">
-        <f>+SUM(E25:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="L26" s="13">
-        <f>+SUM(E26:K26)</f>
-        <v>3</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="12">
-        <v>1</v>
-      </c>
-      <c r="L27" s="13">
-        <f>+SUM(E27:K27)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="46"/>
-    </row>
-    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="16">
-        <f t="shared" ref="D28:K28" si="0">+SUM(D8:D27)</f>
-        <v>20.5</v>
-      </c>
-      <c r="E28" s="16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F28" s="16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G28" s="16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="I28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="21">
-        <f>+SUM(E28:K28)</f>
-        <v>8.5</v>
-      </c>
-      <c r="M28" s="46"/>
-    </row>
-    <row r="29" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="38"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="23"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="E6:K6"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CSida &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI173"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="41.625" style="46" customWidth="1"/>
-    <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
-    <col min="1024" max="16384" width="9" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="2:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="3"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="33"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="28"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="35"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -3921,7 +3812,7 @@
       </c>
       <c r="M7" s="46"/>
     </row>
-    <row r="8" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="33"/>
       <c r="D8" s="12"/>
@@ -3935,7 +3826,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="46"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="35" t="s">
         <v>20</v>
@@ -3947,7 +3838,7 @@
       </c>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="35" t="s">
         <v>16</v>
@@ -3959,7 +3850,7 @@
       </c>
       <c r="M10" s="46"/>
     </row>
-    <row r="11" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="35" t="s">
         <v>17</v>
@@ -3971,7 +3862,7 @@
       </c>
       <c r="M11" s="46"/>
     </row>
-    <row r="12" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="35" t="s">
         <v>18</v>
@@ -3983,7 +3874,7 @@
       </c>
       <c r="M12" s="46"/>
     </row>
-    <row r="13" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="35" t="s">
         <v>12</v>
@@ -3995,7 +3886,7 @@
       </c>
       <c r="M13" s="46"/>
     </row>
-    <row r="14" spans="2:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="42"/>
       <c r="D14" s="16">
@@ -4036,7 +3927,7 @@
       </c>
       <c r="M14" s="46"/>
     </row>
-    <row r="15" spans="2:13" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="43"/>
       <c r="D15" s="24"/>
       <c r="E15" s="27"/>
@@ -4049,106 +3940,6 @@
       <c r="L15" s="27"/>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:L3"/>
@@ -4199,14 +3990,14 @@
         <v>22</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="28"/>
       <c r="M2" s="46"/>
     </row>
@@ -4218,19 +4009,19 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4241,31 +4032,31 @@
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="46"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
       <c r="L7" s="28"/>
       <c r="M7" s="46"/>
     </row>
@@ -4475,14 +4266,14 @@
         <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -4494,19 +4285,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4517,31 +4308,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -4764,14 +4555,14 @@
         <v>24</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -4783,19 +4574,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4806,31 +4597,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -6065,14 +5856,14 @@
         <v>25</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -6085,19 +5876,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6108,31 +5899,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>

--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TotalTid" sheetId="12" r:id="rId1"/>
-    <sheet name="Sprint-1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sprint 0" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint1" sheetId="5" r:id="rId4"/>
-    <sheet name="Sprint 2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sprint 3" sheetId="4" r:id="rId6"/>
-    <sheet name="Sprint 4" sheetId="6" r:id="rId7"/>
-    <sheet name="Sprint 5" sheetId="7" r:id="rId8"/>
-    <sheet name="Sprint 6" sheetId="8" r:id="rId9"/>
-    <sheet name="Sprint 7" sheetId="9" r:id="rId10"/>
-    <sheet name="Avslut_Redovisning" sheetId="10" r:id="rId11"/>
+    <sheet name="Testfall" sheetId="13" r:id="rId2"/>
+    <sheet name="Sprint-1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sprint 0" sheetId="3" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sprint 3" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint 4" sheetId="6" r:id="rId8"/>
+    <sheet name="Sprint 5" sheetId="7" r:id="rId9"/>
+    <sheet name="Sprint 6" sheetId="8" r:id="rId10"/>
+    <sheet name="Sprint 7" sheetId="9" r:id="rId11"/>
+    <sheet name="Avslut_Redovisning" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -208,13 +209,82 @@
     <t>Testa hela applikationen. All funktionalitet. Har ändringar påverkat annat? Försöka trigga buggar. Gör saker i olika ordning.</t>
   </si>
   <si>
-    <t xml:space="preserve">Uppdatering efter handledning. Konkurrerande systerm m m </t>
-  </si>
-  <si>
     <t>Ny uppskattn</t>
   </si>
   <si>
     <t>Hur gör man…? Testar, läser…</t>
+  </si>
+  <si>
+    <t>Css-kod visas i sidan. Inte knuten till html än.</t>
+  </si>
+  <si>
+    <t>Uppdatering efter handledning. Konkurrerande systerm m m. Uppdatering sprint- och produktbacklog</t>
+  </si>
+  <si>
+    <t>Mall får skapas när funktionen fungerar. Flyttas till eget scenario.</t>
+  </si>
+  <si>
+    <t>Scenario: Visa Resultat</t>
+  </si>
+  <si>
+    <t>Så visas en bild av en webbsida såsom i webbläsaren i en del av sidan</t>
+  </si>
+  <si>
+    <t>Och html-koden som ger bilden är densamma som den html-kod som visas i sidan</t>
+  </si>
+  <si>
+    <t>Och css-koden som ger bilden är densamma som den css-kod som visas i sidan</t>
+  </si>
+  <si>
+    <t>Mall får skapas när funktionen fungerar. Flyttas till eget scenario</t>
+  </si>
+  <si>
+    <t>Visas det? Viss rätt kod? Måste tyvärr flyttas fram.</t>
+  </si>
+  <si>
+    <t>Måste tyvärr flyttas fram</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>Skriva testfall 1a, 1b, 1c</t>
+  </si>
+  <si>
+    <t>1a-c</t>
+  </si>
+  <si>
+    <t>Scenario: Skapa html-mall</t>
+  </si>
+  <si>
+    <t>Så visas html-kod som ska användas som mall för css-ändringar</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>Och denna kod är applicerad på koden i resultatet</t>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">När användaren går in på sidan </t>
+  </si>
+  <si>
+    <t>så visas koden till en defaultmall i en del av sidan</t>
+  </si>
+  <si>
+    <t>Kvar</t>
+  </si>
+  <si>
+    <t>Mål: En html-kod att använda för css-manipulation som är så genomtänkt jag kan i ett första steg. Till denna ska finnas en default-cssmall att använda i kommande steg. Hoppas även hitta bättre sätt att ladda in html- och csskod som fungerar bättre för editering.</t>
+  </si>
+  <si>
+    <t>Skriva testfall</t>
+  </si>
+  <si>
+    <t>Analys av föregående iteration: Svårt att förstå i förväg vilka steg som kommer att behöva tas. Jag fick dela upp de delar jag lyft in och låta delar bli egna scenarios för nästa iteration och plocka in ett annat (visa resultat) för att faktiskt kunna utföra de jag valt för sprinten. Att tänka om, ändra, omvärdera och uppdatera dokument tar en del tid och energi.</t>
   </si>
 </sst>
 </file>
@@ -224,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$kr-41D];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$kr-41D]"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +373,19 @@
       <sz val="11"/>
       <color rgb="FF2E74B5"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF2E74B5"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -435,7 +518,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -525,11 +608,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -817,7 +907,7 @@
   <dimension ref="A1:AMI3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -863,14 +953,20 @@
       </c>
       <c r="H2" s="4"/>
       <c r="L2" s="28">
-        <f>+'Sprint-1'!L14+'Sprint 0'!L19+Sprint1!M28+'Sprint 2'!L14+'Sprint 3'!L15+'Sprint 4'!L14+'Sprint 5'!L14+'Sprint 6'!L14+'Sprint 7'!L14+Avslut_Redovisning!L11</f>
-        <v>57</v>
+        <f>+'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L27+'Sprint 3'!L15+'Sprint 4'!L14+'Sprint 5'!L14+'Sprint 6'!L14+'Sprint 7'!L14+Avslut_Redovisning!L11</f>
+        <v>69.5</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
       <c r="C3" s="32"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="28">
+        <f>+L1-L2</f>
+        <v>170.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
@@ -883,6 +979,284 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI15"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A130" sqref="A1:XFD130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
+    <col min="13" max="13" width="41.625" style="46" customWidth="1"/>
+    <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
+    <col min="1024" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46"/>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="3"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="33"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="35"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="L9" s="13">
+        <f t="shared" ref="L9:L14" si="0">+SUM(E9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="L10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="L12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="L13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="16">
+        <f t="shared" ref="D14:K14" si="1">+SUM(D9:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="46"/>
+    </row>
+    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="43"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B5:L5"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSida &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI16"/>
   <sheetViews>
@@ -909,14 +1283,14 @@
         <v>26</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -929,19 +1303,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -952,31 +1326,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -2183,7 +2557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI12"/>
   <sheetViews>
@@ -2210,14 +2584,14 @@
         <v>27</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -2226,19 +2600,19 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -2247,29 +2621,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -2417,10 +2791,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI15"/>
+  <dimension ref="B2:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="65.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="33"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="40"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2436,251 +2968,212 @@
     <col min="1024" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="2:13" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>180</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1">
-        <v>60</v>
-      </c>
-      <c r="L1" s="28">
-        <f>+G1+I1</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28"/>
       <c r="C2" s="32"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="33"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+    </row>
+    <row r="6" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="33"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="28"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="L2" s="28" t="e">
-        <f>+L14+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:13" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="H7" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="3"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="I7" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="33"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="28"/>
-      <c r="L7" s="6"/>
+      <c r="J7" s="9">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-    </row>
-    <row r="9" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="33"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="28"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="13">
+        <f>+SUM(E8:K8)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9">
+      <c r="L9" s="13">
+        <f>+SUM(E9:K9)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="K10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="9">
-        <v>2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>3</v>
-      </c>
-      <c r="H10" s="9">
-        <v>4</v>
-      </c>
-      <c r="I10" s="9">
-        <v>5</v>
-      </c>
-      <c r="J10" s="9">
-        <v>6</v>
-      </c>
-      <c r="K10" s="9">
-        <v>7</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="19"/>
+      <c r="L10" s="13">
+        <f>+SUM(E10:K10)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4</v>
-      </c>
-      <c r="L11" s="13">
-        <f>+SUM(E11:K11)</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="I12" s="1">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2</v>
-      </c>
-      <c r="K12" s="1">
-        <v>7</v>
-      </c>
-      <c r="L12" s="13">
-        <f>+SUM(E12:K12)</f>
+      <c r="B11" s="14"/>
+      <c r="C11" s="36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="13">
-        <f>+SUM(E13:K13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" ref="D14:L14" si="0">+SUM(D11:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="16">
+      <c r="D11" s="16">
+        <f t="shared" ref="D11:L11" si="0">+SUM(D8:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G11" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I11" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J11" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K11" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="L15" s="27"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="L12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B5:L5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2691,12 +3184,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI20"/>
+  <dimension ref="A1:AMI16"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2712,375 +3205,325 @@
     <col min="1024" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="2:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1">
-        <v>180</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1">
-        <v>60</v>
-      </c>
-      <c r="L1" s="28">
-        <f>+G1+I1</f>
-        <v>240</v>
-      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="46"/>
     </row>
-    <row r="2" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28"/>
+    <row r="2" spans="2:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
       <c r="C2" s="32"/>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="L2" s="28" t="e">
-        <f>+#REF!+L19+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="46"/>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="3"/>
-      <c r="L3" s="28"/>
+    <row r="3" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="46"/>
-      <c r="L4" s="27"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="46"/>
     </row>
-    <row r="5" spans="2:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="3"/>
+    <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="46"/>
     </row>
-    <row r="6" spans="2:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="32"/>
+    <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46"/>
     </row>
-    <row r="7" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+    <row r="7" spans="2:13" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="M7" s="46"/>
     </row>
-    <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="33"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="28"/>
-      <c r="L8" s="6"/>
+    <row r="8" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="46"/>
     </row>
-    <row r="9" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+    <row r="9" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="12">
+        <v>7</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="13">
+        <f t="shared" ref="L9:L15" si="0">+SUM(E9:K9)</f>
+        <v>6.5</v>
+      </c>
       <c r="M9" s="46"/>
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="3"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="M10" s="46"/>
     </row>
-    <row r="11" spans="2:13" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9">
+    <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="9">
-        <v>3</v>
-      </c>
-      <c r="H11" s="9">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9">
-        <v>5</v>
-      </c>
-      <c r="J11" s="9">
-        <v>6</v>
-      </c>
-      <c r="K11" s="9">
-        <v>7</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="12">
-        <v>7</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18">
-        <v>5</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18">
-        <v>1</v>
-      </c>
-      <c r="K13" s="18"/>
+      <c r="L12" s="13">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="12"/>
       <c r="L13" s="13">
-        <f t="shared" ref="L13:L19" si="0">+SUM(E13:K13)</f>
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M13" s="46"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="35" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D14" s="12">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
       <c r="I14" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.5</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="M14" s="46"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="13">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="12">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="13">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="M16" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="12"/>
-      <c r="L17" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="46"/>
-    </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="13">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="M18" s="46"/>
-    </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="36" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="16">
-        <f t="shared" ref="D19:K19" si="1">+SUM(D13:D18)</f>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15:K15" si="1">+SUM(D9:D14)</f>
         <v>20</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F15" s="16">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G15" s="16">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H15" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I15" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J15" s="16">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L15" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M19" s="46"/>
-    </row>
-    <row r="20" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="38"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="30"/>
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="38"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B5:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ29"/>
+  <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3101,15 +3544,15 @@
         <v>19</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="28"/>
       <c r="N1" s="46"/>
     </row>
@@ -3122,20 +3565,20 @@
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3147,33 +3590,33 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="28"/>
       <c r="N6" s="46"/>
     </row>
@@ -3188,7 +3631,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -3284,7 +3727,9 @@
       <c r="D11" s="12">
         <v>1</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
         <v>0.5</v>
       </c>
@@ -3308,9 +3753,11 @@
       <c r="D12" s="12">
         <v>2</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
       <c r="F12" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3320,17 +3767,19 @@
       <c r="L12" s="1"/>
       <c r="M12" s="13">
         <f>+SUM(F12:L12)</f>
-        <v>1.5</v>
-      </c>
-      <c r="N12" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="40" t="s">
-        <v>41</v>
-      </c>
+      <c r="C13" s="40"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3339,61 +3788,63 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="31"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="12">
-        <v>3</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="13">
-        <f>+SUM(F14:L14)</f>
-        <v>5</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>61</v>
-      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="46"/>
+      <c r="M15" s="13">
+        <f>+SUM(F15:L15)</f>
+        <v>5.5</v>
+      </c>
+      <c r="N15" s="46" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3402,19 +3853,20 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="13">
-        <f>+SUM(F16:L16)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="46" t="s">
-        <v>57</v>
-      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3422,16 +3874,17 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="46"/>
+      <c r="M17" s="13">
+        <f>+SUM(F17:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>44</v>
-      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="1"/>
@@ -3445,13 +3898,13 @@
       <c r="N18" s="46"/>
     </row>
     <row r="19" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="12">
-        <v>3</v>
-      </c>
+      <c r="B19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3460,18 +3913,17 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="13">
-        <f>+SUM(F19:L19)</f>
-        <v>0</v>
-      </c>
+      <c r="M19" s="13"/>
       <c r="N19" s="46"/>
     </row>
     <row r="20" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="D20" s="12">
+        <v>3</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3480,17 +3932,20 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="46"/>
+      <c r="M20" s="13">
+        <f>+SUM(F20:L20)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="12">
-        <v>5</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3499,37 +3954,45 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="13">
-        <f>+SUM(F21:L21)</f>
-        <v>0</v>
-      </c>
+      <c r="M21" s="13"/>
       <c r="N21" s="46"/>
     </row>
     <row r="22" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="D22" s="12">
+        <v>5</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="46"/>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="13">
+        <f>+SUM(F22:L22)</f>
+        <v>5</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3538,17 +4001,20 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="13">
-        <f>+SUM(F23:L23)</f>
-        <v>0</v>
-      </c>
+      <c r="M23" s="13"/>
       <c r="N23" s="46"/>
     </row>
     <row r="24" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="C24" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3556,113 +4022,296 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="46"/>
-    </row>
-    <row r="25" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="13">
+        <f>+SUM(F24:L24)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="47"/>
+    </row>
+    <row r="26" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="47"/>
+    </row>
+    <row r="27" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="47"/>
+    </row>
+    <row r="28" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="47"/>
+    </row>
+    <row r="29" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="47"/>
+    </row>
+    <row r="30" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="13"/>
+      <c r="N30" s="47"/>
+    </row>
+    <row r="31" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="47"/>
+    </row>
+    <row r="32" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="47"/>
+    </row>
+    <row r="33" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="46"/>
+    </row>
+    <row r="34" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D34" s="12">
         <v>1</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="M25" s="13">
-        <f>+SUM(F25:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="46" t="s">
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13">
+        <f>+SUM(F34:L34)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="35" t="s">
+    <row r="35" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D35" s="12">
         <v>1</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="G26" s="1">
+      <c r="E35" s="12">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
         <v>0.5</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I35" s="1">
         <v>2.5</v>
       </c>
-      <c r="M26" s="13">
-        <f>+SUM(F26:L26)</f>
-        <v>3</v>
-      </c>
-      <c r="N26" s="46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="35" t="s">
+      <c r="K35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="13">
+        <f>+SUM(F35:L35)</f>
+        <v>3.5</v>
+      </c>
+      <c r="N35" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D36" s="12">
         <v>1</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="M27" s="13">
-        <f>+SUM(F27:L27)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="46"/>
-    </row>
-    <row r="28" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="16">
-        <f t="shared" ref="D28:L28" si="0">+SUM(D8:D27)</f>
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="13">
+        <f>+SUM(F36:L36)</f>
+        <v>2</v>
+      </c>
+      <c r="N36" s="46"/>
+    </row>
+    <row r="37" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="16">
+        <f t="shared" ref="D37:L37" si="0">+SUM(D8:D36)</f>
         <v>20.5</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16">
+      <c r="E37" s="16">
+        <f>+SUM(E8:E36)</f>
+        <v>23</v>
+      </c>
+      <c r="F37" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G37" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H37" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I37" s="16">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K37" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="L37" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="21">
-        <f>+SUM(F28:L28)</f>
-        <v>11.5</v>
-      </c>
-      <c r="N28" s="46"/>
-    </row>
-    <row r="29" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="38"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="23"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="M37" s="21">
+        <f>+SUM(F37:L37)</f>
+        <v>24</v>
+      </c>
+      <c r="N37" s="46"/>
+    </row>
+    <row r="38" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="38"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="23"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3680,23 +4329,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI15"/>
+  <dimension ref="A1:AMI28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="54.875" style="35" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="41.625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="68.875" style="32" customWidth="1"/>
     <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
     <col min="1024" max="16384" width="9" style="46"/>
   </cols>
@@ -3706,75 +4355,75 @@
         <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="28"/>
-      <c r="M1" s="46"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="2:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
       <c r="C2" s="32"/>
       <c r="D2" s="3"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="46"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
       <c r="D4" s="3"/>
       <c r="E4" s="28"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="46"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="46"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -3810,7 +4459,7 @@
       <c r="L7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="46"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -3824,121 +4473,275 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="46"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>1.5</v>
+      </c>
       <c r="L9" s="13">
-        <f t="shared" ref="L9:L14" si="0">+SUM(E9:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="46"/>
+        <f>+SUM(E9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
-      <c r="C10" s="35" t="s">
-        <v>16</v>
-      </c>
+      <c r="C10" s="35"/>
       <c r="D10" s="12"/>
-      <c r="L10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="46"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="C11" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
       <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="46"/>
+        <f t="shared" ref="L10:L26" si="0">+SUM(E11:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="35" t="s">
-        <v>18</v>
-      </c>
+      <c r="C12" s="35"/>
       <c r="D12" s="12"/>
-      <c r="L12" s="13">
+      <c r="L12" s="13"/>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="32"/>
+    </row>
+    <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="32"/>
+    </row>
+    <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="32"/>
+    </row>
+    <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="12">
+        <v>8</v>
+      </c>
+      <c r="L16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="35" t="s">
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="12">
+        <v>4</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="12">
+        <v>4</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="L13" s="13">
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="L26" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="16">
-        <f t="shared" ref="D14:K14" si="1">+SUM(D9:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="16">
+        <f t="shared" ref="D27:K27" si="1">+SUM(D9:D26)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K27" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="46"/>
-    </row>
-    <row r="15" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="30"/>
+      <c r="L27" s="21">
+        <f>+SUM(E27:K27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="43"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3951,7 +4754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI16"/>
   <sheetViews>
@@ -3990,14 +4793,14 @@
         <v>22</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
       <c r="L2" s="28"/>
       <c r="M2" s="46"/>
     </row>
@@ -4009,19 +4812,19 @@
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4032,31 +4835,31 @@
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
       <c r="M6" s="46"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="28"/>
       <c r="M7" s="46"/>
     </row>
@@ -4240,7 +5043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI16"/>
   <sheetViews>
@@ -4266,14 +5069,14 @@
         <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -4285,19 +5088,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4308,31 +5111,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -4529,7 +5332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI16"/>
   <sheetViews>
@@ -4555,14 +5358,14 @@
         <v>24</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -4574,19 +5377,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4597,31 +5400,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -5827,282 +6630,4 @@
     <oddFooter>&amp;CSida &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI15"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A130" sqref="A1:XFD130"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="41.625" style="46" customWidth="1"/>
-    <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
-    <col min="1024" max="16384" width="9" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="3"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="33"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="28"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="35"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9">
-        <v>4</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9">
-        <v>6</v>
-      </c>
-      <c r="K7" s="9">
-        <v>7</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="L9" s="13">
-        <f t="shared" ref="L9:L14" si="0">+SUM(E9:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="L10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="L12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="L13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="16">
-        <f t="shared" ref="D14:K14" si="1">+SUM(D9:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="46"/>
-    </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B5:L5"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CSida &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TotalTid" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="171">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Skriv testfall</t>
   </si>
   <si>
-    <t>Visas det? Viss rätt kod?</t>
-  </si>
-  <si>
     <t>Testa hela applikationen. All funktionalitet. Har ändringar påverkat annat? Försöka trigga buggar. Gör saker i olika ordning.</t>
   </si>
   <si>
@@ -278,13 +275,296 @@
     <t>Kvar</t>
   </si>
   <si>
-    <t>Mål: En html-kod att använda för css-manipulation som är så genomtänkt jag kan i ett första steg. Till denna ska finnas en default-cssmall att använda i kommande steg. Hoppas även hitta bättre sätt att ladda in html- och csskod som fungerar bättre för editering.</t>
-  </si>
-  <si>
     <t>Skriva testfall</t>
   </si>
   <si>
     <t>Analys av föregående iteration: Svårt att förstå i förväg vilka steg som kommer att behöva tas. Jag fick dela upp de delar jag lyft in och låta delar bli egna scenarios för nästa iteration och plocka in ett annat (visa resultat) för att faktiskt kunna utföra de jag valt för sprinten. Att tänka om, ändra, omvärdera och uppdatera dokument tar en del tid och energi.</t>
+  </si>
+  <si>
+    <t>Givet att experimenteditorn är laddad</t>
+  </si>
+  <si>
+    <t>När användaren byter ut värdet på ett attribut i css-koden</t>
+  </si>
+  <si>
+    <t>Så uppdateras resultatet</t>
+  </si>
+  <si>
+    <t>Och det ursprungliga värdet är utbytt mot det nya</t>
+  </si>
+  <si>
+    <t>Systemtest och testrapport (test av hela applikationen)</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Scenario: Ändra värde på befintligt attribut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Göra så att koden är i ett element som är editerbart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Skapa en "editeringsknapp"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Se till så att ändringen levereras till resultatet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Se till att ändringen slår igenom i resultatet</t>
+  </si>
+  <si>
+    <t>CodeSchool-Try jQuery Level 1-3</t>
+  </si>
+  <si>
+    <t>Ändrat innehållet i veckans sprint efter handledning.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Förväntat resultat</t>
+  </si>
+  <si>
+    <t>Utfall</t>
+  </si>
+  <si>
+    <t>Kod till en html-sida visas i en del av sidan</t>
+  </si>
+  <si>
+    <t>Användaren går in på sidan</t>
+  </si>
+  <si>
+    <t>Användaren laddar om sidan</t>
+  </si>
+  <si>
+    <t>Css-kod visas i en del av sidan</t>
+  </si>
+  <si>
+    <t>En bild av en webbsida såsom den vore i webbläsaren visas i en del av sidan</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>Kommentar/Åtgärd</t>
+  </si>
+  <si>
+    <t>Har gjort så att filer kan läsas in med Ajax istället för att hårdkoda i variabler. Tror att det bör underlätta för resultatet att slå igenom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Gör så att mall med html och css kan läsas in från filer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Se till så att resultatet hanterar att html och css läses in från filer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Göra så att användaren kan ändra värde</t>
+  </si>
+  <si>
+    <t>Läst på om html-element. Lyckats lägga ut textarea och sett till att defaultmall laddas i den</t>
+  </si>
+  <si>
+    <t>Det slår igenom i resultatet men jag jag har problem med att iframen inte har laddat när css-koden ska läsas in. Har löst det med timer vilket ger mig två frågor: Är tiden okej? Är timer ett bra sätt eller bör jag göra på annat sätt?</t>
+  </si>
+  <si>
+    <t>3.1.a</t>
+  </si>
+  <si>
+    <t>1f</t>
+  </si>
+  <si>
+    <t>Gick fortare genom att jag läst på och testat i tidigare steg och lagt tid på CodeSchool</t>
+  </si>
+  <si>
+    <t>Koden är densamma som i HtmlPage.html</t>
+  </si>
+  <si>
+    <t>Css-koden är densamma som i StyleDefault.css</t>
+  </si>
+  <si>
+    <t>html-koden som ger bilden är densamma som den html-kod som visas i sidan (se TF 1)</t>
+  </si>
+  <si>
+    <t>Och css-koden som ger bilden är densamma som den css-kod som visas i sidan (se TF 2)</t>
+  </si>
+  <si>
+    <t>Användaren laddar om sidan tre gånger direkt efter varandra</t>
+  </si>
+  <si>
+    <t>Css-koden är i ett element som är editerbart och det är möjligt att ta bort ett värde på ett attribut och skriva dit ett nytt.</t>
+  </si>
+  <si>
+    <t>Användaren ändrar bodyns bakgrundsfärg till green och trycker uppdatera</t>
+  </si>
+  <si>
+    <t>Användaren ändrar bodyns bakgrundsfärg till "green" och trycker uppdatera</t>
+  </si>
+  <si>
+    <t>Hjälptext som säger att citat-tecken inte ska finnas?</t>
+  </si>
+  <si>
+    <t>Användaren ändrar bodyns bakgrundsfärg till kanin och trycker uppdatera</t>
+  </si>
+  <si>
+    <t>Hjälptext som säger att värdet inte är ett giltigt värde?</t>
+  </si>
+  <si>
+    <t>Användaren ändrar bodyns bakgrundsfärg till #fff och trycker uppdatera</t>
+  </si>
+  <si>
+    <t>Iframens bakgrundsfärg blir grön och attributets värde i style-taggen ändras till inmatat värde.</t>
+  </si>
+  <si>
+    <t>Iframens bakgrundsfärg försvinner d v s samma som index.htmls bakgrundsfärg och attributets värde i style-taggen ändras till inmatat värde.</t>
+  </si>
+  <si>
+    <t>Iframens bakgrundsfärg blir vit och attributets värde i style-taggen ändras till inmatat värde.</t>
+  </si>
+  <si>
+    <t>BK3.2 Lägga till css-attribut</t>
+  </si>
+  <si>
+    <t>Scenario: Nytt css-attribut</t>
+  </si>
+  <si>
+    <t>När användaren skriver in ett nytt css-attribut</t>
+  </si>
+  <si>
+    <t>Och ett värde på attributet i css-koden</t>
+  </si>
+  <si>
+    <t>Och det attributet är med i resultatet</t>
+  </si>
+  <si>
+    <t>Och värdet på attributet är med i resultatet</t>
+  </si>
+  <si>
+    <t>BK3.3 Ta bort css-attribut</t>
+  </si>
+  <si>
+    <t>Scenario: Ta bort css-attribut</t>
+  </si>
+  <si>
+    <t>När användaren väljer att ta bort ett css-attribut</t>
+  </si>
+  <si>
+    <t>Och det borttagna attributet är inte med i resultatet</t>
+  </si>
+  <si>
+    <t>Och värdet på det borttagna attributet är inte med i resultatet</t>
+  </si>
+  <si>
+    <t>Scenarios nedan lades in på dag fem då det visade sig att scenariot ovan löst mycket av dessa scenarios också</t>
+  </si>
+  <si>
+    <t>Det går att lägga till nya attribut och värden men editeringen i textrutan lämnar en del</t>
+  </si>
+  <si>
+    <t xml:space="preserve">att önska. Det går inte att tabba vilket gör formateringen bedrövlig. Vid tab så försvinner </t>
+  </si>
+  <si>
+    <t>markören till knappen "uppdatera" istället för att göra en tab.</t>
+  </si>
+  <si>
+    <t>Skriva testfall 1a, 1b, 1c, 1f</t>
+  </si>
+  <si>
+    <t>Användaren skriver in ett nytt css-attribut, color på elementet p,  och ett värde, red,  på attributet i css-koden</t>
+  </si>
+  <si>
+    <t>Användaren skriver in ett nytt css-attribut, color på elementet orvar,  och ett värde, red,  på attributet i css-koden</t>
+  </si>
+  <si>
+    <t>Hjälptext?</t>
+  </si>
+  <si>
+    <t>Textfärgen på alla p-taggar i iframen ändras till röd i resultatrutan och attributet med värde läggs till i style-taggen</t>
+  </si>
+  <si>
+    <t>Användaren väljer att ta bort ett css-attribut</t>
+  </si>
+  <si>
+    <t>Värdet på attributet ärvs från stylen p index.html</t>
+  </si>
+  <si>
+    <t>Har svårt nu att ange ett exakt testfall. Ingen mall är klar och den kan dessutom ha ändrats av användare hur mycket som helst</t>
+  </si>
+  <si>
+    <t>3.2.a</t>
+  </si>
+  <si>
+    <t>3.3.a</t>
+  </si>
+  <si>
+    <t>Scenario: Logga in</t>
+  </si>
+  <si>
+    <t>När användaren väljer att logga in</t>
+  </si>
+  <si>
+    <t>Och fyller i användarnamn och lösenord</t>
+  </si>
+  <si>
+    <t>Så får användaren tillgång till Firebase</t>
+  </si>
+  <si>
+    <t>Scenario: Spara mall</t>
+  </si>
+  <si>
+    <t>När användaren väljer att spara sina css-förändringar</t>
+  </si>
+  <si>
+    <t>Och har loggat in</t>
+  </si>
+  <si>
+    <t>Så sparas de aktuella css-inställningarna på användaren i Firebase</t>
+  </si>
+  <si>
+    <t>Läsa på om Firebase</t>
+  </si>
+  <si>
+    <t>CodeSchool-Try jQuery Level 4-6</t>
+  </si>
+  <si>
+    <t>Skapa knapp edyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mål: En html-kod att använda för css-manipulation som är så genomtänkt jag kan i ett första steg. Till denna ska finnas en default-cssmall att använda i kommande steg. Hoppas även hitta bättre sätt att ladda in html- och csskod som fungerar bättre för editering.</t>
+  </si>
+  <si>
+    <t>Mål: Att kunna göra editeringar i css-rutan och få dem att slå igenom i visningen av resultatet. Lära mer om jQuery genom att göra övningar på CodeSchool. Målet är ändrat efter handledning. Det tidigare målet är nu inlagt i sprint 4.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analys av föregående iteration: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fick hjälp på handledning att prioritera. De mest riskfyllda momenten är att kunna editera css-en och att kunna spara eftersom jag inte alls visste/vet hur man gör. Det första lades därför in i den nu avslutade sprinten och verkar löst och det andra, spara, läggs in i den sprint som nu kommer. Lyckades göra css-koden editerbar och fick den att slå igenom i resultatet i iframe. Problem med att DOMen iframen inte alltid hinner laddas innan koden försöker tillämpa css-kod i den. Nytt krav tillagt för detta. Jag hade delat upp editeringen i olika steg för att ändra i befintliga attribut, lägga till nya och att ta bort. Det första lyftes in i sprinten. När det var löst fungerade även de andra två varför de också lyftes in och testades.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mål: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Förstå vad Firebase är och hur jag kan använda det. Skapa möjlighet till inloggning och sparning i Firebase. Lära mer jQuery genom CodeSchoolövningar. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -294,7 +574,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$kr-41D];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$kr-41D]"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +663,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F4D78"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -518,7 +811,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,15 +902,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -907,7 +1216,7 @@
   <dimension ref="A1:AMI3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -953,19 +1262,19 @@
       </c>
       <c r="H2" s="4"/>
       <c r="L2" s="28">
-        <f>+'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L27+'Sprint 3'!L15+'Sprint 4'!L14+'Sprint 5'!L14+'Sprint 6'!L14+'Sprint 7'!L14+Avslut_Redovisning!L11</f>
-        <v>69.5</v>
+        <f>+'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L31+'Sprint 4'!L26+'Sprint 5'!L14+'Sprint 6'!L14+'Sprint 7'!L14+Avslut_Redovisning!L11</f>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
       <c r="C3" s="32"/>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" s="28">
         <f>+L1-L2</f>
-        <v>170.5</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +1292,7 @@
   <dimension ref="A1:AMI15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A130" sqref="A1:XFD130"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1005,14 +1314,14 @@
         <v>25</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -1025,19 +1334,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1048,31 +1357,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -1283,14 +1592,14 @@
         <v>26</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -1303,19 +1612,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1326,31 +1635,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -2584,14 +2893,14 @@
         <v>27</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -2600,19 +2909,19 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -2621,29 +2930,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -2791,156 +3100,427 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E19"/>
+  <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="525"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="80.875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9" style="50" customWidth="1"/>
+    <col min="7" max="7" width="75.375" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="53">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="53">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="53">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E22" s="40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="54" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="D23" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" s="54" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="32"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="53">
+        <v>4</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="50">
+        <v>2</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D28" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D29" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D30" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="D31" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="54" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="D32" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="1:7" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="58"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="53">
+        <v>5</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="50">
+        <v>2</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D35" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D36" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="32"/>
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="53">
+        <v>6</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="50">
+        <v>2</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D39" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="D41" s="58"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="D42" s="58"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="D43" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2952,7 +3532,7 @@
   <dimension ref="A1:AMI12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2973,14 +3553,14 @@
         <v>4</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2990,19 +3570,19 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -3011,19 +3591,19 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
@@ -3210,14 +3790,14 @@
         <v>14</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="3"/>
       <c r="M1" s="46"/>
     </row>
@@ -3229,19 +3809,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3252,32 +3832,32 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46"/>
     </row>
@@ -3522,8 +4102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3544,15 +4124,15 @@
         <v>19</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
       <c r="M1" s="28"/>
       <c r="N1" s="46"/>
     </row>
@@ -3565,20 +4145,20 @@
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3590,33 +4170,33 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
       <c r="M6" s="28"/>
       <c r="N6" s="46"/>
     </row>
@@ -3631,7 +4211,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -3770,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3836,7 +4416,7 @@
         <v>5.5</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3879,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3937,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3984,7 +4564,7 @@
         <v>5</v>
       </c>
       <c r="N22" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4027,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4047,10 +4627,10 @@
     </row>
     <row r="26" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>63</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -4066,7 +4646,7 @@
     </row>
     <row r="27" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="49" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="12"/>
@@ -4083,8 +4663,8 @@
     </row>
     <row r="28" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
-      <c r="C28" s="52" t="s">
-        <v>65</v>
+      <c r="C28" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12">
@@ -4104,8 +4684,8 @@
     </row>
     <row r="29" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
-      <c r="C29" s="52" t="s">
-        <v>66</v>
+      <c r="C29" s="49" t="s">
+        <v>65</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12">
@@ -4125,8 +4705,8 @@
     </row>
     <row r="30" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
-      <c r="C30" s="52" t="s">
-        <v>67</v>
+      <c r="C30" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12">
@@ -4209,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4237,7 +4817,7 @@
         <v>3.5</v>
       </c>
       <c r="N35" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4331,10 +4911,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI28"/>
+  <dimension ref="A1:AMI53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4345,7 +4925,7 @@
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="68.875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="83.5" style="32" customWidth="1"/>
     <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
     <col min="1024" max="16384" width="9" style="46"/>
   </cols>
@@ -4355,14 +4935,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -4374,19 +4954,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="B3" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4397,31 +4977,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="B5" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -4483,9 +5063,12 @@
       <c r="D9" s="12">
         <v>1.5</v>
       </c>
+      <c r="F9" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L9" s="13">
         <f>+SUM(E9:K9)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M9" s="32"/>
     </row>
@@ -4498,21 +5081,25 @@
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D11" s="12">
         <v>2</v>
       </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="L11" s="13">
-        <f t="shared" ref="L10:L26" si="0">+SUM(E11:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>57</v>
-      </c>
+        <f t="shared" ref="L11:L51" si="0">+SUM(E11:K11)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
@@ -4521,30 +5108,43 @@
       <c r="L12" s="13"/>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="32"/>
+        <v>114</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="52" t="s">
-        <v>41</v>
-      </c>
+      <c r="C14" s="35"/>
       <c r="D14" s="12"/>
       <c r="L14" s="13"/>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="52" t="s">
-        <v>75</v>
+      <c r="B15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13"/>
@@ -4552,57 +5152,70 @@
     </row>
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="12">
-        <v>8</v>
-      </c>
-      <c r="L16" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C16" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C17" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="L17" s="13"/>
       <c r="M17" s="32"/>
     </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="32"/>
+      <c r="C18" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="32"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
-      <c r="C20" s="52" t="s">
-        <v>80</v>
+      <c r="C20" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="D20" s="12">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="0"/>
@@ -4612,136 +5225,447 @@
     </row>
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
-      <c r="C21" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="12">
-        <v>4</v>
-      </c>
-      <c r="L21" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C21" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-      <c r="C22" s="52" t="s">
-        <v>83</v>
+      <c r="C22" s="49" t="s">
+        <v>109</v>
       </c>
       <c r="D22" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.5</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="12"/>
-      <c r="L23" s="13"/>
+      <c r="C23" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="12">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="M23" s="32"/>
     </row>
-    <row r="24" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="L24" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" spans="2:13" s="1" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="35" t="s">
-        <v>33</v>
+      <c r="C25" s="49" t="s">
+        <v>93</v>
       </c>
       <c r="D25" s="12">
         <v>2</v>
       </c>
+      <c r="I25" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L25" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="32"/>
+        <v>1.5</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="32"/>
+    </row>
+    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="32"/>
+    </row>
+    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="32"/>
+    </row>
+    <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="32"/>
+    </row>
+    <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L37" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M37" s="32"/>
+    </row>
+    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="12"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="32"/>
+    </row>
+    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="L39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="32"/>
+    </row>
+    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
+      <c r="C40" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="32"/>
+    </row>
+    <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+      <c r="C41" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="32"/>
+    </row>
+    <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="32"/>
+    </row>
+    <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="32"/>
+    </row>
+    <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="32"/>
+    </row>
+    <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="C45" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="32"/>
+    </row>
+    <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
+      <c r="C46" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L46" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M46" s="32"/>
+    </row>
+    <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="12"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="32"/>
+    </row>
+    <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="12">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+      <c r="L48" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M48" s="32"/>
+    </row>
+    <row r="49" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M49" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="13">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M50" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="12">
-        <v>2</v>
-      </c>
-      <c r="L26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="32"/>
-    </row>
-    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="16">
-        <f t="shared" ref="D27:K27" si="1">+SUM(D9:D26)</f>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M51" s="32"/>
+    </row>
+    <row r="52" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="16">
+        <f t="shared" ref="D52:K52" si="1">+SUM(D9:D51)</f>
         <v>25.5</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E52" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F52" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="15">
+        <v>4</v>
+      </c>
+      <c r="G52" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
+        <v>5</v>
+      </c>
+      <c r="H52" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="15">
+        <v>7</v>
+      </c>
+      <c r="I52" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="J52" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="15">
+        <v>3</v>
+      </c>
+      <c r="K52" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L27" s="21">
-        <f>+SUM(E27:K27)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="32"/>
-    </row>
-    <row r="28" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="43"/>
+      <c r="L52" s="21">
+        <f>+SUM(E52:K52)</f>
+        <v>25.5</v>
+      </c>
+      <c r="M52" s="32"/>
+    </row>
+    <row r="53" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="43"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4751,15 +5675,16 @@
     <mergeCell ref="D1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI16"/>
+  <dimension ref="A1:AMI32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4793,14 +5718,14 @@
         <v>22</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="28"/>
       <c r="M2" s="46"/>
     </row>
@@ -4811,20 +5736,20 @@
       <c r="L3" s="28"/>
       <c r="M3" s="46"/>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+    <row r="4" spans="2:13" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4835,31 +5760,31 @@
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="B6" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
       <c r="M6" s="46"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="28"/>
       <c r="M7" s="46"/>
     </row>
@@ -4918,114 +5843,300 @@
       <c r="C10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>1.5</v>
+      </c>
       <c r="L10" s="13">
-        <f t="shared" ref="L10:L15" si="0">+SUM(E10:K10)</f>
+        <f t="shared" ref="L10:L31" si="0">+SUM(E10:K10)</f>
         <v>0</v>
       </c>
       <c r="M10" s="46"/>
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="35" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="35"/>
       <c r="D11" s="12"/>
-      <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="46"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="12"/>
+      <c r="C12" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
       <c r="L12" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="46"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="35" t="s">
-        <v>18</v>
+      <c r="C13" s="49" t="s">
+        <v>157</v>
       </c>
       <c r="D13" s="12"/>
       <c r="L13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="46"/>
+      <c r="M13" s="54" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="35" t="s">
-        <v>12</v>
+      <c r="C14" s="49" t="s">
+        <v>158</v>
       </c>
       <c r="D14" s="12"/>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="46"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="16">
-        <f t="shared" ref="D15:K15" si="1">+SUM(D10:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="B15" s="11"/>
+      <c r="C15" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="L15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="L16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="54"/>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="12">
+        <v>5</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="54"/>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="L19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="L20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="L21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="54"/>
+    </row>
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="L22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="54"/>
+    </row>
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="12">
+        <v>6</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="54"/>
+    </row>
+    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="54"/>
+    </row>
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="12">
+        <v>5</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="46"/>
+    </row>
+    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="46"/>
+    </row>
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="L30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="46"/>
+    </row>
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="16">
+        <f t="shared" ref="D31:K31" si="1">+SUM(D10:D30)</f>
+        <v>26</v>
+      </c>
+      <c r="E31" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F31" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G31" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H31" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I31" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J31" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K31" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="46"/>
-    </row>
-    <row r="16" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="43"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="30"/>
+      <c r="L31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="46"/>
+    </row>
+    <row r="32" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="43"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5045,10 +6156,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI16"/>
+  <dimension ref="A1:AMI28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5069,14 +6180,14 @@
         <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -5088,19 +6199,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5110,32 +6221,32 @@
       <c r="L4" s="6"/>
       <c r="M4" s="46"/>
     </row>
-    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+    <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -5177,144 +6288,277 @@
     </row>
     <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="46"/>
+      <c r="C8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="13">
+        <f>+SUM(E8:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
-      <c r="C9" s="35" t="s">
-        <v>20</v>
-      </c>
+      <c r="C9" s="35"/>
       <c r="D9" s="12"/>
-      <c r="L9" s="13">
-        <f t="shared" ref="L9:L14" si="0">+SUM(E9:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="46"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="C10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
       <c r="L10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="46"/>
+        <f t="shared" ref="L10:L25" si="0">+SUM(E10:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="35" t="s">
-        <v>17</v>
-      </c>
+      <c r="C11" s="35"/>
       <c r="D11" s="12"/>
-      <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="46"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="35" t="s">
-        <v>18</v>
+      <c r="B12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="L12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="46"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="50"/>
+    </row>
+    <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="12">
+        <v>8</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="50"/>
+    </row>
+    <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="50"/>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="50"/>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="12">
+        <v>4</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="50"/>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="12">
+        <v>4</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="50"/>
+    </row>
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="50"/>
+    </row>
+    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="50"/>
+    </row>
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="50"/>
+    </row>
+    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="L13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="16">
-        <f t="shared" ref="D14:K14" si="1">+SUM(D9:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="16">
+        <f>+SUM(D8:D25)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" ref="E26:K26" si="1">+SUM(E8:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G26" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="15">
+      <c r="H26" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="15">
+      <c r="I26" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="15">
+      <c r="J26" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="15">
+      <c r="K26" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="46"/>
-    </row>
-    <row r="15" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="43"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="30"/>
+      <c r="L26" s="21">
+        <f>+SUM(L8:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="43"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="30"/>
+    </row>
+    <row r="28" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="43"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5358,14 +6602,14 @@
         <v>24</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -5377,19 +6621,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5400,31 +6644,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>

--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TotalTid" sheetId="12" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId6"/>
     <sheet name="Sprint 3" sheetId="4" r:id="rId7"/>
-    <sheet name="Sprint 4" sheetId="6" r:id="rId8"/>
-    <sheet name="Sprint 5" sheetId="7" r:id="rId9"/>
+    <sheet name="Sprint 4" sheetId="7" r:id="rId8"/>
+    <sheet name="Sprint 5" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint 6" sheetId="8" r:id="rId10"/>
     <sheet name="Sprint 7" sheetId="14" r:id="rId11"/>
     <sheet name="Avslut_Redovisning" sheetId="10" r:id="rId12"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="197">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>1c</t>
-  </si>
-  <si>
-    <t>Skriva testfall 1a, 1b, 1c</t>
   </si>
   <si>
     <t>1a-c</t>
@@ -585,10 +582,89 @@
     <t>Tilllagt steg. Hade inte tänk lägga in felmeddelanden än</t>
   </si>
   <si>
-    <t>gästföreläsning</t>
-  </si>
-  <si>
-    <t>GS-flabb 1</t>
+    <t>4.1&amp;5</t>
+  </si>
+  <si>
+    <t>Skriva testfall 4.1 och 4.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Scenario: Öppna tidigare sparad mall</t>
+  </si>
+  <si>
+    <t>Givet att användaren tidigare sparat en mall</t>
+  </si>
+  <si>
+    <t>Och att användaren loggat in</t>
+  </si>
+  <si>
+    <t>När användaren väljer en av sina sparade mallar</t>
+  </si>
+  <si>
+    <t>Så öppnas den i experimenteditorn</t>
+  </si>
+  <si>
+    <t>Och css-koden visas</t>
+  </si>
+  <si>
+    <t>Och css-koden tillämpas på html-koden och syns i resultatet</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Scenario: Logga ut</t>
+  </si>
+  <si>
+    <t>När användaren väljer att logga ut</t>
+  </si>
+  <si>
+    <t>Så får användaren ett meddelande om att han inte är inloggad</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mål: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lyckas spara och öppna en sparad mall på den viss användare. Om jag inte klarar en hel mall så åtminstone kunna spara en sträng på in viss användare och sedan komma åt den.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sett till så att Mallgrodan kan visa html och css-koden samt iframen med dem i i Internet Explorer</t>
+  </si>
+  <si>
+    <t>Skulle testa inloggning i annan webbläsare och upptäckte istället att laddningen av iframen inte funkade. Efter lite luskande hittade jag att attributet srcdoc inte stöds i Explorer. Ändrade till src och det funkade nu när jag inte längre har en varibel. Det verkar också lösa problemet med att det tagit så lång tid att ladda iframen att css inte hunnit laddas in.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analys av föregående iteration: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hade väldigt litet hum om vad som behövde göras i Firebase och hur lång tid det tar att förstå när man aldrig gjort något liknande. Jag visste inte att man behövde skapa användare och hade missat att planera för det. Jag tänkte inte heller på att man skulle kunna logga ut... En ytterligare sak som kom till vara att jag upptäckte att attributet srcdoc i iframen inte funkade i InternetExplorer och fixade det.  Att läsa på grunden om Firebase samt skapa in- och utloggning samt försöka spara på en viss användare tog all tid. Sparningen är ännu inte färdig och måste skjutas till kommande iteration. Att skriva tester och att utföra dem skjuts också fram liksom utbildning i jQuery.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -598,7 +674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$kr-41D];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$kr-41D]"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,6 +778,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -835,7 +917,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -949,13 +1031,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -1243,7 +1328,7 @@
   <dimension ref="A1:AMI3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1288,20 +1373,20 @@
         <v>3</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="L2" s="28" t="e">
-        <f>+'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L38+'Sprint 4'!L26+'Sprint 5'!L14+'Sprint 6'!L14+#REF!+Avslut_Redovisning!L11</f>
-        <v>#REF!</v>
+      <c r="L2" s="28">
+        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L44+'Sprint 4'!L28+'Sprint 5'!L26+'Sprint 6'!L14+'Sprint 7'!L14</f>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
       <c r="C3" s="32"/>
       <c r="D3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="28" t="e">
+        <v>78</v>
+      </c>
+      <c r="L3" s="28">
         <f>+L1-L2</f>
-        <v>#REF!</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2106,10 +2191,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="525"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="525" activePane="bottomLeft"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2126,23 +2211,23 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="G2" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2174,22 +2259,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="18">
         <v>2</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2200,22 +2285,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="18">
         <v>2</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2244,22 +2329,22 @@
         <v>1</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="18">
         <v>2</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2270,22 +2355,22 @@
         <v>1</v>
       </c>
       <c r="D13" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>100</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="18">
         <v>2</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2311,10 +2396,10 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2322,7 +2407,7 @@
       <c r="C18" s="18"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2330,37 +2415,37 @@
       <c r="C19" s="18"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E21" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E22" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="54" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="D23" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="32"/>
     </row>
@@ -2369,7 +2454,7 @@
       <c r="B24" s="53"/>
       <c r="D24" s="32"/>
       <c r="E24" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" s="32"/>
     </row>
@@ -2378,7 +2463,7 @@
       <c r="B25" s="53"/>
       <c r="D25" s="32"/>
       <c r="E25" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" s="32"/>
     </row>
@@ -2387,61 +2472,61 @@
         <v>4</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="50">
         <v>2</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D28" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D29" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D30" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>122</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D31" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="32" t="s">
         <v>124</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="54" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="D32" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" s="32"/>
     </row>
@@ -2457,32 +2542,32 @@
         <v>5</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="50">
         <v>2</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D35" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D36" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -2497,24 +2582,24 @@
         <v>6</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C38" s="50">
         <v>2</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D39" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="G39" s="32" t="s">
         <v>151</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -3917,8 +4002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3959,7 +4044,7 @@
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="62"/>
       <c r="D3" s="62"/>
@@ -3982,7 +4067,7 @@
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -4085,10 +4170,10 @@
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="12">
         <v>2</v>
@@ -4114,10 +4199,10 @@
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="12">
         <v>2</v>
@@ -4133,7 +4218,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4145,10 +4230,10 @@
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>88</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13"/>
@@ -4157,7 +4242,7 @@
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="12"/>
       <c r="L16" s="13"/>
@@ -4166,7 +4251,7 @@
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="12"/>
       <c r="L17" s="13"/>
@@ -4175,7 +4260,7 @@
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="12">
         <v>2</v>
@@ -4191,13 +4276,13 @@
         <v>3</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="12">
         <v>2</v>
@@ -4210,13 +4295,13 @@
         <v>2</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="12">
         <v>0.5</v>
@@ -4230,7 +4315,7 @@
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="12"/>
       <c r="L21" s="13"/>
@@ -4239,7 +4324,7 @@
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="12">
         <v>1.5</v>
@@ -4256,7 +4341,7 @@
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="12">
         <v>4</v>
@@ -4276,7 +4361,7 @@
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="12"/>
       <c r="L24" s="13"/>
@@ -4285,7 +4370,7 @@
     <row r="25" spans="2:13" s="1" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="12">
         <v>2</v>
@@ -4298,13 +4383,13 @@
         <v>1.5</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="12">
         <v>0.5</v>
@@ -4328,7 +4413,7 @@
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" s="12"/>
       <c r="L28" s="13"/>
@@ -4337,18 +4422,18 @@
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="12"/>
       <c r="L29" s="13"/>
       <c r="M29" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="12">
         <v>0</v>
@@ -4358,24 +4443,24 @@
         <v>0</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="12"/>
       <c r="L31" s="13"/>
       <c r="M31" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" s="12"/>
       <c r="L32" s="13"/>
@@ -4384,7 +4469,7 @@
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="12"/>
       <c r="L33" s="13"/>
@@ -4393,7 +4478,7 @@
     <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="12"/>
       <c r="L34" s="13"/>
@@ -4402,7 +4487,7 @@
     <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="12"/>
       <c r="L35" s="13"/>
@@ -4411,7 +4496,7 @@
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" s="12"/>
       <c r="L36" s="13"/>
@@ -4420,7 +4505,7 @@
     <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="12">
         <v>0.25</v>
@@ -4444,7 +4529,7 @@
     <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
       <c r="C39" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D39" s="12">
         <v>0</v>
@@ -4458,7 +4543,7 @@
     <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="C40" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" s="12"/>
       <c r="L40" s="13"/>
@@ -4467,7 +4552,7 @@
     <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="C41" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="12"/>
       <c r="L41" s="13"/>
@@ -4476,7 +4561,7 @@
     <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="12"/>
       <c r="L42" s="13"/>
@@ -4485,7 +4570,7 @@
     <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="C43" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="12"/>
       <c r="L43" s="13"/>
@@ -4494,7 +4579,7 @@
     <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="12"/>
       <c r="L44" s="13"/>
@@ -4503,7 +4588,7 @@
     <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="12"/>
       <c r="L45" s="13"/>
@@ -4512,7 +4597,7 @@
     <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="C46" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="12">
         <v>0.25</v>
@@ -4536,7 +4621,7 @@
     <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="12">
         <v>4</v>
@@ -4597,7 +4682,7 @@
         <v>1.5</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4685,10 +4770,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI44"/>
+  <dimension ref="A1:AMI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4699,7 +4784,7 @@
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="41.625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="76.625" style="32" customWidth="1"/>
     <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
     <col min="1024" max="16384" width="9" style="46"/>
   </cols>
@@ -4715,7 +4800,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
       <c r="L1" s="27"/>
-      <c r="M1" s="30"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="2:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
@@ -4731,18 +4816,18 @@
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="46"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="32"/>
       <c r="D3" s="3"/>
       <c r="L3" s="28"/>
-      <c r="M3" s="46"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -4754,18 +4839,18 @@
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
-      <c r="M4" s="46"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="33"/>
       <c r="D5" s="3"/>
       <c r="E5" s="28"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="46"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -4777,7 +4862,7 @@
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
-      <c r="M6" s="46"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
@@ -4790,7 +4875,7 @@
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
       <c r="L7" s="28"/>
-      <c r="M7" s="46"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="2:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
@@ -4826,7 +4911,7 @@
       <c r="L8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="46"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
@@ -4840,7 +4925,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="46"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
@@ -4854,82 +4939,86 @@
         <v>1.5</v>
       </c>
       <c r="L10" s="13">
-        <f t="shared" ref="L10:L38" si="0">+SUM(E10:K10)</f>
+        <f t="shared" ref="L10:L44" si="0">+SUM(E10:K10)</f>
         <v>1.5</v>
       </c>
-      <c r="M10" s="46"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="35"/>
       <c r="D11" s="12"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="54"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="C12" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="12"/>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M12" s="59" t="s">
-        <v>175</v>
+        <v>3.5</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="12"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="59"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="12"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="59"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="59"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="60" t="s">
-        <v>174</v>
+      <c r="C16" s="59" t="s">
+        <v>173</v>
       </c>
       <c r="D16" s="12"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="59"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="35"/>
       <c r="D17" s="12"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="59"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="C18" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -4938,326 +5027,383 @@
         <v>1.5</v>
       </c>
       <c r="G18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
+      <c r="J18" s="1">
+        <v>0.5</v>
+      </c>
       <c r="L18" s="13">
         <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="M18" s="54"/>
+        <v>6</v>
+      </c>
+      <c r="M18" s="32"/>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="12"/>
       <c r="L19" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="54" t="s">
-        <v>163</v>
+      <c r="M19" s="32" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="12"/>
       <c r="L20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="54"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="12"/>
       <c r="L21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="54"/>
+      <c r="M21" s="32" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="D22" s="12"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="59" t="s">
-        <v>176</v>
-      </c>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" s="49" t="s">
-        <v>80</v>
-      </c>
+      <c r="C23" s="49"/>
       <c r="D23" s="12"/>
-      <c r="L23" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="54"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>189</v>
+      </c>
       <c r="D24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="54"/>
+      <c r="J24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="12">
-        <v>5</v>
-      </c>
-      <c r="I25" s="1">
-        <v>3</v>
-      </c>
-      <c r="J25" s="1">
-        <v>4</v>
-      </c>
-      <c r="L25" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M25" s="54"/>
+      <c r="C25" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="L26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="54" t="s">
-        <v>163</v>
-      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="49" t="s">
-        <v>160</v>
+      <c r="C27" s="64" t="s">
+        <v>191</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="L27" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="54"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
-      <c r="C28" s="49" t="s">
-        <v>168</v>
-      </c>
+      <c r="C28" s="49"/>
       <c r="D28" s="12"/>
-      <c r="L28" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="54"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="12"/>
+      <c r="B29" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="12">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
       <c r="L29" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="54"/>
+        <v>7</v>
+      </c>
+      <c r="M29" s="32"/>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
-      <c r="C30" s="49"/>
+      <c r="C30" s="49" t="s">
+        <v>158</v>
+      </c>
       <c r="D30" s="12"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="54"/>
+      <c r="L30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
-      <c r="C31" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="12">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1">
-        <v>6</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
+      <c r="C31" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="12"/>
       <c r="L31" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M31" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
-      <c r="C32" s="35"/>
+      <c r="C32" s="49" t="s">
+        <v>167</v>
+      </c>
       <c r="D32" s="12"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="54"/>
+      <c r="L32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="12">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D33" s="12"/>
       <c r="L33" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="54"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="12"/>
       <c r="L34" s="13"/>
-      <c r="M34" s="46"/>
-    </row>
-    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="32"/>
+    </row>
+    <row r="35" spans="2:13" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
-      <c r="C35" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="12">
-        <v>1</v>
-      </c>
-      <c r="L35" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="46"/>
+      <c r="C35" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="32" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
-      <c r="C36" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="L36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="46"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="12"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="32"/>
     </row>
     <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="12">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M37" s="32"/>
+    </row>
+    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="12"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="32"/>
+    </row>
+    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="12">
+        <v>5</v>
+      </c>
+      <c r="L39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="32"/>
+    </row>
+    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="32"/>
+    </row>
+    <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+      <c r="C41" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="L41" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="32"/>
+    </row>
+    <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L42" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M42" s="32"/>
+    </row>
+    <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D43" s="12">
         <v>1</v>
       </c>
-      <c r="L37" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="46"/>
-    </row>
-    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="16">
-        <f t="shared" ref="D38:K38" si="1">+SUM(D10:D37)</f>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="32"/>
+    </row>
+    <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="16">
+        <f t="shared" ref="D44:K44" si="1">+SUM(D10:D43)</f>
         <v>26</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E44" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F44" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G44" s="15">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H38" s="15">
+        <v>9</v>
+      </c>
+      <c r="H44" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I44" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J44" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K38" s="15">
+        <v>5</v>
+      </c>
+      <c r="K44" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="21">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="M38" s="46"/>
-    </row>
-    <row r="39" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="43"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="30"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="L40" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="L41" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L44" s="28">
-        <f>SUM(L38:L43)</f>
-        <v>33</v>
-      </c>
+      <c r="L44" s="21">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M44" s="32"/>
+    </row>
+    <row r="45" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="43"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5277,10 +5423,1560 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
+    <col min="13" max="13" width="41.625" style="46" customWidth="1"/>
+    <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
+    <col min="1024" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="2:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="3"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="46"/>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="33"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="35"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="2:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="13">
+        <f t="shared" ref="L9:L17" si="0">+SUM(E9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="60"/>
+    </row>
+    <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="60"/>
+    </row>
+    <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="12">
+        <v>6</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="60"/>
+    </row>
+    <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="60"/>
+    </row>
+    <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="60"/>
+    </row>
+    <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="60"/>
+    </row>
+    <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="60"/>
+    </row>
+    <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="60"/>
+    </row>
+    <row r="17" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="12">
+        <v>10</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="60"/>
+    </row>
+    <row r="18" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="60"/>
+    </row>
+    <row r="19" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="60"/>
+    </row>
+    <row r="20" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="60"/>
+    </row>
+    <row r="21" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="60"/>
+    </row>
+    <row r="22" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="60"/>
+    </row>
+    <row r="23" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="60"/>
+    </row>
+    <row r="24" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="46"/>
+    </row>
+    <row r="25" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" ref="L25:L28" si="1">+SUM(E25:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="46"/>
+    </row>
+    <row r="26" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="46"/>
+    </row>
+    <row r="27" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="46"/>
+    </row>
+    <row r="28" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="16">
+        <f>+SUM(D8:D27)</f>
+        <v>21</v>
+      </c>
+      <c r="E28" s="15">
+        <f>+SUM(E24:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <f>+SUM(F24:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <f>+SUM(G24:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <f>+SUM(H24:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <f>+SUM(I24:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <f>+SUM(J24:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <f>+SUM(K24:K27)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="46"/>
+    </row>
+    <row r="29" spans="1:1023" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="43"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="30"/>
+    </row>
+    <row r="30" spans="1:1023" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="46"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="46"/>
+      <c r="AL30" s="46"/>
+      <c r="AM30" s="46"/>
+      <c r="AN30" s="46"/>
+      <c r="AO30" s="46"/>
+      <c r="AP30" s="46"/>
+      <c r="AQ30" s="46"/>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
+      <c r="AT30" s="46"/>
+      <c r="AU30" s="46"/>
+      <c r="AV30" s="46"/>
+      <c r="AW30" s="46"/>
+      <c r="AX30" s="46"/>
+      <c r="AY30" s="46"/>
+      <c r="AZ30" s="46"/>
+      <c r="BA30" s="46"/>
+      <c r="BB30" s="46"/>
+      <c r="BC30" s="46"/>
+      <c r="BD30" s="46"/>
+      <c r="BE30" s="46"/>
+      <c r="BF30" s="46"/>
+      <c r="BG30" s="46"/>
+      <c r="BH30" s="46"/>
+      <c r="BI30" s="46"/>
+      <c r="BJ30" s="46"/>
+      <c r="BK30" s="46"/>
+      <c r="BL30" s="46"/>
+      <c r="BM30" s="46"/>
+      <c r="BN30" s="46"/>
+      <c r="BO30" s="46"/>
+      <c r="BP30" s="46"/>
+      <c r="BQ30" s="46"/>
+      <c r="BR30" s="46"/>
+      <c r="BS30" s="46"/>
+      <c r="BT30" s="46"/>
+      <c r="BU30" s="46"/>
+      <c r="BV30" s="46"/>
+      <c r="BW30" s="46"/>
+      <c r="BX30" s="46"/>
+      <c r="BY30" s="46"/>
+      <c r="BZ30" s="46"/>
+      <c r="CA30" s="46"/>
+      <c r="CB30" s="46"/>
+      <c r="CC30" s="46"/>
+      <c r="CD30" s="46"/>
+      <c r="CE30" s="46"/>
+      <c r="CF30" s="46"/>
+      <c r="CG30" s="46"/>
+      <c r="CH30" s="46"/>
+      <c r="CI30" s="46"/>
+      <c r="CJ30" s="46"/>
+      <c r="CK30" s="46"/>
+      <c r="CL30" s="46"/>
+      <c r="CM30" s="46"/>
+      <c r="CN30" s="46"/>
+      <c r="CO30" s="46"/>
+      <c r="CP30" s="46"/>
+      <c r="CQ30" s="46"/>
+      <c r="CR30" s="46"/>
+      <c r="CS30" s="46"/>
+      <c r="CT30" s="46"/>
+      <c r="CU30" s="46"/>
+      <c r="CV30" s="46"/>
+      <c r="CW30" s="46"/>
+      <c r="CX30" s="46"/>
+      <c r="CY30" s="46"/>
+      <c r="CZ30" s="46"/>
+      <c r="DA30" s="46"/>
+      <c r="DB30" s="46"/>
+      <c r="DC30" s="46"/>
+      <c r="DD30" s="46"/>
+      <c r="DE30" s="46"/>
+      <c r="DF30" s="46"/>
+      <c r="DG30" s="46"/>
+      <c r="DH30" s="46"/>
+      <c r="DI30" s="46"/>
+      <c r="DJ30" s="46"/>
+      <c r="DK30" s="46"/>
+      <c r="DL30" s="46"/>
+      <c r="DM30" s="46"/>
+      <c r="DN30" s="46"/>
+      <c r="DO30" s="46"/>
+      <c r="DP30" s="46"/>
+      <c r="DQ30" s="46"/>
+      <c r="DR30" s="46"/>
+      <c r="DS30" s="46"/>
+      <c r="DT30" s="46"/>
+      <c r="DU30" s="46"/>
+      <c r="DV30" s="46"/>
+      <c r="DW30" s="46"/>
+      <c r="DX30" s="46"/>
+      <c r="DY30" s="46"/>
+      <c r="DZ30" s="46"/>
+      <c r="EA30" s="46"/>
+      <c r="EB30" s="46"/>
+      <c r="EC30" s="46"/>
+      <c r="ED30" s="46"/>
+      <c r="EE30" s="46"/>
+      <c r="EF30" s="46"/>
+      <c r="EG30" s="46"/>
+      <c r="EH30" s="46"/>
+      <c r="EI30" s="46"/>
+      <c r="EJ30" s="46"/>
+      <c r="EK30" s="46"/>
+      <c r="EL30" s="46"/>
+      <c r="EM30" s="46"/>
+      <c r="EN30" s="46"/>
+      <c r="EO30" s="46"/>
+      <c r="EP30" s="46"/>
+      <c r="EQ30" s="46"/>
+      <c r="ER30" s="46"/>
+      <c r="ES30" s="46"/>
+      <c r="ET30" s="46"/>
+      <c r="EU30" s="46"/>
+      <c r="EV30" s="46"/>
+      <c r="EW30" s="46"/>
+      <c r="EX30" s="46"/>
+      <c r="EY30" s="46"/>
+      <c r="EZ30" s="46"/>
+      <c r="FA30" s="46"/>
+      <c r="FB30" s="46"/>
+      <c r="FC30" s="46"/>
+      <c r="FD30" s="46"/>
+      <c r="FE30" s="46"/>
+      <c r="FF30" s="46"/>
+      <c r="FG30" s="46"/>
+      <c r="FH30" s="46"/>
+      <c r="FI30" s="46"/>
+      <c r="FJ30" s="46"/>
+      <c r="FK30" s="46"/>
+      <c r="FL30" s="46"/>
+      <c r="FM30" s="46"/>
+      <c r="FN30" s="46"/>
+      <c r="FO30" s="46"/>
+      <c r="FP30" s="46"/>
+      <c r="FQ30" s="46"/>
+      <c r="FR30" s="46"/>
+      <c r="FS30" s="46"/>
+      <c r="FT30" s="46"/>
+      <c r="FU30" s="46"/>
+      <c r="FV30" s="46"/>
+      <c r="FW30" s="46"/>
+      <c r="FX30" s="46"/>
+      <c r="FY30" s="46"/>
+      <c r="FZ30" s="46"/>
+      <c r="GA30" s="46"/>
+      <c r="GB30" s="46"/>
+      <c r="GC30" s="46"/>
+      <c r="GD30" s="46"/>
+      <c r="GE30" s="46"/>
+      <c r="GF30" s="46"/>
+      <c r="GG30" s="46"/>
+      <c r="GH30" s="46"/>
+      <c r="GI30" s="46"/>
+      <c r="GJ30" s="46"/>
+      <c r="GK30" s="46"/>
+      <c r="GL30" s="46"/>
+      <c r="GM30" s="46"/>
+      <c r="GN30" s="46"/>
+      <c r="GO30" s="46"/>
+      <c r="GP30" s="46"/>
+      <c r="GQ30" s="46"/>
+      <c r="GR30" s="46"/>
+      <c r="GS30" s="46"/>
+      <c r="GT30" s="46"/>
+      <c r="GU30" s="46"/>
+      <c r="GV30" s="46"/>
+      <c r="GW30" s="46"/>
+      <c r="GX30" s="46"/>
+      <c r="GY30" s="46"/>
+      <c r="GZ30" s="46"/>
+      <c r="HA30" s="46"/>
+      <c r="HB30" s="46"/>
+      <c r="HC30" s="46"/>
+      <c r="HD30" s="46"/>
+      <c r="HE30" s="46"/>
+      <c r="HF30" s="46"/>
+      <c r="HG30" s="46"/>
+      <c r="HH30" s="46"/>
+      <c r="HI30" s="46"/>
+      <c r="HJ30" s="46"/>
+      <c r="HK30" s="46"/>
+      <c r="HL30" s="46"/>
+      <c r="HM30" s="46"/>
+      <c r="HN30" s="46"/>
+      <c r="HO30" s="46"/>
+      <c r="HP30" s="46"/>
+      <c r="HQ30" s="46"/>
+      <c r="HR30" s="46"/>
+      <c r="HS30" s="46"/>
+      <c r="HT30" s="46"/>
+      <c r="HU30" s="46"/>
+      <c r="HV30" s="46"/>
+      <c r="HW30" s="46"/>
+      <c r="HX30" s="46"/>
+      <c r="HY30" s="46"/>
+      <c r="HZ30" s="46"/>
+      <c r="IA30" s="46"/>
+      <c r="IB30" s="46"/>
+      <c r="IC30" s="46"/>
+      <c r="ID30" s="46"/>
+      <c r="IE30" s="46"/>
+      <c r="IF30" s="46"/>
+      <c r="IG30" s="46"/>
+      <c r="IH30" s="46"/>
+      <c r="II30" s="46"/>
+      <c r="IJ30" s="46"/>
+      <c r="IK30" s="46"/>
+      <c r="IL30" s="46"/>
+      <c r="IM30" s="46"/>
+      <c r="IN30" s="46"/>
+      <c r="IO30" s="46"/>
+      <c r="IP30" s="46"/>
+      <c r="IQ30" s="46"/>
+      <c r="IR30" s="46"/>
+      <c r="IS30" s="46"/>
+      <c r="IT30" s="46"/>
+      <c r="IU30" s="46"/>
+      <c r="IV30" s="46"/>
+      <c r="IW30" s="46"/>
+      <c r="IX30" s="46"/>
+      <c r="IY30" s="46"/>
+      <c r="IZ30" s="46"/>
+      <c r="JA30" s="46"/>
+      <c r="JB30" s="46"/>
+      <c r="JC30" s="46"/>
+      <c r="JD30" s="46"/>
+      <c r="JE30" s="46"/>
+      <c r="JF30" s="46"/>
+      <c r="JG30" s="46"/>
+      <c r="JH30" s="46"/>
+      <c r="JI30" s="46"/>
+      <c r="JJ30" s="46"/>
+      <c r="JK30" s="46"/>
+      <c r="JL30" s="46"/>
+      <c r="JM30" s="46"/>
+      <c r="JN30" s="46"/>
+      <c r="JO30" s="46"/>
+      <c r="JP30" s="46"/>
+      <c r="JQ30" s="46"/>
+      <c r="JR30" s="46"/>
+      <c r="JS30" s="46"/>
+      <c r="JT30" s="46"/>
+      <c r="JU30" s="46"/>
+      <c r="JV30" s="46"/>
+      <c r="JW30" s="46"/>
+      <c r="JX30" s="46"/>
+      <c r="JY30" s="46"/>
+      <c r="JZ30" s="46"/>
+      <c r="KA30" s="46"/>
+      <c r="KB30" s="46"/>
+      <c r="KC30" s="46"/>
+      <c r="KD30" s="46"/>
+      <c r="KE30" s="46"/>
+      <c r="KF30" s="46"/>
+      <c r="KG30" s="46"/>
+      <c r="KH30" s="46"/>
+      <c r="KI30" s="46"/>
+      <c r="KJ30" s="46"/>
+      <c r="KK30" s="46"/>
+      <c r="KL30" s="46"/>
+      <c r="KM30" s="46"/>
+      <c r="KN30" s="46"/>
+      <c r="KO30" s="46"/>
+      <c r="KP30" s="46"/>
+      <c r="KQ30" s="46"/>
+      <c r="KR30" s="46"/>
+      <c r="KS30" s="46"/>
+      <c r="KT30" s="46"/>
+      <c r="KU30" s="46"/>
+      <c r="KV30" s="46"/>
+      <c r="KW30" s="46"/>
+      <c r="KX30" s="46"/>
+      <c r="KY30" s="46"/>
+      <c r="KZ30" s="46"/>
+      <c r="LA30" s="46"/>
+      <c r="LB30" s="46"/>
+      <c r="LC30" s="46"/>
+      <c r="LD30" s="46"/>
+      <c r="LE30" s="46"/>
+      <c r="LF30" s="46"/>
+      <c r="LG30" s="46"/>
+      <c r="LH30" s="46"/>
+      <c r="LI30" s="46"/>
+      <c r="LJ30" s="46"/>
+      <c r="LK30" s="46"/>
+      <c r="LL30" s="46"/>
+      <c r="LM30" s="46"/>
+      <c r="LN30" s="46"/>
+      <c r="LO30" s="46"/>
+      <c r="LP30" s="46"/>
+      <c r="LQ30" s="46"/>
+      <c r="LR30" s="46"/>
+      <c r="LS30" s="46"/>
+      <c r="LT30" s="46"/>
+      <c r="LU30" s="46"/>
+      <c r="LV30" s="46"/>
+      <c r="LW30" s="46"/>
+      <c r="LX30" s="46"/>
+      <c r="LY30" s="46"/>
+      <c r="LZ30" s="46"/>
+      <c r="MA30" s="46"/>
+      <c r="MB30" s="46"/>
+      <c r="MC30" s="46"/>
+      <c r="MD30" s="46"/>
+      <c r="ME30" s="46"/>
+      <c r="MF30" s="46"/>
+      <c r="MG30" s="46"/>
+      <c r="MH30" s="46"/>
+      <c r="MI30" s="46"/>
+      <c r="MJ30" s="46"/>
+      <c r="MK30" s="46"/>
+      <c r="ML30" s="46"/>
+      <c r="MM30" s="46"/>
+      <c r="MN30" s="46"/>
+      <c r="MO30" s="46"/>
+      <c r="MP30" s="46"/>
+      <c r="MQ30" s="46"/>
+      <c r="MR30" s="46"/>
+      <c r="MS30" s="46"/>
+      <c r="MT30" s="46"/>
+      <c r="MU30" s="46"/>
+      <c r="MV30" s="46"/>
+      <c r="MW30" s="46"/>
+      <c r="MX30" s="46"/>
+      <c r="MY30" s="46"/>
+      <c r="MZ30" s="46"/>
+      <c r="NA30" s="46"/>
+      <c r="NB30" s="46"/>
+      <c r="NC30" s="46"/>
+      <c r="ND30" s="46"/>
+      <c r="NE30" s="46"/>
+      <c r="NF30" s="46"/>
+      <c r="NG30" s="46"/>
+      <c r="NH30" s="46"/>
+      <c r="NI30" s="46"/>
+      <c r="NJ30" s="46"/>
+      <c r="NK30" s="46"/>
+      <c r="NL30" s="46"/>
+      <c r="NM30" s="46"/>
+      <c r="NN30" s="46"/>
+      <c r="NO30" s="46"/>
+      <c r="NP30" s="46"/>
+      <c r="NQ30" s="46"/>
+      <c r="NR30" s="46"/>
+      <c r="NS30" s="46"/>
+      <c r="NT30" s="46"/>
+      <c r="NU30" s="46"/>
+      <c r="NV30" s="46"/>
+      <c r="NW30" s="46"/>
+      <c r="NX30" s="46"/>
+      <c r="NY30" s="46"/>
+      <c r="NZ30" s="46"/>
+      <c r="OA30" s="46"/>
+      <c r="OB30" s="46"/>
+      <c r="OC30" s="46"/>
+      <c r="OD30" s="46"/>
+      <c r="OE30" s="46"/>
+      <c r="OF30" s="46"/>
+      <c r="OG30" s="46"/>
+      <c r="OH30" s="46"/>
+      <c r="OI30" s="46"/>
+      <c r="OJ30" s="46"/>
+      <c r="OK30" s="46"/>
+      <c r="OL30" s="46"/>
+      <c r="OM30" s="46"/>
+      <c r="ON30" s="46"/>
+      <c r="OO30" s="46"/>
+      <c r="OP30" s="46"/>
+      <c r="OQ30" s="46"/>
+      <c r="OR30" s="46"/>
+      <c r="OS30" s="46"/>
+      <c r="OT30" s="46"/>
+      <c r="OU30" s="46"/>
+      <c r="OV30" s="46"/>
+      <c r="OW30" s="46"/>
+      <c r="OX30" s="46"/>
+      <c r="OY30" s="46"/>
+      <c r="OZ30" s="46"/>
+      <c r="PA30" s="46"/>
+      <c r="PB30" s="46"/>
+      <c r="PC30" s="46"/>
+      <c r="PD30" s="46"/>
+      <c r="PE30" s="46"/>
+      <c r="PF30" s="46"/>
+      <c r="PG30" s="46"/>
+      <c r="PH30" s="46"/>
+      <c r="PI30" s="46"/>
+      <c r="PJ30" s="46"/>
+      <c r="PK30" s="46"/>
+      <c r="PL30" s="46"/>
+      <c r="PM30" s="46"/>
+      <c r="PN30" s="46"/>
+      <c r="PO30" s="46"/>
+      <c r="PP30" s="46"/>
+      <c r="PQ30" s="46"/>
+      <c r="PR30" s="46"/>
+      <c r="PS30" s="46"/>
+      <c r="PT30" s="46"/>
+      <c r="PU30" s="46"/>
+      <c r="PV30" s="46"/>
+      <c r="PW30" s="46"/>
+      <c r="PX30" s="46"/>
+      <c r="PY30" s="46"/>
+      <c r="PZ30" s="46"/>
+      <c r="QA30" s="46"/>
+      <c r="QB30" s="46"/>
+      <c r="QC30" s="46"/>
+      <c r="QD30" s="46"/>
+      <c r="QE30" s="46"/>
+      <c r="QF30" s="46"/>
+      <c r="QG30" s="46"/>
+      <c r="QH30" s="46"/>
+      <c r="QI30" s="46"/>
+      <c r="QJ30" s="46"/>
+      <c r="QK30" s="46"/>
+      <c r="QL30" s="46"/>
+      <c r="QM30" s="46"/>
+      <c r="QN30" s="46"/>
+      <c r="QO30" s="46"/>
+      <c r="QP30" s="46"/>
+      <c r="QQ30" s="46"/>
+      <c r="QR30" s="46"/>
+      <c r="QS30" s="46"/>
+      <c r="QT30" s="46"/>
+      <c r="QU30" s="46"/>
+      <c r="QV30" s="46"/>
+      <c r="QW30" s="46"/>
+      <c r="QX30" s="46"/>
+      <c r="QY30" s="46"/>
+      <c r="QZ30" s="46"/>
+      <c r="RA30" s="46"/>
+      <c r="RB30" s="46"/>
+      <c r="RC30" s="46"/>
+      <c r="RD30" s="46"/>
+      <c r="RE30" s="46"/>
+      <c r="RF30" s="46"/>
+      <c r="RG30" s="46"/>
+      <c r="RH30" s="46"/>
+      <c r="RI30" s="46"/>
+      <c r="RJ30" s="46"/>
+      <c r="RK30" s="46"/>
+      <c r="RL30" s="46"/>
+      <c r="RM30" s="46"/>
+      <c r="RN30" s="46"/>
+      <c r="RO30" s="46"/>
+      <c r="RP30" s="46"/>
+      <c r="RQ30" s="46"/>
+      <c r="RR30" s="46"/>
+      <c r="RS30" s="46"/>
+      <c r="RT30" s="46"/>
+      <c r="RU30" s="46"/>
+      <c r="RV30" s="46"/>
+      <c r="RW30" s="46"/>
+      <c r="RX30" s="46"/>
+      <c r="RY30" s="46"/>
+      <c r="RZ30" s="46"/>
+      <c r="SA30" s="46"/>
+      <c r="SB30" s="46"/>
+      <c r="SC30" s="46"/>
+      <c r="SD30" s="46"/>
+      <c r="SE30" s="46"/>
+      <c r="SF30" s="46"/>
+      <c r="SG30" s="46"/>
+      <c r="SH30" s="46"/>
+      <c r="SI30" s="46"/>
+      <c r="SJ30" s="46"/>
+      <c r="SK30" s="46"/>
+      <c r="SL30" s="46"/>
+      <c r="SM30" s="46"/>
+      <c r="SN30" s="46"/>
+      <c r="SO30" s="46"/>
+      <c r="SP30" s="46"/>
+      <c r="SQ30" s="46"/>
+      <c r="SR30" s="46"/>
+      <c r="SS30" s="46"/>
+      <c r="ST30" s="46"/>
+      <c r="SU30" s="46"/>
+      <c r="SV30" s="46"/>
+      <c r="SW30" s="46"/>
+      <c r="SX30" s="46"/>
+      <c r="SY30" s="46"/>
+      <c r="SZ30" s="46"/>
+      <c r="TA30" s="46"/>
+      <c r="TB30" s="46"/>
+      <c r="TC30" s="46"/>
+      <c r="TD30" s="46"/>
+      <c r="TE30" s="46"/>
+      <c r="TF30" s="46"/>
+      <c r="TG30" s="46"/>
+      <c r="TH30" s="46"/>
+      <c r="TI30" s="46"/>
+      <c r="TJ30" s="46"/>
+      <c r="TK30" s="46"/>
+      <c r="TL30" s="46"/>
+      <c r="TM30" s="46"/>
+      <c r="TN30" s="46"/>
+      <c r="TO30" s="46"/>
+      <c r="TP30" s="46"/>
+      <c r="TQ30" s="46"/>
+      <c r="TR30" s="46"/>
+      <c r="TS30" s="46"/>
+      <c r="TT30" s="46"/>
+      <c r="TU30" s="46"/>
+      <c r="TV30" s="46"/>
+      <c r="TW30" s="46"/>
+      <c r="TX30" s="46"/>
+      <c r="TY30" s="46"/>
+      <c r="TZ30" s="46"/>
+      <c r="UA30" s="46"/>
+      <c r="UB30" s="46"/>
+      <c r="UC30" s="46"/>
+      <c r="UD30" s="46"/>
+      <c r="UE30" s="46"/>
+      <c r="UF30" s="46"/>
+      <c r="UG30" s="46"/>
+      <c r="UH30" s="46"/>
+      <c r="UI30" s="46"/>
+      <c r="UJ30" s="46"/>
+      <c r="UK30" s="46"/>
+      <c r="UL30" s="46"/>
+      <c r="UM30" s="46"/>
+      <c r="UN30" s="46"/>
+      <c r="UO30" s="46"/>
+      <c r="UP30" s="46"/>
+      <c r="UQ30" s="46"/>
+      <c r="UR30" s="46"/>
+      <c r="US30" s="46"/>
+      <c r="UT30" s="46"/>
+      <c r="UU30" s="46"/>
+      <c r="UV30" s="46"/>
+      <c r="UW30" s="46"/>
+      <c r="UX30" s="46"/>
+      <c r="UY30" s="46"/>
+      <c r="UZ30" s="46"/>
+      <c r="VA30" s="46"/>
+      <c r="VB30" s="46"/>
+      <c r="VC30" s="46"/>
+      <c r="VD30" s="46"/>
+      <c r="VE30" s="46"/>
+      <c r="VF30" s="46"/>
+      <c r="VG30" s="46"/>
+      <c r="VH30" s="46"/>
+      <c r="VI30" s="46"/>
+      <c r="VJ30" s="46"/>
+      <c r="VK30" s="46"/>
+      <c r="VL30" s="46"/>
+      <c r="VM30" s="46"/>
+      <c r="VN30" s="46"/>
+      <c r="VO30" s="46"/>
+      <c r="VP30" s="46"/>
+      <c r="VQ30" s="46"/>
+      <c r="VR30" s="46"/>
+      <c r="VS30" s="46"/>
+      <c r="VT30" s="46"/>
+      <c r="VU30" s="46"/>
+      <c r="VV30" s="46"/>
+      <c r="VW30" s="46"/>
+      <c r="VX30" s="46"/>
+      <c r="VY30" s="46"/>
+      <c r="VZ30" s="46"/>
+      <c r="WA30" s="46"/>
+      <c r="WB30" s="46"/>
+      <c r="WC30" s="46"/>
+      <c r="WD30" s="46"/>
+      <c r="WE30" s="46"/>
+      <c r="WF30" s="46"/>
+      <c r="WG30" s="46"/>
+      <c r="WH30" s="46"/>
+      <c r="WI30" s="46"/>
+      <c r="WJ30" s="46"/>
+      <c r="WK30" s="46"/>
+      <c r="WL30" s="46"/>
+      <c r="WM30" s="46"/>
+      <c r="WN30" s="46"/>
+      <c r="WO30" s="46"/>
+      <c r="WP30" s="46"/>
+      <c r="WQ30" s="46"/>
+      <c r="WR30" s="46"/>
+      <c r="WS30" s="46"/>
+      <c r="WT30" s="46"/>
+      <c r="WU30" s="46"/>
+      <c r="WV30" s="46"/>
+      <c r="WW30" s="46"/>
+      <c r="WX30" s="46"/>
+      <c r="WY30" s="46"/>
+      <c r="WZ30" s="46"/>
+      <c r="XA30" s="46"/>
+      <c r="XB30" s="46"/>
+      <c r="XC30" s="46"/>
+      <c r="XD30" s="46"/>
+      <c r="XE30" s="46"/>
+      <c r="XF30" s="46"/>
+      <c r="XG30" s="46"/>
+      <c r="XH30" s="46"/>
+      <c r="XI30" s="46"/>
+      <c r="XJ30" s="46"/>
+      <c r="XK30" s="46"/>
+      <c r="XL30" s="46"/>
+      <c r="XM30" s="46"/>
+      <c r="XN30" s="46"/>
+      <c r="XO30" s="46"/>
+      <c r="XP30" s="46"/>
+      <c r="XQ30" s="46"/>
+      <c r="XR30" s="46"/>
+      <c r="XS30" s="46"/>
+      <c r="XT30" s="46"/>
+      <c r="XU30" s="46"/>
+      <c r="XV30" s="46"/>
+      <c r="XW30" s="46"/>
+      <c r="XX30" s="46"/>
+      <c r="XY30" s="46"/>
+      <c r="XZ30" s="46"/>
+      <c r="YA30" s="46"/>
+      <c r="YB30" s="46"/>
+      <c r="YC30" s="46"/>
+      <c r="YD30" s="46"/>
+      <c r="YE30" s="46"/>
+      <c r="YF30" s="46"/>
+      <c r="YG30" s="46"/>
+      <c r="YH30" s="46"/>
+      <c r="YI30" s="46"/>
+      <c r="YJ30" s="46"/>
+      <c r="YK30" s="46"/>
+      <c r="YL30" s="46"/>
+      <c r="YM30" s="46"/>
+      <c r="YN30" s="46"/>
+      <c r="YO30" s="46"/>
+      <c r="YP30" s="46"/>
+      <c r="YQ30" s="46"/>
+      <c r="YR30" s="46"/>
+      <c r="YS30" s="46"/>
+      <c r="YT30" s="46"/>
+      <c r="YU30" s="46"/>
+      <c r="YV30" s="46"/>
+      <c r="YW30" s="46"/>
+      <c r="YX30" s="46"/>
+      <c r="YY30" s="46"/>
+      <c r="YZ30" s="46"/>
+      <c r="ZA30" s="46"/>
+      <c r="ZB30" s="46"/>
+      <c r="ZC30" s="46"/>
+      <c r="ZD30" s="46"/>
+      <c r="ZE30" s="46"/>
+      <c r="ZF30" s="46"/>
+      <c r="ZG30" s="46"/>
+      <c r="ZH30" s="46"/>
+      <c r="ZI30" s="46"/>
+      <c r="ZJ30" s="46"/>
+      <c r="ZK30" s="46"/>
+      <c r="ZL30" s="46"/>
+      <c r="ZM30" s="46"/>
+      <c r="ZN30" s="46"/>
+      <c r="ZO30" s="46"/>
+      <c r="ZP30" s="46"/>
+      <c r="ZQ30" s="46"/>
+      <c r="ZR30" s="46"/>
+      <c r="ZS30" s="46"/>
+      <c r="ZT30" s="46"/>
+      <c r="ZU30" s="46"/>
+      <c r="ZV30" s="46"/>
+      <c r="ZW30" s="46"/>
+      <c r="ZX30" s="46"/>
+      <c r="ZY30" s="46"/>
+      <c r="ZZ30" s="46"/>
+      <c r="AAA30" s="46"/>
+      <c r="AAB30" s="46"/>
+      <c r="AAC30" s="46"/>
+      <c r="AAD30" s="46"/>
+      <c r="AAE30" s="46"/>
+      <c r="AAF30" s="46"/>
+      <c r="AAG30" s="46"/>
+      <c r="AAH30" s="46"/>
+      <c r="AAI30" s="46"/>
+      <c r="AAJ30" s="46"/>
+      <c r="AAK30" s="46"/>
+      <c r="AAL30" s="46"/>
+      <c r="AAM30" s="46"/>
+      <c r="AAN30" s="46"/>
+      <c r="AAO30" s="46"/>
+      <c r="AAP30" s="46"/>
+      <c r="AAQ30" s="46"/>
+      <c r="AAR30" s="46"/>
+      <c r="AAS30" s="46"/>
+      <c r="AAT30" s="46"/>
+      <c r="AAU30" s="46"/>
+      <c r="AAV30" s="46"/>
+      <c r="AAW30" s="46"/>
+      <c r="AAX30" s="46"/>
+      <c r="AAY30" s="46"/>
+      <c r="AAZ30" s="46"/>
+      <c r="ABA30" s="46"/>
+      <c r="ABB30" s="46"/>
+      <c r="ABC30" s="46"/>
+      <c r="ABD30" s="46"/>
+      <c r="ABE30" s="46"/>
+      <c r="ABF30" s="46"/>
+      <c r="ABG30" s="46"/>
+      <c r="ABH30" s="46"/>
+      <c r="ABI30" s="46"/>
+      <c r="ABJ30" s="46"/>
+      <c r="ABK30" s="46"/>
+      <c r="ABL30" s="46"/>
+      <c r="ABM30" s="46"/>
+      <c r="ABN30" s="46"/>
+      <c r="ABO30" s="46"/>
+      <c r="ABP30" s="46"/>
+      <c r="ABQ30" s="46"/>
+      <c r="ABR30" s="46"/>
+      <c r="ABS30" s="46"/>
+      <c r="ABT30" s="46"/>
+      <c r="ABU30" s="46"/>
+      <c r="ABV30" s="46"/>
+      <c r="ABW30" s="46"/>
+      <c r="ABX30" s="46"/>
+      <c r="ABY30" s="46"/>
+      <c r="ABZ30" s="46"/>
+      <c r="ACA30" s="46"/>
+      <c r="ACB30" s="46"/>
+      <c r="ACC30" s="46"/>
+      <c r="ACD30" s="46"/>
+      <c r="ACE30" s="46"/>
+      <c r="ACF30" s="46"/>
+      <c r="ACG30" s="46"/>
+      <c r="ACH30" s="46"/>
+      <c r="ACI30" s="46"/>
+      <c r="ACJ30" s="46"/>
+      <c r="ACK30" s="46"/>
+      <c r="ACL30" s="46"/>
+      <c r="ACM30" s="46"/>
+      <c r="ACN30" s="46"/>
+      <c r="ACO30" s="46"/>
+      <c r="ACP30" s="46"/>
+      <c r="ACQ30" s="46"/>
+      <c r="ACR30" s="46"/>
+      <c r="ACS30" s="46"/>
+      <c r="ACT30" s="46"/>
+      <c r="ACU30" s="46"/>
+      <c r="ACV30" s="46"/>
+      <c r="ACW30" s="46"/>
+      <c r="ACX30" s="46"/>
+      <c r="ACY30" s="46"/>
+      <c r="ACZ30" s="46"/>
+      <c r="ADA30" s="46"/>
+      <c r="ADB30" s="46"/>
+      <c r="ADC30" s="46"/>
+      <c r="ADD30" s="46"/>
+      <c r="ADE30" s="46"/>
+      <c r="ADF30" s="46"/>
+      <c r="ADG30" s="46"/>
+      <c r="ADH30" s="46"/>
+      <c r="ADI30" s="46"/>
+      <c r="ADJ30" s="46"/>
+      <c r="ADK30" s="46"/>
+      <c r="ADL30" s="46"/>
+      <c r="ADM30" s="46"/>
+      <c r="ADN30" s="46"/>
+      <c r="ADO30" s="46"/>
+      <c r="ADP30" s="46"/>
+      <c r="ADQ30" s="46"/>
+      <c r="ADR30" s="46"/>
+      <c r="ADS30" s="46"/>
+      <c r="ADT30" s="46"/>
+      <c r="ADU30" s="46"/>
+      <c r="ADV30" s="46"/>
+      <c r="ADW30" s="46"/>
+      <c r="ADX30" s="46"/>
+      <c r="ADY30" s="46"/>
+      <c r="ADZ30" s="46"/>
+      <c r="AEA30" s="46"/>
+      <c r="AEB30" s="46"/>
+      <c r="AEC30" s="46"/>
+      <c r="AED30" s="46"/>
+      <c r="AEE30" s="46"/>
+      <c r="AEF30" s="46"/>
+      <c r="AEG30" s="46"/>
+      <c r="AEH30" s="46"/>
+      <c r="AEI30" s="46"/>
+      <c r="AEJ30" s="46"/>
+      <c r="AEK30" s="46"/>
+      <c r="AEL30" s="46"/>
+      <c r="AEM30" s="46"/>
+      <c r="AEN30" s="46"/>
+      <c r="AEO30" s="46"/>
+      <c r="AEP30" s="46"/>
+      <c r="AEQ30" s="46"/>
+      <c r="AER30" s="46"/>
+      <c r="AES30" s="46"/>
+      <c r="AET30" s="46"/>
+      <c r="AEU30" s="46"/>
+      <c r="AEV30" s="46"/>
+      <c r="AEW30" s="46"/>
+      <c r="AEX30" s="46"/>
+      <c r="AEY30" s="46"/>
+      <c r="AEZ30" s="46"/>
+      <c r="AFA30" s="46"/>
+      <c r="AFB30" s="46"/>
+      <c r="AFC30" s="46"/>
+      <c r="AFD30" s="46"/>
+      <c r="AFE30" s="46"/>
+      <c r="AFF30" s="46"/>
+      <c r="AFG30" s="46"/>
+      <c r="AFH30" s="46"/>
+      <c r="AFI30" s="46"/>
+      <c r="AFJ30" s="46"/>
+      <c r="AFK30" s="46"/>
+      <c r="AFL30" s="46"/>
+      <c r="AFM30" s="46"/>
+      <c r="AFN30" s="46"/>
+      <c r="AFO30" s="46"/>
+      <c r="AFP30" s="46"/>
+      <c r="AFQ30" s="46"/>
+      <c r="AFR30" s="46"/>
+      <c r="AFS30" s="46"/>
+      <c r="AFT30" s="46"/>
+      <c r="AFU30" s="46"/>
+      <c r="AFV30" s="46"/>
+      <c r="AFW30" s="46"/>
+      <c r="AFX30" s="46"/>
+      <c r="AFY30" s="46"/>
+      <c r="AFZ30" s="46"/>
+      <c r="AGA30" s="46"/>
+      <c r="AGB30" s="46"/>
+      <c r="AGC30" s="46"/>
+      <c r="AGD30" s="46"/>
+      <c r="AGE30" s="46"/>
+      <c r="AGF30" s="46"/>
+      <c r="AGG30" s="46"/>
+      <c r="AGH30" s="46"/>
+      <c r="AGI30" s="46"/>
+      <c r="AGJ30" s="46"/>
+      <c r="AGK30" s="46"/>
+      <c r="AGL30" s="46"/>
+      <c r="AGM30" s="46"/>
+      <c r="AGN30" s="46"/>
+      <c r="AGO30" s="46"/>
+      <c r="AGP30" s="46"/>
+      <c r="AGQ30" s="46"/>
+      <c r="AGR30" s="46"/>
+      <c r="AGS30" s="46"/>
+      <c r="AGT30" s="46"/>
+      <c r="AGU30" s="46"/>
+      <c r="AGV30" s="46"/>
+      <c r="AGW30" s="46"/>
+      <c r="AGX30" s="46"/>
+      <c r="AGY30" s="46"/>
+      <c r="AGZ30" s="46"/>
+      <c r="AHA30" s="46"/>
+      <c r="AHB30" s="46"/>
+      <c r="AHC30" s="46"/>
+      <c r="AHD30" s="46"/>
+      <c r="AHE30" s="46"/>
+      <c r="AHF30" s="46"/>
+      <c r="AHG30" s="46"/>
+      <c r="AHH30" s="46"/>
+      <c r="AHI30" s="46"/>
+      <c r="AHJ30" s="46"/>
+      <c r="AHK30" s="46"/>
+      <c r="AHL30" s="46"/>
+      <c r="AHM30" s="46"/>
+      <c r="AHN30" s="46"/>
+      <c r="AHO30" s="46"/>
+      <c r="AHP30" s="46"/>
+      <c r="AHQ30" s="46"/>
+      <c r="AHR30" s="46"/>
+      <c r="AHS30" s="46"/>
+      <c r="AHT30" s="46"/>
+      <c r="AHU30" s="46"/>
+      <c r="AHV30" s="46"/>
+      <c r="AHW30" s="46"/>
+      <c r="AHX30" s="46"/>
+      <c r="AHY30" s="46"/>
+      <c r="AHZ30" s="46"/>
+      <c r="AIA30" s="46"/>
+      <c r="AIB30" s="46"/>
+      <c r="AIC30" s="46"/>
+      <c r="AID30" s="46"/>
+      <c r="AIE30" s="46"/>
+      <c r="AIF30" s="46"/>
+      <c r="AIG30" s="46"/>
+      <c r="AIH30" s="46"/>
+      <c r="AII30" s="46"/>
+      <c r="AIJ30" s="46"/>
+      <c r="AIK30" s="46"/>
+      <c r="AIL30" s="46"/>
+      <c r="AIM30" s="46"/>
+      <c r="AIN30" s="46"/>
+      <c r="AIO30" s="46"/>
+      <c r="AIP30" s="46"/>
+      <c r="AIQ30" s="46"/>
+      <c r="AIR30" s="46"/>
+      <c r="AIS30" s="46"/>
+      <c r="AIT30" s="46"/>
+      <c r="AIU30" s="46"/>
+      <c r="AIV30" s="46"/>
+      <c r="AIW30" s="46"/>
+      <c r="AIX30" s="46"/>
+      <c r="AIY30" s="46"/>
+      <c r="AIZ30" s="46"/>
+      <c r="AJA30" s="46"/>
+      <c r="AJB30" s="46"/>
+      <c r="AJC30" s="46"/>
+      <c r="AJD30" s="46"/>
+      <c r="AJE30" s="46"/>
+      <c r="AJF30" s="46"/>
+      <c r="AJG30" s="46"/>
+      <c r="AJH30" s="46"/>
+      <c r="AJI30" s="46"/>
+      <c r="AJJ30" s="46"/>
+      <c r="AJK30" s="46"/>
+      <c r="AJL30" s="46"/>
+      <c r="AJM30" s="46"/>
+      <c r="AJN30" s="46"/>
+      <c r="AJO30" s="46"/>
+      <c r="AJP30" s="46"/>
+      <c r="AJQ30" s="46"/>
+      <c r="AJR30" s="46"/>
+      <c r="AJS30" s="46"/>
+      <c r="AJT30" s="46"/>
+      <c r="AJU30" s="46"/>
+      <c r="AJV30" s="46"/>
+      <c r="AJW30" s="46"/>
+      <c r="AJX30" s="46"/>
+      <c r="AJY30" s="46"/>
+      <c r="AJZ30" s="46"/>
+      <c r="AKA30" s="46"/>
+      <c r="AKB30" s="46"/>
+      <c r="AKC30" s="46"/>
+      <c r="AKD30" s="46"/>
+      <c r="AKE30" s="46"/>
+      <c r="AKF30" s="46"/>
+      <c r="AKG30" s="46"/>
+      <c r="AKH30" s="46"/>
+      <c r="AKI30" s="46"/>
+      <c r="AKJ30" s="46"/>
+      <c r="AKK30" s="46"/>
+      <c r="AKL30" s="46"/>
+      <c r="AKM30" s="46"/>
+      <c r="AKN30" s="46"/>
+      <c r="AKO30" s="46"/>
+      <c r="AKP30" s="46"/>
+      <c r="AKQ30" s="46"/>
+      <c r="AKR30" s="46"/>
+      <c r="AKS30" s="46"/>
+      <c r="AKT30" s="46"/>
+      <c r="AKU30" s="46"/>
+      <c r="AKV30" s="46"/>
+      <c r="AKW30" s="46"/>
+      <c r="AKX30" s="46"/>
+      <c r="AKY30" s="46"/>
+      <c r="AKZ30" s="46"/>
+      <c r="ALA30" s="46"/>
+      <c r="ALB30" s="46"/>
+      <c r="ALC30" s="46"/>
+      <c r="ALD30" s="46"/>
+      <c r="ALE30" s="46"/>
+      <c r="ALF30" s="46"/>
+      <c r="ALG30" s="46"/>
+      <c r="ALH30" s="46"/>
+      <c r="ALI30" s="46"/>
+      <c r="ALJ30" s="46"/>
+      <c r="ALK30" s="46"/>
+      <c r="ALL30" s="46"/>
+      <c r="ALM30" s="46"/>
+      <c r="ALN30" s="46"/>
+      <c r="ALO30" s="46"/>
+      <c r="ALP30" s="46"/>
+      <c r="ALQ30" s="46"/>
+      <c r="ALR30" s="46"/>
+      <c r="ALS30" s="46"/>
+      <c r="ALT30" s="46"/>
+      <c r="ALU30" s="46"/>
+      <c r="ALV30" s="46"/>
+      <c r="ALW30" s="46"/>
+      <c r="ALX30" s="46"/>
+      <c r="ALY30" s="46"/>
+      <c r="ALZ30" s="46"/>
+      <c r="AMA30" s="46"/>
+      <c r="AMB30" s="46"/>
+      <c r="AMC30" s="46"/>
+      <c r="AMD30" s="46"/>
+      <c r="AME30" s="46"/>
+      <c r="AMF30" s="46"/>
+      <c r="AMG30" s="46"/>
+      <c r="AMH30" s="46"/>
+      <c r="AMI30" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="D1:K1"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSida &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5344,7 +7040,7 @@
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -5430,32 +7126,27 @@
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="12">
-        <v>2</v>
-      </c>
-      <c r="L10" s="13">
-        <f t="shared" ref="L10:L25" si="0">+SUM(E10:K10)</f>
-        <v>0</v>
-      </c>
+      <c r="D10" s="12"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="50"/>
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="35"/>
+      <c r="C11" s="49" t="s">
+        <v>40</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="L11" s="13"/>
       <c r="M11" s="50"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="49" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="12"/>
@@ -5465,105 +7156,115 @@
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="L13" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="D13" s="12">
+        <v>8</v>
+      </c>
+      <c r="L13" s="13">
+        <f>+SUM(E13:K13)</f>
+        <v>0</v>
+      </c>
       <c r="M13" s="50"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="L14" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="13">
+        <f>+SUM(E14:K14)</f>
+        <v>0</v>
+      </c>
       <c r="M14" s="50"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="12">
-        <v>8</v>
-      </c>
-      <c r="L15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="12"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="50"/>
     </row>
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="C16" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="50"/>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="12"/>
-      <c r="L17" s="13"/>
+      <c r="C17" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="12">
+        <v>4</v>
+      </c>
+      <c r="L17" s="13">
+        <f>+SUM(E17:K17)</f>
+        <v>0</v>
+      </c>
       <c r="M17" s="50"/>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>76</v>
-      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="L18" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="D18" s="12">
+        <v>4</v>
+      </c>
+      <c r="L18" s="13">
+        <f>+SUM(E18:K18)</f>
+        <v>0</v>
+      </c>
       <c r="M18" s="50"/>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="12">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="0"/>
+        <f>+SUM(E19:K19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="50"/>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
-      <c r="C20" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="12">
-        <v>4</v>
-      </c>
-      <c r="L20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="12"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="50"/>
     </row>
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="D21" s="12">
-        <v>0.5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L20:L21" si="0">+SUM(E21:K21)</f>
         <v>0</v>
       </c>
       <c r="M21" s="50"/>
@@ -5578,12 +7279,15 @@
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="12">
         <v>1</v>
       </c>
-      <c r="L23" s="13"/>
+      <c r="L23" s="13">
+        <f t="shared" ref="L10:L25" si="1">+SUM(E23:K23)</f>
+        <v>0</v>
+      </c>
       <c r="M23" s="50"/>
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5595,7 +7299,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M24" s="50"/>
@@ -5609,7 +7313,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M25" s="46"/>
@@ -5619,34 +7323,34 @@
       <c r="C26" s="42"/>
       <c r="D26" s="16">
         <f>+SUM(D8:D25)</f>
-        <v>25.5</v>
+        <v>28.5</v>
       </c>
       <c r="E26" s="16">
-        <f t="shared" ref="E26:K26" si="1">+SUM(E8:E25)</f>
+        <f t="shared" ref="E26:K26" si="2">+SUM(E8:E25)</f>
         <v>0</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="21">
@@ -5695,1304 +7399,4 @@
     <oddFooter>&amp;CSida &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI16"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="41.625" style="46" customWidth="1"/>
-    <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
-    <col min="1024" max="16384" width="9" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1023" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="1:1023" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="3"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="33"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="28"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="35"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="46"/>
-    </row>
-    <row r="7" spans="1:1023" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9">
-        <v>4</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9">
-        <v>6</v>
-      </c>
-      <c r="K7" s="9">
-        <v>7</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="L9" s="13">
-        <f t="shared" ref="L9:L14" si="0">+SUM(E9:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="L10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="L12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="L13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="14" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="16">
-        <f t="shared" ref="D14:K14" si="1">+SUM(D9:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="46"/>
-    </row>
-    <row r="15" spans="1:1023" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:1023" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="46"/>
-      <c r="AS16" s="46"/>
-      <c r="AT16" s="46"/>
-      <c r="AU16" s="46"/>
-      <c r="AV16" s="46"/>
-      <c r="AW16" s="46"/>
-      <c r="AX16" s="46"/>
-      <c r="AY16" s="46"/>
-      <c r="AZ16" s="46"/>
-      <c r="BA16" s="46"/>
-      <c r="BB16" s="46"/>
-      <c r="BC16" s="46"/>
-      <c r="BD16" s="46"/>
-      <c r="BE16" s="46"/>
-      <c r="BF16" s="46"/>
-      <c r="BG16" s="46"/>
-      <c r="BH16" s="46"/>
-      <c r="BI16" s="46"/>
-      <c r="BJ16" s="46"/>
-      <c r="BK16" s="46"/>
-      <c r="BL16" s="46"/>
-      <c r="BM16" s="46"/>
-      <c r="BN16" s="46"/>
-      <c r="BO16" s="46"/>
-      <c r="BP16" s="46"/>
-      <c r="BQ16" s="46"/>
-      <c r="BR16" s="46"/>
-      <c r="BS16" s="46"/>
-      <c r="BT16" s="46"/>
-      <c r="BU16" s="46"/>
-      <c r="BV16" s="46"/>
-      <c r="BW16" s="46"/>
-      <c r="BX16" s="46"/>
-      <c r="BY16" s="46"/>
-      <c r="BZ16" s="46"/>
-      <c r="CA16" s="46"/>
-      <c r="CB16" s="46"/>
-      <c r="CC16" s="46"/>
-      <c r="CD16" s="46"/>
-      <c r="CE16" s="46"/>
-      <c r="CF16" s="46"/>
-      <c r="CG16" s="46"/>
-      <c r="CH16" s="46"/>
-      <c r="CI16" s="46"/>
-      <c r="CJ16" s="46"/>
-      <c r="CK16" s="46"/>
-      <c r="CL16" s="46"/>
-      <c r="CM16" s="46"/>
-      <c r="CN16" s="46"/>
-      <c r="CO16" s="46"/>
-      <c r="CP16" s="46"/>
-      <c r="CQ16" s="46"/>
-      <c r="CR16" s="46"/>
-      <c r="CS16" s="46"/>
-      <c r="CT16" s="46"/>
-      <c r="CU16" s="46"/>
-      <c r="CV16" s="46"/>
-      <c r="CW16" s="46"/>
-      <c r="CX16" s="46"/>
-      <c r="CY16" s="46"/>
-      <c r="CZ16" s="46"/>
-      <c r="DA16" s="46"/>
-      <c r="DB16" s="46"/>
-      <c r="DC16" s="46"/>
-      <c r="DD16" s="46"/>
-      <c r="DE16" s="46"/>
-      <c r="DF16" s="46"/>
-      <c r="DG16" s="46"/>
-      <c r="DH16" s="46"/>
-      <c r="DI16" s="46"/>
-      <c r="DJ16" s="46"/>
-      <c r="DK16" s="46"/>
-      <c r="DL16" s="46"/>
-      <c r="DM16" s="46"/>
-      <c r="DN16" s="46"/>
-      <c r="DO16" s="46"/>
-      <c r="DP16" s="46"/>
-      <c r="DQ16" s="46"/>
-      <c r="DR16" s="46"/>
-      <c r="DS16" s="46"/>
-      <c r="DT16" s="46"/>
-      <c r="DU16" s="46"/>
-      <c r="DV16" s="46"/>
-      <c r="DW16" s="46"/>
-      <c r="DX16" s="46"/>
-      <c r="DY16" s="46"/>
-      <c r="DZ16" s="46"/>
-      <c r="EA16" s="46"/>
-      <c r="EB16" s="46"/>
-      <c r="EC16" s="46"/>
-      <c r="ED16" s="46"/>
-      <c r="EE16" s="46"/>
-      <c r="EF16" s="46"/>
-      <c r="EG16" s="46"/>
-      <c r="EH16" s="46"/>
-      <c r="EI16" s="46"/>
-      <c r="EJ16" s="46"/>
-      <c r="EK16" s="46"/>
-      <c r="EL16" s="46"/>
-      <c r="EM16" s="46"/>
-      <c r="EN16" s="46"/>
-      <c r="EO16" s="46"/>
-      <c r="EP16" s="46"/>
-      <c r="EQ16" s="46"/>
-      <c r="ER16" s="46"/>
-      <c r="ES16" s="46"/>
-      <c r="ET16" s="46"/>
-      <c r="EU16" s="46"/>
-      <c r="EV16" s="46"/>
-      <c r="EW16" s="46"/>
-      <c r="EX16" s="46"/>
-      <c r="EY16" s="46"/>
-      <c r="EZ16" s="46"/>
-      <c r="FA16" s="46"/>
-      <c r="FB16" s="46"/>
-      <c r="FC16" s="46"/>
-      <c r="FD16" s="46"/>
-      <c r="FE16" s="46"/>
-      <c r="FF16" s="46"/>
-      <c r="FG16" s="46"/>
-      <c r="FH16" s="46"/>
-      <c r="FI16" s="46"/>
-      <c r="FJ16" s="46"/>
-      <c r="FK16" s="46"/>
-      <c r="FL16" s="46"/>
-      <c r="FM16" s="46"/>
-      <c r="FN16" s="46"/>
-      <c r="FO16" s="46"/>
-      <c r="FP16" s="46"/>
-      <c r="FQ16" s="46"/>
-      <c r="FR16" s="46"/>
-      <c r="FS16" s="46"/>
-      <c r="FT16" s="46"/>
-      <c r="FU16" s="46"/>
-      <c r="FV16" s="46"/>
-      <c r="FW16" s="46"/>
-      <c r="FX16" s="46"/>
-      <c r="FY16" s="46"/>
-      <c r="FZ16" s="46"/>
-      <c r="GA16" s="46"/>
-      <c r="GB16" s="46"/>
-      <c r="GC16" s="46"/>
-      <c r="GD16" s="46"/>
-      <c r="GE16" s="46"/>
-      <c r="GF16" s="46"/>
-      <c r="GG16" s="46"/>
-      <c r="GH16" s="46"/>
-      <c r="GI16" s="46"/>
-      <c r="GJ16" s="46"/>
-      <c r="GK16" s="46"/>
-      <c r="GL16" s="46"/>
-      <c r="GM16" s="46"/>
-      <c r="GN16" s="46"/>
-      <c r="GO16" s="46"/>
-      <c r="GP16" s="46"/>
-      <c r="GQ16" s="46"/>
-      <c r="GR16" s="46"/>
-      <c r="GS16" s="46"/>
-      <c r="GT16" s="46"/>
-      <c r="GU16" s="46"/>
-      <c r="GV16" s="46"/>
-      <c r="GW16" s="46"/>
-      <c r="GX16" s="46"/>
-      <c r="GY16" s="46"/>
-      <c r="GZ16" s="46"/>
-      <c r="HA16" s="46"/>
-      <c r="HB16" s="46"/>
-      <c r="HC16" s="46"/>
-      <c r="HD16" s="46"/>
-      <c r="HE16" s="46"/>
-      <c r="HF16" s="46"/>
-      <c r="HG16" s="46"/>
-      <c r="HH16" s="46"/>
-      <c r="HI16" s="46"/>
-      <c r="HJ16" s="46"/>
-      <c r="HK16" s="46"/>
-      <c r="HL16" s="46"/>
-      <c r="HM16" s="46"/>
-      <c r="HN16" s="46"/>
-      <c r="HO16" s="46"/>
-      <c r="HP16" s="46"/>
-      <c r="HQ16" s="46"/>
-      <c r="HR16" s="46"/>
-      <c r="HS16" s="46"/>
-      <c r="HT16" s="46"/>
-      <c r="HU16" s="46"/>
-      <c r="HV16" s="46"/>
-      <c r="HW16" s="46"/>
-      <c r="HX16" s="46"/>
-      <c r="HY16" s="46"/>
-      <c r="HZ16" s="46"/>
-      <c r="IA16" s="46"/>
-      <c r="IB16" s="46"/>
-      <c r="IC16" s="46"/>
-      <c r="ID16" s="46"/>
-      <c r="IE16" s="46"/>
-      <c r="IF16" s="46"/>
-      <c r="IG16" s="46"/>
-      <c r="IH16" s="46"/>
-      <c r="II16" s="46"/>
-      <c r="IJ16" s="46"/>
-      <c r="IK16" s="46"/>
-      <c r="IL16" s="46"/>
-      <c r="IM16" s="46"/>
-      <c r="IN16" s="46"/>
-      <c r="IO16" s="46"/>
-      <c r="IP16" s="46"/>
-      <c r="IQ16" s="46"/>
-      <c r="IR16" s="46"/>
-      <c r="IS16" s="46"/>
-      <c r="IT16" s="46"/>
-      <c r="IU16" s="46"/>
-      <c r="IV16" s="46"/>
-      <c r="IW16" s="46"/>
-      <c r="IX16" s="46"/>
-      <c r="IY16" s="46"/>
-      <c r="IZ16" s="46"/>
-      <c r="JA16" s="46"/>
-      <c r="JB16" s="46"/>
-      <c r="JC16" s="46"/>
-      <c r="JD16" s="46"/>
-      <c r="JE16" s="46"/>
-      <c r="JF16" s="46"/>
-      <c r="JG16" s="46"/>
-      <c r="JH16" s="46"/>
-      <c r="JI16" s="46"/>
-      <c r="JJ16" s="46"/>
-      <c r="JK16" s="46"/>
-      <c r="JL16" s="46"/>
-      <c r="JM16" s="46"/>
-      <c r="JN16" s="46"/>
-      <c r="JO16" s="46"/>
-      <c r="JP16" s="46"/>
-      <c r="JQ16" s="46"/>
-      <c r="JR16" s="46"/>
-      <c r="JS16" s="46"/>
-      <c r="JT16" s="46"/>
-      <c r="JU16" s="46"/>
-      <c r="JV16" s="46"/>
-      <c r="JW16" s="46"/>
-      <c r="JX16" s="46"/>
-      <c r="JY16" s="46"/>
-      <c r="JZ16" s="46"/>
-      <c r="KA16" s="46"/>
-      <c r="KB16" s="46"/>
-      <c r="KC16" s="46"/>
-      <c r="KD16" s="46"/>
-      <c r="KE16" s="46"/>
-      <c r="KF16" s="46"/>
-      <c r="KG16" s="46"/>
-      <c r="KH16" s="46"/>
-      <c r="KI16" s="46"/>
-      <c r="KJ16" s="46"/>
-      <c r="KK16" s="46"/>
-      <c r="KL16" s="46"/>
-      <c r="KM16" s="46"/>
-      <c r="KN16" s="46"/>
-      <c r="KO16" s="46"/>
-      <c r="KP16" s="46"/>
-      <c r="KQ16" s="46"/>
-      <c r="KR16" s="46"/>
-      <c r="KS16" s="46"/>
-      <c r="KT16" s="46"/>
-      <c r="KU16" s="46"/>
-      <c r="KV16" s="46"/>
-      <c r="KW16" s="46"/>
-      <c r="KX16" s="46"/>
-      <c r="KY16" s="46"/>
-      <c r="KZ16" s="46"/>
-      <c r="LA16" s="46"/>
-      <c r="LB16" s="46"/>
-      <c r="LC16" s="46"/>
-      <c r="LD16" s="46"/>
-      <c r="LE16" s="46"/>
-      <c r="LF16" s="46"/>
-      <c r="LG16" s="46"/>
-      <c r="LH16" s="46"/>
-      <c r="LI16" s="46"/>
-      <c r="LJ16" s="46"/>
-      <c r="LK16" s="46"/>
-      <c r="LL16" s="46"/>
-      <c r="LM16" s="46"/>
-      <c r="LN16" s="46"/>
-      <c r="LO16" s="46"/>
-      <c r="LP16" s="46"/>
-      <c r="LQ16" s="46"/>
-      <c r="LR16" s="46"/>
-      <c r="LS16" s="46"/>
-      <c r="LT16" s="46"/>
-      <c r="LU16" s="46"/>
-      <c r="LV16" s="46"/>
-      <c r="LW16" s="46"/>
-      <c r="LX16" s="46"/>
-      <c r="LY16" s="46"/>
-      <c r="LZ16" s="46"/>
-      <c r="MA16" s="46"/>
-      <c r="MB16" s="46"/>
-      <c r="MC16" s="46"/>
-      <c r="MD16" s="46"/>
-      <c r="ME16" s="46"/>
-      <c r="MF16" s="46"/>
-      <c r="MG16" s="46"/>
-      <c r="MH16" s="46"/>
-      <c r="MI16" s="46"/>
-      <c r="MJ16" s="46"/>
-      <c r="MK16" s="46"/>
-      <c r="ML16" s="46"/>
-      <c r="MM16" s="46"/>
-      <c r="MN16" s="46"/>
-      <c r="MO16" s="46"/>
-      <c r="MP16" s="46"/>
-      <c r="MQ16" s="46"/>
-      <c r="MR16" s="46"/>
-      <c r="MS16" s="46"/>
-      <c r="MT16" s="46"/>
-      <c r="MU16" s="46"/>
-      <c r="MV16" s="46"/>
-      <c r="MW16" s="46"/>
-      <c r="MX16" s="46"/>
-      <c r="MY16" s="46"/>
-      <c r="MZ16" s="46"/>
-      <c r="NA16" s="46"/>
-      <c r="NB16" s="46"/>
-      <c r="NC16" s="46"/>
-      <c r="ND16" s="46"/>
-      <c r="NE16" s="46"/>
-      <c r="NF16" s="46"/>
-      <c r="NG16" s="46"/>
-      <c r="NH16" s="46"/>
-      <c r="NI16" s="46"/>
-      <c r="NJ16" s="46"/>
-      <c r="NK16" s="46"/>
-      <c r="NL16" s="46"/>
-      <c r="NM16" s="46"/>
-      <c r="NN16" s="46"/>
-      <c r="NO16" s="46"/>
-      <c r="NP16" s="46"/>
-      <c r="NQ16" s="46"/>
-      <c r="NR16" s="46"/>
-      <c r="NS16" s="46"/>
-      <c r="NT16" s="46"/>
-      <c r="NU16" s="46"/>
-      <c r="NV16" s="46"/>
-      <c r="NW16" s="46"/>
-      <c r="NX16" s="46"/>
-      <c r="NY16" s="46"/>
-      <c r="NZ16" s="46"/>
-      <c r="OA16" s="46"/>
-      <c r="OB16" s="46"/>
-      <c r="OC16" s="46"/>
-      <c r="OD16" s="46"/>
-      <c r="OE16" s="46"/>
-      <c r="OF16" s="46"/>
-      <c r="OG16" s="46"/>
-      <c r="OH16" s="46"/>
-      <c r="OI16" s="46"/>
-      <c r="OJ16" s="46"/>
-      <c r="OK16" s="46"/>
-      <c r="OL16" s="46"/>
-      <c r="OM16" s="46"/>
-      <c r="ON16" s="46"/>
-      <c r="OO16" s="46"/>
-      <c r="OP16" s="46"/>
-      <c r="OQ16" s="46"/>
-      <c r="OR16" s="46"/>
-      <c r="OS16" s="46"/>
-      <c r="OT16" s="46"/>
-      <c r="OU16" s="46"/>
-      <c r="OV16" s="46"/>
-      <c r="OW16" s="46"/>
-      <c r="OX16" s="46"/>
-      <c r="OY16" s="46"/>
-      <c r="OZ16" s="46"/>
-      <c r="PA16" s="46"/>
-      <c r="PB16" s="46"/>
-      <c r="PC16" s="46"/>
-      <c r="PD16" s="46"/>
-      <c r="PE16" s="46"/>
-      <c r="PF16" s="46"/>
-      <c r="PG16" s="46"/>
-      <c r="PH16" s="46"/>
-      <c r="PI16" s="46"/>
-      <c r="PJ16" s="46"/>
-      <c r="PK16" s="46"/>
-      <c r="PL16" s="46"/>
-      <c r="PM16" s="46"/>
-      <c r="PN16" s="46"/>
-      <c r="PO16" s="46"/>
-      <c r="PP16" s="46"/>
-      <c r="PQ16" s="46"/>
-      <c r="PR16" s="46"/>
-      <c r="PS16" s="46"/>
-      <c r="PT16" s="46"/>
-      <c r="PU16" s="46"/>
-      <c r="PV16" s="46"/>
-      <c r="PW16" s="46"/>
-      <c r="PX16" s="46"/>
-      <c r="PY16" s="46"/>
-      <c r="PZ16" s="46"/>
-      <c r="QA16" s="46"/>
-      <c r="QB16" s="46"/>
-      <c r="QC16" s="46"/>
-      <c r="QD16" s="46"/>
-      <c r="QE16" s="46"/>
-      <c r="QF16" s="46"/>
-      <c r="QG16" s="46"/>
-      <c r="QH16" s="46"/>
-      <c r="QI16" s="46"/>
-      <c r="QJ16" s="46"/>
-      <c r="QK16" s="46"/>
-      <c r="QL16" s="46"/>
-      <c r="QM16" s="46"/>
-      <c r="QN16" s="46"/>
-      <c r="QO16" s="46"/>
-      <c r="QP16" s="46"/>
-      <c r="QQ16" s="46"/>
-      <c r="QR16" s="46"/>
-      <c r="QS16" s="46"/>
-      <c r="QT16" s="46"/>
-      <c r="QU16" s="46"/>
-      <c r="QV16" s="46"/>
-      <c r="QW16" s="46"/>
-      <c r="QX16" s="46"/>
-      <c r="QY16" s="46"/>
-      <c r="QZ16" s="46"/>
-      <c r="RA16" s="46"/>
-      <c r="RB16" s="46"/>
-      <c r="RC16" s="46"/>
-      <c r="RD16" s="46"/>
-      <c r="RE16" s="46"/>
-      <c r="RF16" s="46"/>
-      <c r="RG16" s="46"/>
-      <c r="RH16" s="46"/>
-      <c r="RI16" s="46"/>
-      <c r="RJ16" s="46"/>
-      <c r="RK16" s="46"/>
-      <c r="RL16" s="46"/>
-      <c r="RM16" s="46"/>
-      <c r="RN16" s="46"/>
-      <c r="RO16" s="46"/>
-      <c r="RP16" s="46"/>
-      <c r="RQ16" s="46"/>
-      <c r="RR16" s="46"/>
-      <c r="RS16" s="46"/>
-      <c r="RT16" s="46"/>
-      <c r="RU16" s="46"/>
-      <c r="RV16" s="46"/>
-      <c r="RW16" s="46"/>
-      <c r="RX16" s="46"/>
-      <c r="RY16" s="46"/>
-      <c r="RZ16" s="46"/>
-      <c r="SA16" s="46"/>
-      <c r="SB16" s="46"/>
-      <c r="SC16" s="46"/>
-      <c r="SD16" s="46"/>
-      <c r="SE16" s="46"/>
-      <c r="SF16" s="46"/>
-      <c r="SG16" s="46"/>
-      <c r="SH16" s="46"/>
-      <c r="SI16" s="46"/>
-      <c r="SJ16" s="46"/>
-      <c r="SK16" s="46"/>
-      <c r="SL16" s="46"/>
-      <c r="SM16" s="46"/>
-      <c r="SN16" s="46"/>
-      <c r="SO16" s="46"/>
-      <c r="SP16" s="46"/>
-      <c r="SQ16" s="46"/>
-      <c r="SR16" s="46"/>
-      <c r="SS16" s="46"/>
-      <c r="ST16" s="46"/>
-      <c r="SU16" s="46"/>
-      <c r="SV16" s="46"/>
-      <c r="SW16" s="46"/>
-      <c r="SX16" s="46"/>
-      <c r="SY16" s="46"/>
-      <c r="SZ16" s="46"/>
-      <c r="TA16" s="46"/>
-      <c r="TB16" s="46"/>
-      <c r="TC16" s="46"/>
-      <c r="TD16" s="46"/>
-      <c r="TE16" s="46"/>
-      <c r="TF16" s="46"/>
-      <c r="TG16" s="46"/>
-      <c r="TH16" s="46"/>
-      <c r="TI16" s="46"/>
-      <c r="TJ16" s="46"/>
-      <c r="TK16" s="46"/>
-      <c r="TL16" s="46"/>
-      <c r="TM16" s="46"/>
-      <c r="TN16" s="46"/>
-      <c r="TO16" s="46"/>
-      <c r="TP16" s="46"/>
-      <c r="TQ16" s="46"/>
-      <c r="TR16" s="46"/>
-      <c r="TS16" s="46"/>
-      <c r="TT16" s="46"/>
-      <c r="TU16" s="46"/>
-      <c r="TV16" s="46"/>
-      <c r="TW16" s="46"/>
-      <c r="TX16" s="46"/>
-      <c r="TY16" s="46"/>
-      <c r="TZ16" s="46"/>
-      <c r="UA16" s="46"/>
-      <c r="UB16" s="46"/>
-      <c r="UC16" s="46"/>
-      <c r="UD16" s="46"/>
-      <c r="UE16" s="46"/>
-      <c r="UF16" s="46"/>
-      <c r="UG16" s="46"/>
-      <c r="UH16" s="46"/>
-      <c r="UI16" s="46"/>
-      <c r="UJ16" s="46"/>
-      <c r="UK16" s="46"/>
-      <c r="UL16" s="46"/>
-      <c r="UM16" s="46"/>
-      <c r="UN16" s="46"/>
-      <c r="UO16" s="46"/>
-      <c r="UP16" s="46"/>
-      <c r="UQ16" s="46"/>
-      <c r="UR16" s="46"/>
-      <c r="US16" s="46"/>
-      <c r="UT16" s="46"/>
-      <c r="UU16" s="46"/>
-      <c r="UV16" s="46"/>
-      <c r="UW16" s="46"/>
-      <c r="UX16" s="46"/>
-      <c r="UY16" s="46"/>
-      <c r="UZ16" s="46"/>
-      <c r="VA16" s="46"/>
-      <c r="VB16" s="46"/>
-      <c r="VC16" s="46"/>
-      <c r="VD16" s="46"/>
-      <c r="VE16" s="46"/>
-      <c r="VF16" s="46"/>
-      <c r="VG16" s="46"/>
-      <c r="VH16" s="46"/>
-      <c r="VI16" s="46"/>
-      <c r="VJ16" s="46"/>
-      <c r="VK16" s="46"/>
-      <c r="VL16" s="46"/>
-      <c r="VM16" s="46"/>
-      <c r="VN16" s="46"/>
-      <c r="VO16" s="46"/>
-      <c r="VP16" s="46"/>
-      <c r="VQ16" s="46"/>
-      <c r="VR16" s="46"/>
-      <c r="VS16" s="46"/>
-      <c r="VT16" s="46"/>
-      <c r="VU16" s="46"/>
-      <c r="VV16" s="46"/>
-      <c r="VW16" s="46"/>
-      <c r="VX16" s="46"/>
-      <c r="VY16" s="46"/>
-      <c r="VZ16" s="46"/>
-      <c r="WA16" s="46"/>
-      <c r="WB16" s="46"/>
-      <c r="WC16" s="46"/>
-      <c r="WD16" s="46"/>
-      <c r="WE16" s="46"/>
-      <c r="WF16" s="46"/>
-      <c r="WG16" s="46"/>
-      <c r="WH16" s="46"/>
-      <c r="WI16" s="46"/>
-      <c r="WJ16" s="46"/>
-      <c r="WK16" s="46"/>
-      <c r="WL16" s="46"/>
-      <c r="WM16" s="46"/>
-      <c r="WN16" s="46"/>
-      <c r="WO16" s="46"/>
-      <c r="WP16" s="46"/>
-      <c r="WQ16" s="46"/>
-      <c r="WR16" s="46"/>
-      <c r="WS16" s="46"/>
-      <c r="WT16" s="46"/>
-      <c r="WU16" s="46"/>
-      <c r="WV16" s="46"/>
-      <c r="WW16" s="46"/>
-      <c r="WX16" s="46"/>
-      <c r="WY16" s="46"/>
-      <c r="WZ16" s="46"/>
-      <c r="XA16" s="46"/>
-      <c r="XB16" s="46"/>
-      <c r="XC16" s="46"/>
-      <c r="XD16" s="46"/>
-      <c r="XE16" s="46"/>
-      <c r="XF16" s="46"/>
-      <c r="XG16" s="46"/>
-      <c r="XH16" s="46"/>
-      <c r="XI16" s="46"/>
-      <c r="XJ16" s="46"/>
-      <c r="XK16" s="46"/>
-      <c r="XL16" s="46"/>
-      <c r="XM16" s="46"/>
-      <c r="XN16" s="46"/>
-      <c r="XO16" s="46"/>
-      <c r="XP16" s="46"/>
-      <c r="XQ16" s="46"/>
-      <c r="XR16" s="46"/>
-      <c r="XS16" s="46"/>
-      <c r="XT16" s="46"/>
-      <c r="XU16" s="46"/>
-      <c r="XV16" s="46"/>
-      <c r="XW16" s="46"/>
-      <c r="XX16" s="46"/>
-      <c r="XY16" s="46"/>
-      <c r="XZ16" s="46"/>
-      <c r="YA16" s="46"/>
-      <c r="YB16" s="46"/>
-      <c r="YC16" s="46"/>
-      <c r="YD16" s="46"/>
-      <c r="YE16" s="46"/>
-      <c r="YF16" s="46"/>
-      <c r="YG16" s="46"/>
-      <c r="YH16" s="46"/>
-      <c r="YI16" s="46"/>
-      <c r="YJ16" s="46"/>
-      <c r="YK16" s="46"/>
-      <c r="YL16" s="46"/>
-      <c r="YM16" s="46"/>
-      <c r="YN16" s="46"/>
-      <c r="YO16" s="46"/>
-      <c r="YP16" s="46"/>
-      <c r="YQ16" s="46"/>
-      <c r="YR16" s="46"/>
-      <c r="YS16" s="46"/>
-      <c r="YT16" s="46"/>
-      <c r="YU16" s="46"/>
-      <c r="YV16" s="46"/>
-      <c r="YW16" s="46"/>
-      <c r="YX16" s="46"/>
-      <c r="YY16" s="46"/>
-      <c r="YZ16" s="46"/>
-      <c r="ZA16" s="46"/>
-      <c r="ZB16" s="46"/>
-      <c r="ZC16" s="46"/>
-      <c r="ZD16" s="46"/>
-      <c r="ZE16" s="46"/>
-      <c r="ZF16" s="46"/>
-      <c r="ZG16" s="46"/>
-      <c r="ZH16" s="46"/>
-      <c r="ZI16" s="46"/>
-      <c r="ZJ16" s="46"/>
-      <c r="ZK16" s="46"/>
-      <c r="ZL16" s="46"/>
-      <c r="ZM16" s="46"/>
-      <c r="ZN16" s="46"/>
-      <c r="ZO16" s="46"/>
-      <c r="ZP16" s="46"/>
-      <c r="ZQ16" s="46"/>
-      <c r="ZR16" s="46"/>
-      <c r="ZS16" s="46"/>
-      <c r="ZT16" s="46"/>
-      <c r="ZU16" s="46"/>
-      <c r="ZV16" s="46"/>
-      <c r="ZW16" s="46"/>
-      <c r="ZX16" s="46"/>
-      <c r="ZY16" s="46"/>
-      <c r="ZZ16" s="46"/>
-      <c r="AAA16" s="46"/>
-      <c r="AAB16" s="46"/>
-      <c r="AAC16" s="46"/>
-      <c r="AAD16" s="46"/>
-      <c r="AAE16" s="46"/>
-      <c r="AAF16" s="46"/>
-      <c r="AAG16" s="46"/>
-      <c r="AAH16" s="46"/>
-      <c r="AAI16" s="46"/>
-      <c r="AAJ16" s="46"/>
-      <c r="AAK16" s="46"/>
-      <c r="AAL16" s="46"/>
-      <c r="AAM16" s="46"/>
-      <c r="AAN16" s="46"/>
-      <c r="AAO16" s="46"/>
-      <c r="AAP16" s="46"/>
-      <c r="AAQ16" s="46"/>
-      <c r="AAR16" s="46"/>
-      <c r="AAS16" s="46"/>
-      <c r="AAT16" s="46"/>
-      <c r="AAU16" s="46"/>
-      <c r="AAV16" s="46"/>
-      <c r="AAW16" s="46"/>
-      <c r="AAX16" s="46"/>
-      <c r="AAY16" s="46"/>
-      <c r="AAZ16" s="46"/>
-      <c r="ABA16" s="46"/>
-      <c r="ABB16" s="46"/>
-      <c r="ABC16" s="46"/>
-      <c r="ABD16" s="46"/>
-      <c r="ABE16" s="46"/>
-      <c r="ABF16" s="46"/>
-      <c r="ABG16" s="46"/>
-      <c r="ABH16" s="46"/>
-      <c r="ABI16" s="46"/>
-      <c r="ABJ16" s="46"/>
-      <c r="ABK16" s="46"/>
-      <c r="ABL16" s="46"/>
-      <c r="ABM16" s="46"/>
-      <c r="ABN16" s="46"/>
-      <c r="ABO16" s="46"/>
-      <c r="ABP16" s="46"/>
-      <c r="ABQ16" s="46"/>
-      <c r="ABR16" s="46"/>
-      <c r="ABS16" s="46"/>
-      <c r="ABT16" s="46"/>
-      <c r="ABU16" s="46"/>
-      <c r="ABV16" s="46"/>
-      <c r="ABW16" s="46"/>
-      <c r="ABX16" s="46"/>
-      <c r="ABY16" s="46"/>
-      <c r="ABZ16" s="46"/>
-      <c r="ACA16" s="46"/>
-      <c r="ACB16" s="46"/>
-      <c r="ACC16" s="46"/>
-      <c r="ACD16" s="46"/>
-      <c r="ACE16" s="46"/>
-      <c r="ACF16" s="46"/>
-      <c r="ACG16" s="46"/>
-      <c r="ACH16" s="46"/>
-      <c r="ACI16" s="46"/>
-      <c r="ACJ16" s="46"/>
-      <c r="ACK16" s="46"/>
-      <c r="ACL16" s="46"/>
-      <c r="ACM16" s="46"/>
-      <c r="ACN16" s="46"/>
-      <c r="ACO16" s="46"/>
-      <c r="ACP16" s="46"/>
-      <c r="ACQ16" s="46"/>
-      <c r="ACR16" s="46"/>
-      <c r="ACS16" s="46"/>
-      <c r="ACT16" s="46"/>
-      <c r="ACU16" s="46"/>
-      <c r="ACV16" s="46"/>
-      <c r="ACW16" s="46"/>
-      <c r="ACX16" s="46"/>
-      <c r="ACY16" s="46"/>
-      <c r="ACZ16" s="46"/>
-      <c r="ADA16" s="46"/>
-      <c r="ADB16" s="46"/>
-      <c r="ADC16" s="46"/>
-      <c r="ADD16" s="46"/>
-      <c r="ADE16" s="46"/>
-      <c r="ADF16" s="46"/>
-      <c r="ADG16" s="46"/>
-      <c r="ADH16" s="46"/>
-      <c r="ADI16" s="46"/>
-      <c r="ADJ16" s="46"/>
-      <c r="ADK16" s="46"/>
-      <c r="ADL16" s="46"/>
-      <c r="ADM16" s="46"/>
-      <c r="ADN16" s="46"/>
-      <c r="ADO16" s="46"/>
-      <c r="ADP16" s="46"/>
-      <c r="ADQ16" s="46"/>
-      <c r="ADR16" s="46"/>
-      <c r="ADS16" s="46"/>
-      <c r="ADT16" s="46"/>
-      <c r="ADU16" s="46"/>
-      <c r="ADV16" s="46"/>
-      <c r="ADW16" s="46"/>
-      <c r="ADX16" s="46"/>
-      <c r="ADY16" s="46"/>
-      <c r="ADZ16" s="46"/>
-      <c r="AEA16" s="46"/>
-      <c r="AEB16" s="46"/>
-      <c r="AEC16" s="46"/>
-      <c r="AED16" s="46"/>
-      <c r="AEE16" s="46"/>
-      <c r="AEF16" s="46"/>
-      <c r="AEG16" s="46"/>
-      <c r="AEH16" s="46"/>
-      <c r="AEI16" s="46"/>
-      <c r="AEJ16" s="46"/>
-      <c r="AEK16" s="46"/>
-      <c r="AEL16" s="46"/>
-      <c r="AEM16" s="46"/>
-      <c r="AEN16" s="46"/>
-      <c r="AEO16" s="46"/>
-      <c r="AEP16" s="46"/>
-      <c r="AEQ16" s="46"/>
-      <c r="AER16" s="46"/>
-      <c r="AES16" s="46"/>
-      <c r="AET16" s="46"/>
-      <c r="AEU16" s="46"/>
-      <c r="AEV16" s="46"/>
-      <c r="AEW16" s="46"/>
-      <c r="AEX16" s="46"/>
-      <c r="AEY16" s="46"/>
-      <c r="AEZ16" s="46"/>
-      <c r="AFA16" s="46"/>
-      <c r="AFB16" s="46"/>
-      <c r="AFC16" s="46"/>
-      <c r="AFD16" s="46"/>
-      <c r="AFE16" s="46"/>
-      <c r="AFF16" s="46"/>
-      <c r="AFG16" s="46"/>
-      <c r="AFH16" s="46"/>
-      <c r="AFI16" s="46"/>
-      <c r="AFJ16" s="46"/>
-      <c r="AFK16" s="46"/>
-      <c r="AFL16" s="46"/>
-      <c r="AFM16" s="46"/>
-      <c r="AFN16" s="46"/>
-      <c r="AFO16" s="46"/>
-      <c r="AFP16" s="46"/>
-      <c r="AFQ16" s="46"/>
-      <c r="AFR16" s="46"/>
-      <c r="AFS16" s="46"/>
-      <c r="AFT16" s="46"/>
-      <c r="AFU16" s="46"/>
-      <c r="AFV16" s="46"/>
-      <c r="AFW16" s="46"/>
-      <c r="AFX16" s="46"/>
-      <c r="AFY16" s="46"/>
-      <c r="AFZ16" s="46"/>
-      <c r="AGA16" s="46"/>
-      <c r="AGB16" s="46"/>
-      <c r="AGC16" s="46"/>
-      <c r="AGD16" s="46"/>
-      <c r="AGE16" s="46"/>
-      <c r="AGF16" s="46"/>
-      <c r="AGG16" s="46"/>
-      <c r="AGH16" s="46"/>
-      <c r="AGI16" s="46"/>
-      <c r="AGJ16" s="46"/>
-      <c r="AGK16" s="46"/>
-      <c r="AGL16" s="46"/>
-      <c r="AGM16" s="46"/>
-      <c r="AGN16" s="46"/>
-      <c r="AGO16" s="46"/>
-      <c r="AGP16" s="46"/>
-      <c r="AGQ16" s="46"/>
-      <c r="AGR16" s="46"/>
-      <c r="AGS16" s="46"/>
-      <c r="AGT16" s="46"/>
-      <c r="AGU16" s="46"/>
-      <c r="AGV16" s="46"/>
-      <c r="AGW16" s="46"/>
-      <c r="AGX16" s="46"/>
-      <c r="AGY16" s="46"/>
-      <c r="AGZ16" s="46"/>
-      <c r="AHA16" s="46"/>
-      <c r="AHB16" s="46"/>
-      <c r="AHC16" s="46"/>
-      <c r="AHD16" s="46"/>
-      <c r="AHE16" s="46"/>
-      <c r="AHF16" s="46"/>
-      <c r="AHG16" s="46"/>
-      <c r="AHH16" s="46"/>
-      <c r="AHI16" s="46"/>
-      <c r="AHJ16" s="46"/>
-      <c r="AHK16" s="46"/>
-      <c r="AHL16" s="46"/>
-      <c r="AHM16" s="46"/>
-      <c r="AHN16" s="46"/>
-      <c r="AHO16" s="46"/>
-      <c r="AHP16" s="46"/>
-      <c r="AHQ16" s="46"/>
-      <c r="AHR16" s="46"/>
-      <c r="AHS16" s="46"/>
-      <c r="AHT16" s="46"/>
-      <c r="AHU16" s="46"/>
-      <c r="AHV16" s="46"/>
-      <c r="AHW16" s="46"/>
-      <c r="AHX16" s="46"/>
-      <c r="AHY16" s="46"/>
-      <c r="AHZ16" s="46"/>
-      <c r="AIA16" s="46"/>
-      <c r="AIB16" s="46"/>
-      <c r="AIC16" s="46"/>
-      <c r="AID16" s="46"/>
-      <c r="AIE16" s="46"/>
-      <c r="AIF16" s="46"/>
-      <c r="AIG16" s="46"/>
-      <c r="AIH16" s="46"/>
-      <c r="AII16" s="46"/>
-      <c r="AIJ16" s="46"/>
-      <c r="AIK16" s="46"/>
-      <c r="AIL16" s="46"/>
-      <c r="AIM16" s="46"/>
-      <c r="AIN16" s="46"/>
-      <c r="AIO16" s="46"/>
-      <c r="AIP16" s="46"/>
-      <c r="AIQ16" s="46"/>
-      <c r="AIR16" s="46"/>
-      <c r="AIS16" s="46"/>
-      <c r="AIT16" s="46"/>
-      <c r="AIU16" s="46"/>
-      <c r="AIV16" s="46"/>
-      <c r="AIW16" s="46"/>
-      <c r="AIX16" s="46"/>
-      <c r="AIY16" s="46"/>
-      <c r="AIZ16" s="46"/>
-      <c r="AJA16" s="46"/>
-      <c r="AJB16" s="46"/>
-      <c r="AJC16" s="46"/>
-      <c r="AJD16" s="46"/>
-      <c r="AJE16" s="46"/>
-      <c r="AJF16" s="46"/>
-      <c r="AJG16" s="46"/>
-      <c r="AJH16" s="46"/>
-      <c r="AJI16" s="46"/>
-      <c r="AJJ16" s="46"/>
-      <c r="AJK16" s="46"/>
-      <c r="AJL16" s="46"/>
-      <c r="AJM16" s="46"/>
-      <c r="AJN16" s="46"/>
-      <c r="AJO16" s="46"/>
-      <c r="AJP16" s="46"/>
-      <c r="AJQ16" s="46"/>
-      <c r="AJR16" s="46"/>
-      <c r="AJS16" s="46"/>
-      <c r="AJT16" s="46"/>
-      <c r="AJU16" s="46"/>
-      <c r="AJV16" s="46"/>
-      <c r="AJW16" s="46"/>
-      <c r="AJX16" s="46"/>
-      <c r="AJY16" s="46"/>
-      <c r="AJZ16" s="46"/>
-      <c r="AKA16" s="46"/>
-      <c r="AKB16" s="46"/>
-      <c r="AKC16" s="46"/>
-      <c r="AKD16" s="46"/>
-      <c r="AKE16" s="46"/>
-      <c r="AKF16" s="46"/>
-      <c r="AKG16" s="46"/>
-      <c r="AKH16" s="46"/>
-      <c r="AKI16" s="46"/>
-      <c r="AKJ16" s="46"/>
-      <c r="AKK16" s="46"/>
-      <c r="AKL16" s="46"/>
-      <c r="AKM16" s="46"/>
-      <c r="AKN16" s="46"/>
-      <c r="AKO16" s="46"/>
-      <c r="AKP16" s="46"/>
-      <c r="AKQ16" s="46"/>
-      <c r="AKR16" s="46"/>
-      <c r="AKS16" s="46"/>
-      <c r="AKT16" s="46"/>
-      <c r="AKU16" s="46"/>
-      <c r="AKV16" s="46"/>
-      <c r="AKW16" s="46"/>
-      <c r="AKX16" s="46"/>
-      <c r="AKY16" s="46"/>
-      <c r="AKZ16" s="46"/>
-      <c r="ALA16" s="46"/>
-      <c r="ALB16" s="46"/>
-      <c r="ALC16" s="46"/>
-      <c r="ALD16" s="46"/>
-      <c r="ALE16" s="46"/>
-      <c r="ALF16" s="46"/>
-      <c r="ALG16" s="46"/>
-      <c r="ALH16" s="46"/>
-      <c r="ALI16" s="46"/>
-      <c r="ALJ16" s="46"/>
-      <c r="ALK16" s="46"/>
-      <c r="ALL16" s="46"/>
-      <c r="ALM16" s="46"/>
-      <c r="ALN16" s="46"/>
-      <c r="ALO16" s="46"/>
-      <c r="ALP16" s="46"/>
-      <c r="ALQ16" s="46"/>
-      <c r="ALR16" s="46"/>
-      <c r="ALS16" s="46"/>
-      <c r="ALT16" s="46"/>
-      <c r="ALU16" s="46"/>
-      <c r="ALV16" s="46"/>
-      <c r="ALW16" s="46"/>
-      <c r="ALX16" s="46"/>
-      <c r="ALY16" s="46"/>
-      <c r="ALZ16" s="46"/>
-      <c r="AMA16" s="46"/>
-      <c r="AMB16" s="46"/>
-      <c r="AMC16" s="46"/>
-      <c r="AMD16" s="46"/>
-      <c r="AME16" s="46"/>
-      <c r="AMF16" s="46"/>
-      <c r="AMG16" s="46"/>
-      <c r="AMH16" s="46"/>
-      <c r="AMI16" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="D1:K1"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CSida &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="TotalTid" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="207">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -519,9 +519,6 @@
   </si>
   <si>
     <t>Skapa knapp edyl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mål: En html-kod att använda för css-manipulation som är så genomtänkt jag kan i ett första steg. Till denna ska finnas en default-cssmall att använda i kommande steg. Hoppas även hitta bättre sätt att ladda in html- och csskod som fungerar bättre för editering.</t>
   </si>
   <si>
     <t>Mål: Att kunna göra editeringar i css-rutan och få dem att slå igenom i visningen av resultatet. Lära mer om jQuery genom att göra övningar på CodeSchool. Målet är ändrat efter handledning. Det tidigare målet är nu inlagt i sprint 4.</t>
@@ -585,9 +582,6 @@
     <t>4.1&amp;5</t>
   </si>
   <si>
-    <t>Skriva testfall 4.1 och 4.5</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
@@ -664,6 +658,64 @@
         <family val="2"/>
       </rPr>
       <t>Hade väldigt litet hum om vad som behövde göras i Firebase och hur lång tid det tar att förstå när man aldrig gjort något liknande. Jag visste inte att man behövde skapa användare och hade missat att planera för det. Jag tänkte inte heller på att man skulle kunna logga ut... En ytterligare sak som kom till vara att jag upptäckte att attributet srcdoc i iframen inte funkade i InternetExplorer och fixade det.  Att läsa på grunden om Firebase samt skapa in- och utloggning samt försöka spara på en viss användare tog all tid. Sparningen är ännu inte färdig och måste skjutas till kommande iteration. Att skriva tester och att utföra dem skjuts också fram liksom utbildning i jQuery.</t>
+    </r>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>Scenario: Radera tidigare sparad mall</t>
+  </si>
+  <si>
+    <t>Och väljer att ta bort</t>
+  </si>
+  <si>
+    <t>Så raderas mallen</t>
+  </si>
+  <si>
+    <t>Scenario: Visa sparade mallar</t>
+  </si>
+  <si>
+    <t>När användaren väljer att visa sina sparade mallar</t>
+  </si>
+  <si>
+    <t>Så visar namnen på sparade mallar</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>Skriva testfall 4.1, 4.5 och 4.6</t>
+  </si>
+  <si>
+    <t>Scenario: Skapa css-defaultmall</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analys av föregående iteration: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Var sjuk flera dagar och hann inte mycket men det jag gjorde gick fortare än jag trott så jag gjorde ändå det mesta. Kom även på att jag inte tänkt på att det vore bra att användaren kan visa namnen på redan sparade mallar eftersom det nog inte är så lätt att komma ihåg vilka namn man gett sina mallar efter ett tag. Har gjort funktionen men som det mesta hittills så lämnar presentationen en del i övrigt att önska... Insåg också att man bör kunna ta bort en mall och har lagt in det i dokumentationen men får ta det i nästa sprint. Testfall är skrivna för de utförda funktionerna men att utföra dem är en sak som inte hunnits med. Det får också genomföras nästa sprint.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Mål:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> En html-kod att använda för css-manipulation som är så genomtänkt jag kan i ett första steg. Till denna ska finnas en default-cssmall att använda i kommande steg. Att kunna ta bort en sparad mall ska också vara möjligt efter iterationen.</t>
     </r>
   </si>
 </sst>
@@ -917,7 +969,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1033,14 +1085,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -1328,7 +1387,7 @@
   <dimension ref="A1:AMI3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1374,8 +1433,8 @@
       </c>
       <c r="H2" s="4"/>
       <c r="L2" s="28">
-        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L44+'Sprint 4'!L28+'Sprint 5'!L26+'Sprint 6'!L14+'Sprint 7'!L14</f>
-        <v>125</v>
+        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L35+'Sprint 6'!L14+'Sprint 7'!L14</f>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1386,7 +1445,7 @@
       </c>
       <c r="L3" s="28">
         <f>+L1-L2</f>
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1426,14 +1485,14 @@
         <v>25</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -1446,19 +1505,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1469,31 +1528,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -1704,14 +1763,14 @@
         <v>25</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="28"/>
       <c r="M1" s="55"/>
     </row>
@@ -1724,19 +1783,19 @@
       <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1747,31 +1806,31 @@
       <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="28"/>
       <c r="M6" s="55"/>
     </row>
@@ -1982,14 +2041,14 @@
         <v>26</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -1998,19 +2057,19 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -2019,29 +2078,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -2642,14 +2701,14 @@
         <v>4</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2659,19 +2718,19 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -2680,19 +2739,19 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
     </row>
     <row r="6" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
@@ -2879,14 +2938,14 @@
         <v>14</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="3"/>
       <c r="M1" s="46"/>
     </row>
@@ -2898,19 +2957,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2921,32 +2980,32 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46"/>
     </row>
@@ -3213,15 +3272,15 @@
         <v>19</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
       <c r="M1" s="28"/>
       <c r="N1" s="46"/>
     </row>
@@ -3234,20 +3293,20 @@
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3259,33 +3318,33 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="28"/>
       <c r="N6" s="46"/>
     </row>
@@ -4002,7 +4061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
@@ -4024,14 +4083,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -4043,19 +4102,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4066,31 +4125,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="B5" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -4770,10 +4829,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI45"/>
+  <dimension ref="A1:AMI44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4807,14 +4866,14 @@
         <v>22</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="28"/>
       <c r="M2" s="32"/>
     </row>
@@ -4826,19 +4885,19 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="B4" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4849,31 +4908,31 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="B6" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="28"/>
       <c r="M7" s="32"/>
     </row>
@@ -4939,7 +4998,7 @@
         <v>1.5</v>
       </c>
       <c r="L10" s="13">
-        <f t="shared" ref="L10:L44" si="0">+SUM(E10:K10)</f>
+        <f t="shared" ref="L10:L43" si="0">+SUM(E10:K10)</f>
         <v>1.5</v>
       </c>
       <c r="M10" s="32"/>
@@ -4953,10 +5012,10 @@
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="12"/>
       <c r="G12" s="1">
@@ -4967,13 +5026,13 @@
         <v>3.5</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="12"/>
       <c r="L13" s="13"/>
@@ -4982,7 +5041,7 @@
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="12"/>
       <c r="L14" s="13"/>
@@ -4991,7 +5050,7 @@
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13"/>
@@ -5000,7 +5059,7 @@
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="12"/>
       <c r="L16" s="13"/>
@@ -5015,7 +5074,7 @@
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>154</v>
@@ -5070,7 +5129,7 @@
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="12"/>
       <c r="L21" s="13">
@@ -5078,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5099,10 +5158,10 @@
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D24" s="12"/>
       <c r="J24" s="1">
@@ -5116,13 +5175,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D25" s="12"/>
       <c r="L25" s="13"/>
@@ -5130,8 +5189,8 @@
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
-      <c r="C26" s="49" t="s">
-        <v>156</v>
+      <c r="C26" s="62" t="s">
+        <v>189</v>
       </c>
       <c r="D26" s="12"/>
       <c r="L26" s="13"/>
@@ -5139,60 +5198,63 @@
     </row>
     <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
-      <c r="C27" s="64" t="s">
-        <v>191</v>
-      </c>
+      <c r="C27" s="49"/>
       <c r="D27" s="12"/>
       <c r="L27" s="13"/>
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="12"/>
-      <c r="L28" s="13"/>
+      <c r="B28" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="12">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="L28" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" s="12">
-        <v>5</v>
-      </c>
-      <c r="I29" s="1">
-        <v>3</v>
-      </c>
-      <c r="J29" s="1">
-        <v>4</v>
-      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="12"/>
       <c r="L29" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M29" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="32" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D30" s="12"/>
       <c r="L30" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="32" t="s">
-        <v>162</v>
-      </c>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="49" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D31" s="12"/>
       <c r="L31" s="13">
@@ -5204,7 +5266,7 @@
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="49" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D32" s="12"/>
       <c r="L32" s="13">
@@ -5215,118 +5277,123 @@
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
-      <c r="C33" s="49" t="s">
-        <v>79</v>
-      </c>
+      <c r="C33" s="49"/>
       <c r="D33" s="12"/>
-      <c r="L33" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L33" s="13"/>
       <c r="M33" s="32"/>
     </row>
-    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" s="1" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
-      <c r="C34" s="49"/>
+      <c r="C34" s="49" t="s">
+        <v>192</v>
+      </c>
       <c r="D34" s="12"/>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
       <c r="L34" s="13"/>
-      <c r="M34" s="32"/>
-    </row>
-    <row r="35" spans="2:13" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="M34" s="32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
-      <c r="C35" s="49" t="s">
-        <v>194</v>
-      </c>
+      <c r="C35" s="49"/>
       <c r="D35" s="12"/>
-      <c r="G35" s="1">
-        <v>2</v>
-      </c>
       <c r="L35" s="13"/>
-      <c r="M35" s="32" t="s">
-        <v>195</v>
-      </c>
+      <c r="M35" s="32"/>
     </row>
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="12"/>
-      <c r="L36" s="13"/>
+      <c r="C36" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="12">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M36" s="32"/>
     </row>
     <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
-      <c r="C37" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="12">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="L37" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="12"/>
+      <c r="L37" s="13"/>
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="12"/>
-      <c r="L38" s="13"/>
+      <c r="C38" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="12">
+        <v>5</v>
+      </c>
+      <c r="L38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
-      <c r="C39" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="12">
-        <v>5</v>
-      </c>
-      <c r="L39" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D39" s="12"/>
+      <c r="L39" s="13"/>
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="L40" s="13"/>
+      <c r="C40" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="L40" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M40" s="32"/>
     </row>
     <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="C41" s="35" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D41" s="12">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.5</v>
       </c>
       <c r="L41" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="32"/>
     </row>
     <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="35" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D42" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L42" s="13">
         <f t="shared" si="0"/>
@@ -5335,75 +5402,58 @@
       <c r="M42" s="32"/>
     </row>
     <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
-      <c r="L43" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M43" s="32"/>
-    </row>
-    <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="16">
-        <f t="shared" ref="D44:K44" si="1">+SUM(D10:D43)</f>
+      <c r="B43" s="14"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="16">
+        <f t="shared" ref="D43:K43" si="1">+SUM(D10:D42)</f>
         <v>26</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E43" s="15">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F43" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G43" s="15">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H43" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I43" s="15">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J43" s="15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K43" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L44" s="21">
+      <c r="L43" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M44" s="32"/>
-    </row>
-    <row r="45" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="43"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="43"/>
+      <c r="M43" s="32"/>
+    </row>
+    <row r="44" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="43"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5423,10 +5473,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI30"/>
+  <dimension ref="A1:AMI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5447,14 +5497,14 @@
         <v>24</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -5466,19 +5516,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="B3" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5489,31 +5539,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="B5" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -5554,41 +5604,35 @@
       <c r="M7" s="46"/>
     </row>
     <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="33"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="46"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>176</v>
-      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="35" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L9" s="13">
-        <f t="shared" ref="L9:L17" si="0">+SUM(E9:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="60"/>
+        <f>+SUM(E9:K9)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
@@ -5600,19 +5644,18 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="60"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>157</v>
+        <v>175</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>203</v>
       </c>
       <c r="D11" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -5620,18 +5663,18 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
       <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="L10:L23" si="0">+SUM(E11:K11)</f>
+        <v>1</v>
       </c>
       <c r="M11" s="60"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="49" t="s">
-        <v>158</v>
-      </c>
+      <c r="C12" s="33"/>
       <c r="D12" s="12"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -5639,30 +5682,37 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
       <c r="L12" s="13"/>
       <c r="M12" s="60"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="B13" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="12">
+        <v>6</v>
+      </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="28">
+        <v>3</v>
+      </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="13"/>
+      <c r="L13" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="M13" s="60"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="28"/>
@@ -5671,17 +5721,13 @@
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L14" s="13"/>
       <c r="M14" s="60"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="49" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="28"/>
@@ -5690,16 +5736,14 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L15" s="13"/>
       <c r="M15" s="60"/>
     </row>
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="49"/>
+      <c r="C16" s="49" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -5707,38 +5751,33 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
       <c r="L16" s="13"/>
       <c r="M16" s="60"/>
     </row>
-    <row r="17" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="12">
-        <v>10</v>
-      </c>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
+      <c r="K17" s="1">
+        <v>0.25</v>
+      </c>
       <c r="L17" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M17" s="60"/>
     </row>
-    <row r="18" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="49" t="s">
-        <v>182</v>
-      </c>
+      <c r="C18" s="49"/>
       <c r="D18" s="12"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -5746,30 +5785,39 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
       <c r="L18" s="13"/>
       <c r="M18" s="60"/>
     </row>
-    <row r="19" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="12"/>
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="12">
+        <v>10</v>
+      </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="G19" s="28">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28">
+        <v>3</v>
+      </c>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="13"/>
+      <c r="L19" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="M19" s="60"/>
     </row>
-    <row r="20" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="28"/>
@@ -5778,14 +5826,13 @@
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
       <c r="L20" s="13"/>
       <c r="M20" s="60"/>
     </row>
-    <row r="21" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="28"/>
@@ -5794,14 +5841,13 @@
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
       <c r="L21" s="13"/>
       <c r="M21" s="60"/>
     </row>
-    <row r="22" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="28"/>
@@ -5810,14 +5856,13 @@
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
       <c r="L22" s="13"/>
       <c r="M22" s="60"/>
     </row>
-    <row r="23" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="49" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="28"/>
@@ -5826,1134 +5871,1310 @@
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
       <c r="L23" s="13"/>
       <c r="M23" s="60"/>
     </row>
-    <row r="24" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
+      <c r="C24" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="46"/>
-    </row>
-    <row r="25" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="60"/>
+    </row>
+    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" ref="L20:L37" si="1">+SUM(E26:K26)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M26" s="63"/>
+    </row>
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="63"/>
+    </row>
+    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28">
+        <v>3</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M28" s="63"/>
+    </row>
+    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="63"/>
+    </row>
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="63"/>
+    </row>
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="63"/>
+    </row>
+    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="M33" s="66"/>
+    </row>
+    <row r="34" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="46"/>
+    </row>
+    <row r="35" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D35" s="12">
         <v>2</v>
       </c>
-      <c r="L25" s="13">
-        <f t="shared" ref="L25:L28" si="1">+SUM(E25:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="46"/>
-    </row>
-    <row r="26" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="35" t="s">
+      <c r="L35" s="13"/>
+      <c r="M35" s="46"/>
+    </row>
+    <row r="36" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D36" s="12">
         <v>1</v>
       </c>
-      <c r="L26" s="13">
+      <c r="H36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="46"/>
-    </row>
-    <row r="27" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="46"/>
+    </row>
+    <row r="37" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D37" s="12">
         <v>1</v>
       </c>
-      <c r="L27" s="13">
+      <c r="K37" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="46"/>
-    </row>
-    <row r="28" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="16">
-        <f>+SUM(D8:D27)</f>
-        <v>21</v>
-      </c>
-      <c r="E28" s="15">
-        <f>+SUM(E24:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="15">
-        <f>+SUM(F24:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
-        <f>+SUM(G24:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="15">
-        <f>+SUM(H24:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="15">
-        <f>+SUM(I24:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="15">
-        <f>+SUM(J24:J27)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
-        <f>+SUM(K24:K27)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="46"/>
-    </row>
-    <row r="29" spans="1:1023" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="43"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="30"/>
-    </row>
-    <row r="30" spans="1:1023" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="46"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="46"/>
-      <c r="AL30" s="46"/>
-      <c r="AM30" s="46"/>
-      <c r="AN30" s="46"/>
-      <c r="AO30" s="46"/>
-      <c r="AP30" s="46"/>
-      <c r="AQ30" s="46"/>
-      <c r="AR30" s="46"/>
-      <c r="AS30" s="46"/>
-      <c r="AT30" s="46"/>
-      <c r="AU30" s="46"/>
-      <c r="AV30" s="46"/>
-      <c r="AW30" s="46"/>
-      <c r="AX30" s="46"/>
-      <c r="AY30" s="46"/>
-      <c r="AZ30" s="46"/>
-      <c r="BA30" s="46"/>
-      <c r="BB30" s="46"/>
-      <c r="BC30" s="46"/>
-      <c r="BD30" s="46"/>
-      <c r="BE30" s="46"/>
-      <c r="BF30" s="46"/>
-      <c r="BG30" s="46"/>
-      <c r="BH30" s="46"/>
-      <c r="BI30" s="46"/>
-      <c r="BJ30" s="46"/>
-      <c r="BK30" s="46"/>
-      <c r="BL30" s="46"/>
-      <c r="BM30" s="46"/>
-      <c r="BN30" s="46"/>
-      <c r="BO30" s="46"/>
-      <c r="BP30" s="46"/>
-      <c r="BQ30" s="46"/>
-      <c r="BR30" s="46"/>
-      <c r="BS30" s="46"/>
-      <c r="BT30" s="46"/>
-      <c r="BU30" s="46"/>
-      <c r="BV30" s="46"/>
-      <c r="BW30" s="46"/>
-      <c r="BX30" s="46"/>
-      <c r="BY30" s="46"/>
-      <c r="BZ30" s="46"/>
-      <c r="CA30" s="46"/>
-      <c r="CB30" s="46"/>
-      <c r="CC30" s="46"/>
-      <c r="CD30" s="46"/>
-      <c r="CE30" s="46"/>
-      <c r="CF30" s="46"/>
-      <c r="CG30" s="46"/>
-      <c r="CH30" s="46"/>
-      <c r="CI30" s="46"/>
-      <c r="CJ30" s="46"/>
-      <c r="CK30" s="46"/>
-      <c r="CL30" s="46"/>
-      <c r="CM30" s="46"/>
-      <c r="CN30" s="46"/>
-      <c r="CO30" s="46"/>
-      <c r="CP30" s="46"/>
-      <c r="CQ30" s="46"/>
-      <c r="CR30" s="46"/>
-      <c r="CS30" s="46"/>
-      <c r="CT30" s="46"/>
-      <c r="CU30" s="46"/>
-      <c r="CV30" s="46"/>
-      <c r="CW30" s="46"/>
-      <c r="CX30" s="46"/>
-      <c r="CY30" s="46"/>
-      <c r="CZ30" s="46"/>
-      <c r="DA30" s="46"/>
-      <c r="DB30" s="46"/>
-      <c r="DC30" s="46"/>
-      <c r="DD30" s="46"/>
-      <c r="DE30" s="46"/>
-      <c r="DF30" s="46"/>
-      <c r="DG30" s="46"/>
-      <c r="DH30" s="46"/>
-      <c r="DI30" s="46"/>
-      <c r="DJ30" s="46"/>
-      <c r="DK30" s="46"/>
-      <c r="DL30" s="46"/>
-      <c r="DM30" s="46"/>
-      <c r="DN30" s="46"/>
-      <c r="DO30" s="46"/>
-      <c r="DP30" s="46"/>
-      <c r="DQ30" s="46"/>
-      <c r="DR30" s="46"/>
-      <c r="DS30" s="46"/>
-      <c r="DT30" s="46"/>
-      <c r="DU30" s="46"/>
-      <c r="DV30" s="46"/>
-      <c r="DW30" s="46"/>
-      <c r="DX30" s="46"/>
-      <c r="DY30" s="46"/>
-      <c r="DZ30" s="46"/>
-      <c r="EA30" s="46"/>
-      <c r="EB30" s="46"/>
-      <c r="EC30" s="46"/>
-      <c r="ED30" s="46"/>
-      <c r="EE30" s="46"/>
-      <c r="EF30" s="46"/>
-      <c r="EG30" s="46"/>
-      <c r="EH30" s="46"/>
-      <c r="EI30" s="46"/>
-      <c r="EJ30" s="46"/>
-      <c r="EK30" s="46"/>
-      <c r="EL30" s="46"/>
-      <c r="EM30" s="46"/>
-      <c r="EN30" s="46"/>
-      <c r="EO30" s="46"/>
-      <c r="EP30" s="46"/>
-      <c r="EQ30" s="46"/>
-      <c r="ER30" s="46"/>
-      <c r="ES30" s="46"/>
-      <c r="ET30" s="46"/>
-      <c r="EU30" s="46"/>
-      <c r="EV30" s="46"/>
-      <c r="EW30" s="46"/>
-      <c r="EX30" s="46"/>
-      <c r="EY30" s="46"/>
-      <c r="EZ30" s="46"/>
-      <c r="FA30" s="46"/>
-      <c r="FB30" s="46"/>
-      <c r="FC30" s="46"/>
-      <c r="FD30" s="46"/>
-      <c r="FE30" s="46"/>
-      <c r="FF30" s="46"/>
-      <c r="FG30" s="46"/>
-      <c r="FH30" s="46"/>
-      <c r="FI30" s="46"/>
-      <c r="FJ30" s="46"/>
-      <c r="FK30" s="46"/>
-      <c r="FL30" s="46"/>
-      <c r="FM30" s="46"/>
-      <c r="FN30" s="46"/>
-      <c r="FO30" s="46"/>
-      <c r="FP30" s="46"/>
-      <c r="FQ30" s="46"/>
-      <c r="FR30" s="46"/>
-      <c r="FS30" s="46"/>
-      <c r="FT30" s="46"/>
-      <c r="FU30" s="46"/>
-      <c r="FV30" s="46"/>
-      <c r="FW30" s="46"/>
-      <c r="FX30" s="46"/>
-      <c r="FY30" s="46"/>
-      <c r="FZ30" s="46"/>
-      <c r="GA30" s="46"/>
-      <c r="GB30" s="46"/>
-      <c r="GC30" s="46"/>
-      <c r="GD30" s="46"/>
-      <c r="GE30" s="46"/>
-      <c r="GF30" s="46"/>
-      <c r="GG30" s="46"/>
-      <c r="GH30" s="46"/>
-      <c r="GI30" s="46"/>
-      <c r="GJ30" s="46"/>
-      <c r="GK30" s="46"/>
-      <c r="GL30" s="46"/>
-      <c r="GM30" s="46"/>
-      <c r="GN30" s="46"/>
-      <c r="GO30" s="46"/>
-      <c r="GP30" s="46"/>
-      <c r="GQ30" s="46"/>
-      <c r="GR30" s="46"/>
-      <c r="GS30" s="46"/>
-      <c r="GT30" s="46"/>
-      <c r="GU30" s="46"/>
-      <c r="GV30" s="46"/>
-      <c r="GW30" s="46"/>
-      <c r="GX30" s="46"/>
-      <c r="GY30" s="46"/>
-      <c r="GZ30" s="46"/>
-      <c r="HA30" s="46"/>
-      <c r="HB30" s="46"/>
-      <c r="HC30" s="46"/>
-      <c r="HD30" s="46"/>
-      <c r="HE30" s="46"/>
-      <c r="HF30" s="46"/>
-      <c r="HG30" s="46"/>
-      <c r="HH30" s="46"/>
-      <c r="HI30" s="46"/>
-      <c r="HJ30" s="46"/>
-      <c r="HK30" s="46"/>
-      <c r="HL30" s="46"/>
-      <c r="HM30" s="46"/>
-      <c r="HN30" s="46"/>
-      <c r="HO30" s="46"/>
-      <c r="HP30" s="46"/>
-      <c r="HQ30" s="46"/>
-      <c r="HR30" s="46"/>
-      <c r="HS30" s="46"/>
-      <c r="HT30" s="46"/>
-      <c r="HU30" s="46"/>
-      <c r="HV30" s="46"/>
-      <c r="HW30" s="46"/>
-      <c r="HX30" s="46"/>
-      <c r="HY30" s="46"/>
-      <c r="HZ30" s="46"/>
-      <c r="IA30" s="46"/>
-      <c r="IB30" s="46"/>
-      <c r="IC30" s="46"/>
-      <c r="ID30" s="46"/>
-      <c r="IE30" s="46"/>
-      <c r="IF30" s="46"/>
-      <c r="IG30" s="46"/>
-      <c r="IH30" s="46"/>
-      <c r="II30" s="46"/>
-      <c r="IJ30" s="46"/>
-      <c r="IK30" s="46"/>
-      <c r="IL30" s="46"/>
-      <c r="IM30" s="46"/>
-      <c r="IN30" s="46"/>
-      <c r="IO30" s="46"/>
-      <c r="IP30" s="46"/>
-      <c r="IQ30" s="46"/>
-      <c r="IR30" s="46"/>
-      <c r="IS30" s="46"/>
-      <c r="IT30" s="46"/>
-      <c r="IU30" s="46"/>
-      <c r="IV30" s="46"/>
-      <c r="IW30" s="46"/>
-      <c r="IX30" s="46"/>
-      <c r="IY30" s="46"/>
-      <c r="IZ30" s="46"/>
-      <c r="JA30" s="46"/>
-      <c r="JB30" s="46"/>
-      <c r="JC30" s="46"/>
-      <c r="JD30" s="46"/>
-      <c r="JE30" s="46"/>
-      <c r="JF30" s="46"/>
-      <c r="JG30" s="46"/>
-      <c r="JH30" s="46"/>
-      <c r="JI30" s="46"/>
-      <c r="JJ30" s="46"/>
-      <c r="JK30" s="46"/>
-      <c r="JL30" s="46"/>
-      <c r="JM30" s="46"/>
-      <c r="JN30" s="46"/>
-      <c r="JO30" s="46"/>
-      <c r="JP30" s="46"/>
-      <c r="JQ30" s="46"/>
-      <c r="JR30" s="46"/>
-      <c r="JS30" s="46"/>
-      <c r="JT30" s="46"/>
-      <c r="JU30" s="46"/>
-      <c r="JV30" s="46"/>
-      <c r="JW30" s="46"/>
-      <c r="JX30" s="46"/>
-      <c r="JY30" s="46"/>
-      <c r="JZ30" s="46"/>
-      <c r="KA30" s="46"/>
-      <c r="KB30" s="46"/>
-      <c r="KC30" s="46"/>
-      <c r="KD30" s="46"/>
-      <c r="KE30" s="46"/>
-      <c r="KF30" s="46"/>
-      <c r="KG30" s="46"/>
-      <c r="KH30" s="46"/>
-      <c r="KI30" s="46"/>
-      <c r="KJ30" s="46"/>
-      <c r="KK30" s="46"/>
-      <c r="KL30" s="46"/>
-      <c r="KM30" s="46"/>
-      <c r="KN30" s="46"/>
-      <c r="KO30" s="46"/>
-      <c r="KP30" s="46"/>
-      <c r="KQ30" s="46"/>
-      <c r="KR30" s="46"/>
-      <c r="KS30" s="46"/>
-      <c r="KT30" s="46"/>
-      <c r="KU30" s="46"/>
-      <c r="KV30" s="46"/>
-      <c r="KW30" s="46"/>
-      <c r="KX30" s="46"/>
-      <c r="KY30" s="46"/>
-      <c r="KZ30" s="46"/>
-      <c r="LA30" s="46"/>
-      <c r="LB30" s="46"/>
-      <c r="LC30" s="46"/>
-      <c r="LD30" s="46"/>
-      <c r="LE30" s="46"/>
-      <c r="LF30" s="46"/>
-      <c r="LG30" s="46"/>
-      <c r="LH30" s="46"/>
-      <c r="LI30" s="46"/>
-      <c r="LJ30" s="46"/>
-      <c r="LK30" s="46"/>
-      <c r="LL30" s="46"/>
-      <c r="LM30" s="46"/>
-      <c r="LN30" s="46"/>
-      <c r="LO30" s="46"/>
-      <c r="LP30" s="46"/>
-      <c r="LQ30" s="46"/>
-      <c r="LR30" s="46"/>
-      <c r="LS30" s="46"/>
-      <c r="LT30" s="46"/>
-      <c r="LU30" s="46"/>
-      <c r="LV30" s="46"/>
-      <c r="LW30" s="46"/>
-      <c r="LX30" s="46"/>
-      <c r="LY30" s="46"/>
-      <c r="LZ30" s="46"/>
-      <c r="MA30" s="46"/>
-      <c r="MB30" s="46"/>
-      <c r="MC30" s="46"/>
-      <c r="MD30" s="46"/>
-      <c r="ME30" s="46"/>
-      <c r="MF30" s="46"/>
-      <c r="MG30" s="46"/>
-      <c r="MH30" s="46"/>
-      <c r="MI30" s="46"/>
-      <c r="MJ30" s="46"/>
-      <c r="MK30" s="46"/>
-      <c r="ML30" s="46"/>
-      <c r="MM30" s="46"/>
-      <c r="MN30" s="46"/>
-      <c r="MO30" s="46"/>
-      <c r="MP30" s="46"/>
-      <c r="MQ30" s="46"/>
-      <c r="MR30" s="46"/>
-      <c r="MS30" s="46"/>
-      <c r="MT30" s="46"/>
-      <c r="MU30" s="46"/>
-      <c r="MV30" s="46"/>
-      <c r="MW30" s="46"/>
-      <c r="MX30" s="46"/>
-      <c r="MY30" s="46"/>
-      <c r="MZ30" s="46"/>
-      <c r="NA30" s="46"/>
-      <c r="NB30" s="46"/>
-      <c r="NC30" s="46"/>
-      <c r="ND30" s="46"/>
-      <c r="NE30" s="46"/>
-      <c r="NF30" s="46"/>
-      <c r="NG30" s="46"/>
-      <c r="NH30" s="46"/>
-      <c r="NI30" s="46"/>
-      <c r="NJ30" s="46"/>
-      <c r="NK30" s="46"/>
-      <c r="NL30" s="46"/>
-      <c r="NM30" s="46"/>
-      <c r="NN30" s="46"/>
-      <c r="NO30" s="46"/>
-      <c r="NP30" s="46"/>
-      <c r="NQ30" s="46"/>
-      <c r="NR30" s="46"/>
-      <c r="NS30" s="46"/>
-      <c r="NT30" s="46"/>
-      <c r="NU30" s="46"/>
-      <c r="NV30" s="46"/>
-      <c r="NW30" s="46"/>
-      <c r="NX30" s="46"/>
-      <c r="NY30" s="46"/>
-      <c r="NZ30" s="46"/>
-      <c r="OA30" s="46"/>
-      <c r="OB30" s="46"/>
-      <c r="OC30" s="46"/>
-      <c r="OD30" s="46"/>
-      <c r="OE30" s="46"/>
-      <c r="OF30" s="46"/>
-      <c r="OG30" s="46"/>
-      <c r="OH30" s="46"/>
-      <c r="OI30" s="46"/>
-      <c r="OJ30" s="46"/>
-      <c r="OK30" s="46"/>
-      <c r="OL30" s="46"/>
-      <c r="OM30" s="46"/>
-      <c r="ON30" s="46"/>
-      <c r="OO30" s="46"/>
-      <c r="OP30" s="46"/>
-      <c r="OQ30" s="46"/>
-      <c r="OR30" s="46"/>
-      <c r="OS30" s="46"/>
-      <c r="OT30" s="46"/>
-      <c r="OU30" s="46"/>
-      <c r="OV30" s="46"/>
-      <c r="OW30" s="46"/>
-      <c r="OX30" s="46"/>
-      <c r="OY30" s="46"/>
-      <c r="OZ30" s="46"/>
-      <c r="PA30" s="46"/>
-      <c r="PB30" s="46"/>
-      <c r="PC30" s="46"/>
-      <c r="PD30" s="46"/>
-      <c r="PE30" s="46"/>
-      <c r="PF30" s="46"/>
-      <c r="PG30" s="46"/>
-      <c r="PH30" s="46"/>
-      <c r="PI30" s="46"/>
-      <c r="PJ30" s="46"/>
-      <c r="PK30" s="46"/>
-      <c r="PL30" s="46"/>
-      <c r="PM30" s="46"/>
-      <c r="PN30" s="46"/>
-      <c r="PO30" s="46"/>
-      <c r="PP30" s="46"/>
-      <c r="PQ30" s="46"/>
-      <c r="PR30" s="46"/>
-      <c r="PS30" s="46"/>
-      <c r="PT30" s="46"/>
-      <c r="PU30" s="46"/>
-      <c r="PV30" s="46"/>
-      <c r="PW30" s="46"/>
-      <c r="PX30" s="46"/>
-      <c r="PY30" s="46"/>
-      <c r="PZ30" s="46"/>
-      <c r="QA30" s="46"/>
-      <c r="QB30" s="46"/>
-      <c r="QC30" s="46"/>
-      <c r="QD30" s="46"/>
-      <c r="QE30" s="46"/>
-      <c r="QF30" s="46"/>
-      <c r="QG30" s="46"/>
-      <c r="QH30" s="46"/>
-      <c r="QI30" s="46"/>
-      <c r="QJ30" s="46"/>
-      <c r="QK30" s="46"/>
-      <c r="QL30" s="46"/>
-      <c r="QM30" s="46"/>
-      <c r="QN30" s="46"/>
-      <c r="QO30" s="46"/>
-      <c r="QP30" s="46"/>
-      <c r="QQ30" s="46"/>
-      <c r="QR30" s="46"/>
-      <c r="QS30" s="46"/>
-      <c r="QT30" s="46"/>
-      <c r="QU30" s="46"/>
-      <c r="QV30" s="46"/>
-      <c r="QW30" s="46"/>
-      <c r="QX30" s="46"/>
-      <c r="QY30" s="46"/>
-      <c r="QZ30" s="46"/>
-      <c r="RA30" s="46"/>
-      <c r="RB30" s="46"/>
-      <c r="RC30" s="46"/>
-      <c r="RD30" s="46"/>
-      <c r="RE30" s="46"/>
-      <c r="RF30" s="46"/>
-      <c r="RG30" s="46"/>
-      <c r="RH30" s="46"/>
-      <c r="RI30" s="46"/>
-      <c r="RJ30" s="46"/>
-      <c r="RK30" s="46"/>
-      <c r="RL30" s="46"/>
-      <c r="RM30" s="46"/>
-      <c r="RN30" s="46"/>
-      <c r="RO30" s="46"/>
-      <c r="RP30" s="46"/>
-      <c r="RQ30" s="46"/>
-      <c r="RR30" s="46"/>
-      <c r="RS30" s="46"/>
-      <c r="RT30" s="46"/>
-      <c r="RU30" s="46"/>
-      <c r="RV30" s="46"/>
-      <c r="RW30" s="46"/>
-      <c r="RX30" s="46"/>
-      <c r="RY30" s="46"/>
-      <c r="RZ30" s="46"/>
-      <c r="SA30" s="46"/>
-      <c r="SB30" s="46"/>
-      <c r="SC30" s="46"/>
-      <c r="SD30" s="46"/>
-      <c r="SE30" s="46"/>
-      <c r="SF30" s="46"/>
-      <c r="SG30" s="46"/>
-      <c r="SH30" s="46"/>
-      <c r="SI30" s="46"/>
-      <c r="SJ30" s="46"/>
-      <c r="SK30" s="46"/>
-      <c r="SL30" s="46"/>
-      <c r="SM30" s="46"/>
-      <c r="SN30" s="46"/>
-      <c r="SO30" s="46"/>
-      <c r="SP30" s="46"/>
-      <c r="SQ30" s="46"/>
-      <c r="SR30" s="46"/>
-      <c r="SS30" s="46"/>
-      <c r="ST30" s="46"/>
-      <c r="SU30" s="46"/>
-      <c r="SV30" s="46"/>
-      <c r="SW30" s="46"/>
-      <c r="SX30" s="46"/>
-      <c r="SY30" s="46"/>
-      <c r="SZ30" s="46"/>
-      <c r="TA30" s="46"/>
-      <c r="TB30" s="46"/>
-      <c r="TC30" s="46"/>
-      <c r="TD30" s="46"/>
-      <c r="TE30" s="46"/>
-      <c r="TF30" s="46"/>
-      <c r="TG30" s="46"/>
-      <c r="TH30" s="46"/>
-      <c r="TI30" s="46"/>
-      <c r="TJ30" s="46"/>
-      <c r="TK30" s="46"/>
-      <c r="TL30" s="46"/>
-      <c r="TM30" s="46"/>
-      <c r="TN30" s="46"/>
-      <c r="TO30" s="46"/>
-      <c r="TP30" s="46"/>
-      <c r="TQ30" s="46"/>
-      <c r="TR30" s="46"/>
-      <c r="TS30" s="46"/>
-      <c r="TT30" s="46"/>
-      <c r="TU30" s="46"/>
-      <c r="TV30" s="46"/>
-      <c r="TW30" s="46"/>
-      <c r="TX30" s="46"/>
-      <c r="TY30" s="46"/>
-      <c r="TZ30" s="46"/>
-      <c r="UA30" s="46"/>
-      <c r="UB30" s="46"/>
-      <c r="UC30" s="46"/>
-      <c r="UD30" s="46"/>
-      <c r="UE30" s="46"/>
-      <c r="UF30" s="46"/>
-      <c r="UG30" s="46"/>
-      <c r="UH30" s="46"/>
-      <c r="UI30" s="46"/>
-      <c r="UJ30" s="46"/>
-      <c r="UK30" s="46"/>
-      <c r="UL30" s="46"/>
-      <c r="UM30" s="46"/>
-      <c r="UN30" s="46"/>
-      <c r="UO30" s="46"/>
-      <c r="UP30" s="46"/>
-      <c r="UQ30" s="46"/>
-      <c r="UR30" s="46"/>
-      <c r="US30" s="46"/>
-      <c r="UT30" s="46"/>
-      <c r="UU30" s="46"/>
-      <c r="UV30" s="46"/>
-      <c r="UW30" s="46"/>
-      <c r="UX30" s="46"/>
-      <c r="UY30" s="46"/>
-      <c r="UZ30" s="46"/>
-      <c r="VA30" s="46"/>
-      <c r="VB30" s="46"/>
-      <c r="VC30" s="46"/>
-      <c r="VD30" s="46"/>
-      <c r="VE30" s="46"/>
-      <c r="VF30" s="46"/>
-      <c r="VG30" s="46"/>
-      <c r="VH30" s="46"/>
-      <c r="VI30" s="46"/>
-      <c r="VJ30" s="46"/>
-      <c r="VK30" s="46"/>
-      <c r="VL30" s="46"/>
-      <c r="VM30" s="46"/>
-      <c r="VN30" s="46"/>
-      <c r="VO30" s="46"/>
-      <c r="VP30" s="46"/>
-      <c r="VQ30" s="46"/>
-      <c r="VR30" s="46"/>
-      <c r="VS30" s="46"/>
-      <c r="VT30" s="46"/>
-      <c r="VU30" s="46"/>
-      <c r="VV30" s="46"/>
-      <c r="VW30" s="46"/>
-      <c r="VX30" s="46"/>
-      <c r="VY30" s="46"/>
-      <c r="VZ30" s="46"/>
-      <c r="WA30" s="46"/>
-      <c r="WB30" s="46"/>
-      <c r="WC30" s="46"/>
-      <c r="WD30" s="46"/>
-      <c r="WE30" s="46"/>
-      <c r="WF30" s="46"/>
-      <c r="WG30" s="46"/>
-      <c r="WH30" s="46"/>
-      <c r="WI30" s="46"/>
-      <c r="WJ30" s="46"/>
-      <c r="WK30" s="46"/>
-      <c r="WL30" s="46"/>
-      <c r="WM30" s="46"/>
-      <c r="WN30" s="46"/>
-      <c r="WO30" s="46"/>
-      <c r="WP30" s="46"/>
-      <c r="WQ30" s="46"/>
-      <c r="WR30" s="46"/>
-      <c r="WS30" s="46"/>
-      <c r="WT30" s="46"/>
-      <c r="WU30" s="46"/>
-      <c r="WV30" s="46"/>
-      <c r="WW30" s="46"/>
-      <c r="WX30" s="46"/>
-      <c r="WY30" s="46"/>
-      <c r="WZ30" s="46"/>
-      <c r="XA30" s="46"/>
-      <c r="XB30" s="46"/>
-      <c r="XC30" s="46"/>
-      <c r="XD30" s="46"/>
-      <c r="XE30" s="46"/>
-      <c r="XF30" s="46"/>
-      <c r="XG30" s="46"/>
-      <c r="XH30" s="46"/>
-      <c r="XI30" s="46"/>
-      <c r="XJ30" s="46"/>
-      <c r="XK30" s="46"/>
-      <c r="XL30" s="46"/>
-      <c r="XM30" s="46"/>
-      <c r="XN30" s="46"/>
-      <c r="XO30" s="46"/>
-      <c r="XP30" s="46"/>
-      <c r="XQ30" s="46"/>
-      <c r="XR30" s="46"/>
-      <c r="XS30" s="46"/>
-      <c r="XT30" s="46"/>
-      <c r="XU30" s="46"/>
-      <c r="XV30" s="46"/>
-      <c r="XW30" s="46"/>
-      <c r="XX30" s="46"/>
-      <c r="XY30" s="46"/>
-      <c r="XZ30" s="46"/>
-      <c r="YA30" s="46"/>
-      <c r="YB30" s="46"/>
-      <c r="YC30" s="46"/>
-      <c r="YD30" s="46"/>
-      <c r="YE30" s="46"/>
-      <c r="YF30" s="46"/>
-      <c r="YG30" s="46"/>
-      <c r="YH30" s="46"/>
-      <c r="YI30" s="46"/>
-      <c r="YJ30" s="46"/>
-      <c r="YK30" s="46"/>
-      <c r="YL30" s="46"/>
-      <c r="YM30" s="46"/>
-      <c r="YN30" s="46"/>
-      <c r="YO30" s="46"/>
-      <c r="YP30" s="46"/>
-      <c r="YQ30" s="46"/>
-      <c r="YR30" s="46"/>
-      <c r="YS30" s="46"/>
-      <c r="YT30" s="46"/>
-      <c r="YU30" s="46"/>
-      <c r="YV30" s="46"/>
-      <c r="YW30" s="46"/>
-      <c r="YX30" s="46"/>
-      <c r="YY30" s="46"/>
-      <c r="YZ30" s="46"/>
-      <c r="ZA30" s="46"/>
-      <c r="ZB30" s="46"/>
-      <c r="ZC30" s="46"/>
-      <c r="ZD30" s="46"/>
-      <c r="ZE30" s="46"/>
-      <c r="ZF30" s="46"/>
-      <c r="ZG30" s="46"/>
-      <c r="ZH30" s="46"/>
-      <c r="ZI30" s="46"/>
-      <c r="ZJ30" s="46"/>
-      <c r="ZK30" s="46"/>
-      <c r="ZL30" s="46"/>
-      <c r="ZM30" s="46"/>
-      <c r="ZN30" s="46"/>
-      <c r="ZO30" s="46"/>
-      <c r="ZP30" s="46"/>
-      <c r="ZQ30" s="46"/>
-      <c r="ZR30" s="46"/>
-      <c r="ZS30" s="46"/>
-      <c r="ZT30" s="46"/>
-      <c r="ZU30" s="46"/>
-      <c r="ZV30" s="46"/>
-      <c r="ZW30" s="46"/>
-      <c r="ZX30" s="46"/>
-      <c r="ZY30" s="46"/>
-      <c r="ZZ30" s="46"/>
-      <c r="AAA30" s="46"/>
-      <c r="AAB30" s="46"/>
-      <c r="AAC30" s="46"/>
-      <c r="AAD30" s="46"/>
-      <c r="AAE30" s="46"/>
-      <c r="AAF30" s="46"/>
-      <c r="AAG30" s="46"/>
-      <c r="AAH30" s="46"/>
-      <c r="AAI30" s="46"/>
-      <c r="AAJ30" s="46"/>
-      <c r="AAK30" s="46"/>
-      <c r="AAL30" s="46"/>
-      <c r="AAM30" s="46"/>
-      <c r="AAN30" s="46"/>
-      <c r="AAO30" s="46"/>
-      <c r="AAP30" s="46"/>
-      <c r="AAQ30" s="46"/>
-      <c r="AAR30" s="46"/>
-      <c r="AAS30" s="46"/>
-      <c r="AAT30" s="46"/>
-      <c r="AAU30" s="46"/>
-      <c r="AAV30" s="46"/>
-      <c r="AAW30" s="46"/>
-      <c r="AAX30" s="46"/>
-      <c r="AAY30" s="46"/>
-      <c r="AAZ30" s="46"/>
-      <c r="ABA30" s="46"/>
-      <c r="ABB30" s="46"/>
-      <c r="ABC30" s="46"/>
-      <c r="ABD30" s="46"/>
-      <c r="ABE30" s="46"/>
-      <c r="ABF30" s="46"/>
-      <c r="ABG30" s="46"/>
-      <c r="ABH30" s="46"/>
-      <c r="ABI30" s="46"/>
-      <c r="ABJ30" s="46"/>
-      <c r="ABK30" s="46"/>
-      <c r="ABL30" s="46"/>
-      <c r="ABM30" s="46"/>
-      <c r="ABN30" s="46"/>
-      <c r="ABO30" s="46"/>
-      <c r="ABP30" s="46"/>
-      <c r="ABQ30" s="46"/>
-      <c r="ABR30" s="46"/>
-      <c r="ABS30" s="46"/>
-      <c r="ABT30" s="46"/>
-      <c r="ABU30" s="46"/>
-      <c r="ABV30" s="46"/>
-      <c r="ABW30" s="46"/>
-      <c r="ABX30" s="46"/>
-      <c r="ABY30" s="46"/>
-      <c r="ABZ30" s="46"/>
-      <c r="ACA30" s="46"/>
-      <c r="ACB30" s="46"/>
-      <c r="ACC30" s="46"/>
-      <c r="ACD30" s="46"/>
-      <c r="ACE30" s="46"/>
-      <c r="ACF30" s="46"/>
-      <c r="ACG30" s="46"/>
-      <c r="ACH30" s="46"/>
-      <c r="ACI30" s="46"/>
-      <c r="ACJ30" s="46"/>
-      <c r="ACK30" s="46"/>
-      <c r="ACL30" s="46"/>
-      <c r="ACM30" s="46"/>
-      <c r="ACN30" s="46"/>
-      <c r="ACO30" s="46"/>
-      <c r="ACP30" s="46"/>
-      <c r="ACQ30" s="46"/>
-      <c r="ACR30" s="46"/>
-      <c r="ACS30" s="46"/>
-      <c r="ACT30" s="46"/>
-      <c r="ACU30" s="46"/>
-      <c r="ACV30" s="46"/>
-      <c r="ACW30" s="46"/>
-      <c r="ACX30" s="46"/>
-      <c r="ACY30" s="46"/>
-      <c r="ACZ30" s="46"/>
-      <c r="ADA30" s="46"/>
-      <c r="ADB30" s="46"/>
-      <c r="ADC30" s="46"/>
-      <c r="ADD30" s="46"/>
-      <c r="ADE30" s="46"/>
-      <c r="ADF30" s="46"/>
-      <c r="ADG30" s="46"/>
-      <c r="ADH30" s="46"/>
-      <c r="ADI30" s="46"/>
-      <c r="ADJ30" s="46"/>
-      <c r="ADK30" s="46"/>
-      <c r="ADL30" s="46"/>
-      <c r="ADM30" s="46"/>
-      <c r="ADN30" s="46"/>
-      <c r="ADO30" s="46"/>
-      <c r="ADP30" s="46"/>
-      <c r="ADQ30" s="46"/>
-      <c r="ADR30" s="46"/>
-      <c r="ADS30" s="46"/>
-      <c r="ADT30" s="46"/>
-      <c r="ADU30" s="46"/>
-      <c r="ADV30" s="46"/>
-      <c r="ADW30" s="46"/>
-      <c r="ADX30" s="46"/>
-      <c r="ADY30" s="46"/>
-      <c r="ADZ30" s="46"/>
-      <c r="AEA30" s="46"/>
-      <c r="AEB30" s="46"/>
-      <c r="AEC30" s="46"/>
-      <c r="AED30" s="46"/>
-      <c r="AEE30" s="46"/>
-      <c r="AEF30" s="46"/>
-      <c r="AEG30" s="46"/>
-      <c r="AEH30" s="46"/>
-      <c r="AEI30" s="46"/>
-      <c r="AEJ30" s="46"/>
-      <c r="AEK30" s="46"/>
-      <c r="AEL30" s="46"/>
-      <c r="AEM30" s="46"/>
-      <c r="AEN30" s="46"/>
-      <c r="AEO30" s="46"/>
-      <c r="AEP30" s="46"/>
-      <c r="AEQ30" s="46"/>
-      <c r="AER30" s="46"/>
-      <c r="AES30" s="46"/>
-      <c r="AET30" s="46"/>
-      <c r="AEU30" s="46"/>
-      <c r="AEV30" s="46"/>
-      <c r="AEW30" s="46"/>
-      <c r="AEX30" s="46"/>
-      <c r="AEY30" s="46"/>
-      <c r="AEZ30" s="46"/>
-      <c r="AFA30" s="46"/>
-      <c r="AFB30" s="46"/>
-      <c r="AFC30" s="46"/>
-      <c r="AFD30" s="46"/>
-      <c r="AFE30" s="46"/>
-      <c r="AFF30" s="46"/>
-      <c r="AFG30" s="46"/>
-      <c r="AFH30" s="46"/>
-      <c r="AFI30" s="46"/>
-      <c r="AFJ30" s="46"/>
-      <c r="AFK30" s="46"/>
-      <c r="AFL30" s="46"/>
-      <c r="AFM30" s="46"/>
-      <c r="AFN30" s="46"/>
-      <c r="AFO30" s="46"/>
-      <c r="AFP30" s="46"/>
-      <c r="AFQ30" s="46"/>
-      <c r="AFR30" s="46"/>
-      <c r="AFS30" s="46"/>
-      <c r="AFT30" s="46"/>
-      <c r="AFU30" s="46"/>
-      <c r="AFV30" s="46"/>
-      <c r="AFW30" s="46"/>
-      <c r="AFX30" s="46"/>
-      <c r="AFY30" s="46"/>
-      <c r="AFZ30" s="46"/>
-      <c r="AGA30" s="46"/>
-      <c r="AGB30" s="46"/>
-      <c r="AGC30" s="46"/>
-      <c r="AGD30" s="46"/>
-      <c r="AGE30" s="46"/>
-      <c r="AGF30" s="46"/>
-      <c r="AGG30" s="46"/>
-      <c r="AGH30" s="46"/>
-      <c r="AGI30" s="46"/>
-      <c r="AGJ30" s="46"/>
-      <c r="AGK30" s="46"/>
-      <c r="AGL30" s="46"/>
-      <c r="AGM30" s="46"/>
-      <c r="AGN30" s="46"/>
-      <c r="AGO30" s="46"/>
-      <c r="AGP30" s="46"/>
-      <c r="AGQ30" s="46"/>
-      <c r="AGR30" s="46"/>
-      <c r="AGS30" s="46"/>
-      <c r="AGT30" s="46"/>
-      <c r="AGU30" s="46"/>
-      <c r="AGV30" s="46"/>
-      <c r="AGW30" s="46"/>
-      <c r="AGX30" s="46"/>
-      <c r="AGY30" s="46"/>
-      <c r="AGZ30" s="46"/>
-      <c r="AHA30" s="46"/>
-      <c r="AHB30" s="46"/>
-      <c r="AHC30" s="46"/>
-      <c r="AHD30" s="46"/>
-      <c r="AHE30" s="46"/>
-      <c r="AHF30" s="46"/>
-      <c r="AHG30" s="46"/>
-      <c r="AHH30" s="46"/>
-      <c r="AHI30" s="46"/>
-      <c r="AHJ30" s="46"/>
-      <c r="AHK30" s="46"/>
-      <c r="AHL30" s="46"/>
-      <c r="AHM30" s="46"/>
-      <c r="AHN30" s="46"/>
-      <c r="AHO30" s="46"/>
-      <c r="AHP30" s="46"/>
-      <c r="AHQ30" s="46"/>
-      <c r="AHR30" s="46"/>
-      <c r="AHS30" s="46"/>
-      <c r="AHT30" s="46"/>
-      <c r="AHU30" s="46"/>
-      <c r="AHV30" s="46"/>
-      <c r="AHW30" s="46"/>
-      <c r="AHX30" s="46"/>
-      <c r="AHY30" s="46"/>
-      <c r="AHZ30" s="46"/>
-      <c r="AIA30" s="46"/>
-      <c r="AIB30" s="46"/>
-      <c r="AIC30" s="46"/>
-      <c r="AID30" s="46"/>
-      <c r="AIE30" s="46"/>
-      <c r="AIF30" s="46"/>
-      <c r="AIG30" s="46"/>
-      <c r="AIH30" s="46"/>
-      <c r="AII30" s="46"/>
-      <c r="AIJ30" s="46"/>
-      <c r="AIK30" s="46"/>
-      <c r="AIL30" s="46"/>
-      <c r="AIM30" s="46"/>
-      <c r="AIN30" s="46"/>
-      <c r="AIO30" s="46"/>
-      <c r="AIP30" s="46"/>
-      <c r="AIQ30" s="46"/>
-      <c r="AIR30" s="46"/>
-      <c r="AIS30" s="46"/>
-      <c r="AIT30" s="46"/>
-      <c r="AIU30" s="46"/>
-      <c r="AIV30" s="46"/>
-      <c r="AIW30" s="46"/>
-      <c r="AIX30" s="46"/>
-      <c r="AIY30" s="46"/>
-      <c r="AIZ30" s="46"/>
-      <c r="AJA30" s="46"/>
-      <c r="AJB30" s="46"/>
-      <c r="AJC30" s="46"/>
-      <c r="AJD30" s="46"/>
-      <c r="AJE30" s="46"/>
-      <c r="AJF30" s="46"/>
-      <c r="AJG30" s="46"/>
-      <c r="AJH30" s="46"/>
-      <c r="AJI30" s="46"/>
-      <c r="AJJ30" s="46"/>
-      <c r="AJK30" s="46"/>
-      <c r="AJL30" s="46"/>
-      <c r="AJM30" s="46"/>
-      <c r="AJN30" s="46"/>
-      <c r="AJO30" s="46"/>
-      <c r="AJP30" s="46"/>
-      <c r="AJQ30" s="46"/>
-      <c r="AJR30" s="46"/>
-      <c r="AJS30" s="46"/>
-      <c r="AJT30" s="46"/>
-      <c r="AJU30" s="46"/>
-      <c r="AJV30" s="46"/>
-      <c r="AJW30" s="46"/>
-      <c r="AJX30" s="46"/>
-      <c r="AJY30" s="46"/>
-      <c r="AJZ30" s="46"/>
-      <c r="AKA30" s="46"/>
-      <c r="AKB30" s="46"/>
-      <c r="AKC30" s="46"/>
-      <c r="AKD30" s="46"/>
-      <c r="AKE30" s="46"/>
-      <c r="AKF30" s="46"/>
-      <c r="AKG30" s="46"/>
-      <c r="AKH30" s="46"/>
-      <c r="AKI30" s="46"/>
-      <c r="AKJ30" s="46"/>
-      <c r="AKK30" s="46"/>
-      <c r="AKL30" s="46"/>
-      <c r="AKM30" s="46"/>
-      <c r="AKN30" s="46"/>
-      <c r="AKO30" s="46"/>
-      <c r="AKP30" s="46"/>
-      <c r="AKQ30" s="46"/>
-      <c r="AKR30" s="46"/>
-      <c r="AKS30" s="46"/>
-      <c r="AKT30" s="46"/>
-      <c r="AKU30" s="46"/>
-      <c r="AKV30" s="46"/>
-      <c r="AKW30" s="46"/>
-      <c r="AKX30" s="46"/>
-      <c r="AKY30" s="46"/>
-      <c r="AKZ30" s="46"/>
-      <c r="ALA30" s="46"/>
-      <c r="ALB30" s="46"/>
-      <c r="ALC30" s="46"/>
-      <c r="ALD30" s="46"/>
-      <c r="ALE30" s="46"/>
-      <c r="ALF30" s="46"/>
-      <c r="ALG30" s="46"/>
-      <c r="ALH30" s="46"/>
-      <c r="ALI30" s="46"/>
-      <c r="ALJ30" s="46"/>
-      <c r="ALK30" s="46"/>
-      <c r="ALL30" s="46"/>
-      <c r="ALM30" s="46"/>
-      <c r="ALN30" s="46"/>
-      <c r="ALO30" s="46"/>
-      <c r="ALP30" s="46"/>
-      <c r="ALQ30" s="46"/>
-      <c r="ALR30" s="46"/>
-      <c r="ALS30" s="46"/>
-      <c r="ALT30" s="46"/>
-      <c r="ALU30" s="46"/>
-      <c r="ALV30" s="46"/>
-      <c r="ALW30" s="46"/>
-      <c r="ALX30" s="46"/>
-      <c r="ALY30" s="46"/>
-      <c r="ALZ30" s="46"/>
-      <c r="AMA30" s="46"/>
-      <c r="AMB30" s="46"/>
-      <c r="AMC30" s="46"/>
-      <c r="AMD30" s="46"/>
-      <c r="AME30" s="46"/>
-      <c r="AMF30" s="46"/>
-      <c r="AMG30" s="46"/>
-      <c r="AMH30" s="46"/>
-      <c r="AMI30" s="46"/>
+        <v>0.75</v>
+      </c>
+      <c r="M37" s="46"/>
+    </row>
+    <row r="38" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="16">
+        <f>+SUM(D9:D37)</f>
+        <v>22.5</v>
+      </c>
+      <c r="E38" s="16">
+        <f>+SUM(E9:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
+        <f>+SUM(F9:F37)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G38" s="16">
+        <f>+SUM(G9:G37)</f>
+        <v>5</v>
+      </c>
+      <c r="H38" s="16">
+        <f>+SUM(H9:H37)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I38" s="16">
+        <f>+SUM(I9:I37)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="16">
+        <f>+SUM(J9:J37)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <f>+SUM(K9:K37)</f>
+        <v>3</v>
+      </c>
+      <c r="L38" s="21">
+        <f>+SUM(E38:K38)</f>
+        <v>16</v>
+      </c>
+      <c r="M38" s="46"/>
+    </row>
+    <row r="39" spans="1:1023" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="43"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="30"/>
+    </row>
+    <row r="40" spans="1:1023" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="46"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="46"/>
+      <c r="AK40" s="46"/>
+      <c r="AL40" s="46"/>
+      <c r="AM40" s="46"/>
+      <c r="AN40" s="46"/>
+      <c r="AO40" s="46"/>
+      <c r="AP40" s="46"/>
+      <c r="AQ40" s="46"/>
+      <c r="AR40" s="46"/>
+      <c r="AS40" s="46"/>
+      <c r="AT40" s="46"/>
+      <c r="AU40" s="46"/>
+      <c r="AV40" s="46"/>
+      <c r="AW40" s="46"/>
+      <c r="AX40" s="46"/>
+      <c r="AY40" s="46"/>
+      <c r="AZ40" s="46"/>
+      <c r="BA40" s="46"/>
+      <c r="BB40" s="46"/>
+      <c r="BC40" s="46"/>
+      <c r="BD40" s="46"/>
+      <c r="BE40" s="46"/>
+      <c r="BF40" s="46"/>
+      <c r="BG40" s="46"/>
+      <c r="BH40" s="46"/>
+      <c r="BI40" s="46"/>
+      <c r="BJ40" s="46"/>
+      <c r="BK40" s="46"/>
+      <c r="BL40" s="46"/>
+      <c r="BM40" s="46"/>
+      <c r="BN40" s="46"/>
+      <c r="BO40" s="46"/>
+      <c r="BP40" s="46"/>
+      <c r="BQ40" s="46"/>
+      <c r="BR40" s="46"/>
+      <c r="BS40" s="46"/>
+      <c r="BT40" s="46"/>
+      <c r="BU40" s="46"/>
+      <c r="BV40" s="46"/>
+      <c r="BW40" s="46"/>
+      <c r="BX40" s="46"/>
+      <c r="BY40" s="46"/>
+      <c r="BZ40" s="46"/>
+      <c r="CA40" s="46"/>
+      <c r="CB40" s="46"/>
+      <c r="CC40" s="46"/>
+      <c r="CD40" s="46"/>
+      <c r="CE40" s="46"/>
+      <c r="CF40" s="46"/>
+      <c r="CG40" s="46"/>
+      <c r="CH40" s="46"/>
+      <c r="CI40" s="46"/>
+      <c r="CJ40" s="46"/>
+      <c r="CK40" s="46"/>
+      <c r="CL40" s="46"/>
+      <c r="CM40" s="46"/>
+      <c r="CN40" s="46"/>
+      <c r="CO40" s="46"/>
+      <c r="CP40" s="46"/>
+      <c r="CQ40" s="46"/>
+      <c r="CR40" s="46"/>
+      <c r="CS40" s="46"/>
+      <c r="CT40" s="46"/>
+      <c r="CU40" s="46"/>
+      <c r="CV40" s="46"/>
+      <c r="CW40" s="46"/>
+      <c r="CX40" s="46"/>
+      <c r="CY40" s="46"/>
+      <c r="CZ40" s="46"/>
+      <c r="DA40" s="46"/>
+      <c r="DB40" s="46"/>
+      <c r="DC40" s="46"/>
+      <c r="DD40" s="46"/>
+      <c r="DE40" s="46"/>
+      <c r="DF40" s="46"/>
+      <c r="DG40" s="46"/>
+      <c r="DH40" s="46"/>
+      <c r="DI40" s="46"/>
+      <c r="DJ40" s="46"/>
+      <c r="DK40" s="46"/>
+      <c r="DL40" s="46"/>
+      <c r="DM40" s="46"/>
+      <c r="DN40" s="46"/>
+      <c r="DO40" s="46"/>
+      <c r="DP40" s="46"/>
+      <c r="DQ40" s="46"/>
+      <c r="DR40" s="46"/>
+      <c r="DS40" s="46"/>
+      <c r="DT40" s="46"/>
+      <c r="DU40" s="46"/>
+      <c r="DV40" s="46"/>
+      <c r="DW40" s="46"/>
+      <c r="DX40" s="46"/>
+      <c r="DY40" s="46"/>
+      <c r="DZ40" s="46"/>
+      <c r="EA40" s="46"/>
+      <c r="EB40" s="46"/>
+      <c r="EC40" s="46"/>
+      <c r="ED40" s="46"/>
+      <c r="EE40" s="46"/>
+      <c r="EF40" s="46"/>
+      <c r="EG40" s="46"/>
+      <c r="EH40" s="46"/>
+      <c r="EI40" s="46"/>
+      <c r="EJ40" s="46"/>
+      <c r="EK40" s="46"/>
+      <c r="EL40" s="46"/>
+      <c r="EM40" s="46"/>
+      <c r="EN40" s="46"/>
+      <c r="EO40" s="46"/>
+      <c r="EP40" s="46"/>
+      <c r="EQ40" s="46"/>
+      <c r="ER40" s="46"/>
+      <c r="ES40" s="46"/>
+      <c r="ET40" s="46"/>
+      <c r="EU40" s="46"/>
+      <c r="EV40" s="46"/>
+      <c r="EW40" s="46"/>
+      <c r="EX40" s="46"/>
+      <c r="EY40" s="46"/>
+      <c r="EZ40" s="46"/>
+      <c r="FA40" s="46"/>
+      <c r="FB40" s="46"/>
+      <c r="FC40" s="46"/>
+      <c r="FD40" s="46"/>
+      <c r="FE40" s="46"/>
+      <c r="FF40" s="46"/>
+      <c r="FG40" s="46"/>
+      <c r="FH40" s="46"/>
+      <c r="FI40" s="46"/>
+      <c r="FJ40" s="46"/>
+      <c r="FK40" s="46"/>
+      <c r="FL40" s="46"/>
+      <c r="FM40" s="46"/>
+      <c r="FN40" s="46"/>
+      <c r="FO40" s="46"/>
+      <c r="FP40" s="46"/>
+      <c r="FQ40" s="46"/>
+      <c r="FR40" s="46"/>
+      <c r="FS40" s="46"/>
+      <c r="FT40" s="46"/>
+      <c r="FU40" s="46"/>
+      <c r="FV40" s="46"/>
+      <c r="FW40" s="46"/>
+      <c r="FX40" s="46"/>
+      <c r="FY40" s="46"/>
+      <c r="FZ40" s="46"/>
+      <c r="GA40" s="46"/>
+      <c r="GB40" s="46"/>
+      <c r="GC40" s="46"/>
+      <c r="GD40" s="46"/>
+      <c r="GE40" s="46"/>
+      <c r="GF40" s="46"/>
+      <c r="GG40" s="46"/>
+      <c r="GH40" s="46"/>
+      <c r="GI40" s="46"/>
+      <c r="GJ40" s="46"/>
+      <c r="GK40" s="46"/>
+      <c r="GL40" s="46"/>
+      <c r="GM40" s="46"/>
+      <c r="GN40" s="46"/>
+      <c r="GO40" s="46"/>
+      <c r="GP40" s="46"/>
+      <c r="GQ40" s="46"/>
+      <c r="GR40" s="46"/>
+      <c r="GS40" s="46"/>
+      <c r="GT40" s="46"/>
+      <c r="GU40" s="46"/>
+      <c r="GV40" s="46"/>
+      <c r="GW40" s="46"/>
+      <c r="GX40" s="46"/>
+      <c r="GY40" s="46"/>
+      <c r="GZ40" s="46"/>
+      <c r="HA40" s="46"/>
+      <c r="HB40" s="46"/>
+      <c r="HC40" s="46"/>
+      <c r="HD40" s="46"/>
+      <c r="HE40" s="46"/>
+      <c r="HF40" s="46"/>
+      <c r="HG40" s="46"/>
+      <c r="HH40" s="46"/>
+      <c r="HI40" s="46"/>
+      <c r="HJ40" s="46"/>
+      <c r="HK40" s="46"/>
+      <c r="HL40" s="46"/>
+      <c r="HM40" s="46"/>
+      <c r="HN40" s="46"/>
+      <c r="HO40" s="46"/>
+      <c r="HP40" s="46"/>
+      <c r="HQ40" s="46"/>
+      <c r="HR40" s="46"/>
+      <c r="HS40" s="46"/>
+      <c r="HT40" s="46"/>
+      <c r="HU40" s="46"/>
+      <c r="HV40" s="46"/>
+      <c r="HW40" s="46"/>
+      <c r="HX40" s="46"/>
+      <c r="HY40" s="46"/>
+      <c r="HZ40" s="46"/>
+      <c r="IA40" s="46"/>
+      <c r="IB40" s="46"/>
+      <c r="IC40" s="46"/>
+      <c r="ID40" s="46"/>
+      <c r="IE40" s="46"/>
+      <c r="IF40" s="46"/>
+      <c r="IG40" s="46"/>
+      <c r="IH40" s="46"/>
+      <c r="II40" s="46"/>
+      <c r="IJ40" s="46"/>
+      <c r="IK40" s="46"/>
+      <c r="IL40" s="46"/>
+      <c r="IM40" s="46"/>
+      <c r="IN40" s="46"/>
+      <c r="IO40" s="46"/>
+      <c r="IP40" s="46"/>
+      <c r="IQ40" s="46"/>
+      <c r="IR40" s="46"/>
+      <c r="IS40" s="46"/>
+      <c r="IT40" s="46"/>
+      <c r="IU40" s="46"/>
+      <c r="IV40" s="46"/>
+      <c r="IW40" s="46"/>
+      <c r="IX40" s="46"/>
+      <c r="IY40" s="46"/>
+      <c r="IZ40" s="46"/>
+      <c r="JA40" s="46"/>
+      <c r="JB40" s="46"/>
+      <c r="JC40" s="46"/>
+      <c r="JD40" s="46"/>
+      <c r="JE40" s="46"/>
+      <c r="JF40" s="46"/>
+      <c r="JG40" s="46"/>
+      <c r="JH40" s="46"/>
+      <c r="JI40" s="46"/>
+      <c r="JJ40" s="46"/>
+      <c r="JK40" s="46"/>
+      <c r="JL40" s="46"/>
+      <c r="JM40" s="46"/>
+      <c r="JN40" s="46"/>
+      <c r="JO40" s="46"/>
+      <c r="JP40" s="46"/>
+      <c r="JQ40" s="46"/>
+      <c r="JR40" s="46"/>
+      <c r="JS40" s="46"/>
+      <c r="JT40" s="46"/>
+      <c r="JU40" s="46"/>
+      <c r="JV40" s="46"/>
+      <c r="JW40" s="46"/>
+      <c r="JX40" s="46"/>
+      <c r="JY40" s="46"/>
+      <c r="JZ40" s="46"/>
+      <c r="KA40" s="46"/>
+      <c r="KB40" s="46"/>
+      <c r="KC40" s="46"/>
+      <c r="KD40" s="46"/>
+      <c r="KE40" s="46"/>
+      <c r="KF40" s="46"/>
+      <c r="KG40" s="46"/>
+      <c r="KH40" s="46"/>
+      <c r="KI40" s="46"/>
+      <c r="KJ40" s="46"/>
+      <c r="KK40" s="46"/>
+      <c r="KL40" s="46"/>
+      <c r="KM40" s="46"/>
+      <c r="KN40" s="46"/>
+      <c r="KO40" s="46"/>
+      <c r="KP40" s="46"/>
+      <c r="KQ40" s="46"/>
+      <c r="KR40" s="46"/>
+      <c r="KS40" s="46"/>
+      <c r="KT40" s="46"/>
+      <c r="KU40" s="46"/>
+      <c r="KV40" s="46"/>
+      <c r="KW40" s="46"/>
+      <c r="KX40" s="46"/>
+      <c r="KY40" s="46"/>
+      <c r="KZ40" s="46"/>
+      <c r="LA40" s="46"/>
+      <c r="LB40" s="46"/>
+      <c r="LC40" s="46"/>
+      <c r="LD40" s="46"/>
+      <c r="LE40" s="46"/>
+      <c r="LF40" s="46"/>
+      <c r="LG40" s="46"/>
+      <c r="LH40" s="46"/>
+      <c r="LI40" s="46"/>
+      <c r="LJ40" s="46"/>
+      <c r="LK40" s="46"/>
+      <c r="LL40" s="46"/>
+      <c r="LM40" s="46"/>
+      <c r="LN40" s="46"/>
+      <c r="LO40" s="46"/>
+      <c r="LP40" s="46"/>
+      <c r="LQ40" s="46"/>
+      <c r="LR40" s="46"/>
+      <c r="LS40" s="46"/>
+      <c r="LT40" s="46"/>
+      <c r="LU40" s="46"/>
+      <c r="LV40" s="46"/>
+      <c r="LW40" s="46"/>
+      <c r="LX40" s="46"/>
+      <c r="LY40" s="46"/>
+      <c r="LZ40" s="46"/>
+      <c r="MA40" s="46"/>
+      <c r="MB40" s="46"/>
+      <c r="MC40" s="46"/>
+      <c r="MD40" s="46"/>
+      <c r="ME40" s="46"/>
+      <c r="MF40" s="46"/>
+      <c r="MG40" s="46"/>
+      <c r="MH40" s="46"/>
+      <c r="MI40" s="46"/>
+      <c r="MJ40" s="46"/>
+      <c r="MK40" s="46"/>
+      <c r="ML40" s="46"/>
+      <c r="MM40" s="46"/>
+      <c r="MN40" s="46"/>
+      <c r="MO40" s="46"/>
+      <c r="MP40" s="46"/>
+      <c r="MQ40" s="46"/>
+      <c r="MR40" s="46"/>
+      <c r="MS40" s="46"/>
+      <c r="MT40" s="46"/>
+      <c r="MU40" s="46"/>
+      <c r="MV40" s="46"/>
+      <c r="MW40" s="46"/>
+      <c r="MX40" s="46"/>
+      <c r="MY40" s="46"/>
+      <c r="MZ40" s="46"/>
+      <c r="NA40" s="46"/>
+      <c r="NB40" s="46"/>
+      <c r="NC40" s="46"/>
+      <c r="ND40" s="46"/>
+      <c r="NE40" s="46"/>
+      <c r="NF40" s="46"/>
+      <c r="NG40" s="46"/>
+      <c r="NH40" s="46"/>
+      <c r="NI40" s="46"/>
+      <c r="NJ40" s="46"/>
+      <c r="NK40" s="46"/>
+      <c r="NL40" s="46"/>
+      <c r="NM40" s="46"/>
+      <c r="NN40" s="46"/>
+      <c r="NO40" s="46"/>
+      <c r="NP40" s="46"/>
+      <c r="NQ40" s="46"/>
+      <c r="NR40" s="46"/>
+      <c r="NS40" s="46"/>
+      <c r="NT40" s="46"/>
+      <c r="NU40" s="46"/>
+      <c r="NV40" s="46"/>
+      <c r="NW40" s="46"/>
+      <c r="NX40" s="46"/>
+      <c r="NY40" s="46"/>
+      <c r="NZ40" s="46"/>
+      <c r="OA40" s="46"/>
+      <c r="OB40" s="46"/>
+      <c r="OC40" s="46"/>
+      <c r="OD40" s="46"/>
+      <c r="OE40" s="46"/>
+      <c r="OF40" s="46"/>
+      <c r="OG40" s="46"/>
+      <c r="OH40" s="46"/>
+      <c r="OI40" s="46"/>
+      <c r="OJ40" s="46"/>
+      <c r="OK40" s="46"/>
+      <c r="OL40" s="46"/>
+      <c r="OM40" s="46"/>
+      <c r="ON40" s="46"/>
+      <c r="OO40" s="46"/>
+      <c r="OP40" s="46"/>
+      <c r="OQ40" s="46"/>
+      <c r="OR40" s="46"/>
+      <c r="OS40" s="46"/>
+      <c r="OT40" s="46"/>
+      <c r="OU40" s="46"/>
+      <c r="OV40" s="46"/>
+      <c r="OW40" s="46"/>
+      <c r="OX40" s="46"/>
+      <c r="OY40" s="46"/>
+      <c r="OZ40" s="46"/>
+      <c r="PA40" s="46"/>
+      <c r="PB40" s="46"/>
+      <c r="PC40" s="46"/>
+      <c r="PD40" s="46"/>
+      <c r="PE40" s="46"/>
+      <c r="PF40" s="46"/>
+      <c r="PG40" s="46"/>
+      <c r="PH40" s="46"/>
+      <c r="PI40" s="46"/>
+      <c r="PJ40" s="46"/>
+      <c r="PK40" s="46"/>
+      <c r="PL40" s="46"/>
+      <c r="PM40" s="46"/>
+      <c r="PN40" s="46"/>
+      <c r="PO40" s="46"/>
+      <c r="PP40" s="46"/>
+      <c r="PQ40" s="46"/>
+      <c r="PR40" s="46"/>
+      <c r="PS40" s="46"/>
+      <c r="PT40" s="46"/>
+      <c r="PU40" s="46"/>
+      <c r="PV40" s="46"/>
+      <c r="PW40" s="46"/>
+      <c r="PX40" s="46"/>
+      <c r="PY40" s="46"/>
+      <c r="PZ40" s="46"/>
+      <c r="QA40" s="46"/>
+      <c r="QB40" s="46"/>
+      <c r="QC40" s="46"/>
+      <c r="QD40" s="46"/>
+      <c r="QE40" s="46"/>
+      <c r="QF40" s="46"/>
+      <c r="QG40" s="46"/>
+      <c r="QH40" s="46"/>
+      <c r="QI40" s="46"/>
+      <c r="QJ40" s="46"/>
+      <c r="QK40" s="46"/>
+      <c r="QL40" s="46"/>
+      <c r="QM40" s="46"/>
+      <c r="QN40" s="46"/>
+      <c r="QO40" s="46"/>
+      <c r="QP40" s="46"/>
+      <c r="QQ40" s="46"/>
+      <c r="QR40" s="46"/>
+      <c r="QS40" s="46"/>
+      <c r="QT40" s="46"/>
+      <c r="QU40" s="46"/>
+      <c r="QV40" s="46"/>
+      <c r="QW40" s="46"/>
+      <c r="QX40" s="46"/>
+      <c r="QY40" s="46"/>
+      <c r="QZ40" s="46"/>
+      <c r="RA40" s="46"/>
+      <c r="RB40" s="46"/>
+      <c r="RC40" s="46"/>
+      <c r="RD40" s="46"/>
+      <c r="RE40" s="46"/>
+      <c r="RF40" s="46"/>
+      <c r="RG40" s="46"/>
+      <c r="RH40" s="46"/>
+      <c r="RI40" s="46"/>
+      <c r="RJ40" s="46"/>
+      <c r="RK40" s="46"/>
+      <c r="RL40" s="46"/>
+      <c r="RM40" s="46"/>
+      <c r="RN40" s="46"/>
+      <c r="RO40" s="46"/>
+      <c r="RP40" s="46"/>
+      <c r="RQ40" s="46"/>
+      <c r="RR40" s="46"/>
+      <c r="RS40" s="46"/>
+      <c r="RT40" s="46"/>
+      <c r="RU40" s="46"/>
+      <c r="RV40" s="46"/>
+      <c r="RW40" s="46"/>
+      <c r="RX40" s="46"/>
+      <c r="RY40" s="46"/>
+      <c r="RZ40" s="46"/>
+      <c r="SA40" s="46"/>
+      <c r="SB40" s="46"/>
+      <c r="SC40" s="46"/>
+      <c r="SD40" s="46"/>
+      <c r="SE40" s="46"/>
+      <c r="SF40" s="46"/>
+      <c r="SG40" s="46"/>
+      <c r="SH40" s="46"/>
+      <c r="SI40" s="46"/>
+      <c r="SJ40" s="46"/>
+      <c r="SK40" s="46"/>
+      <c r="SL40" s="46"/>
+      <c r="SM40" s="46"/>
+      <c r="SN40" s="46"/>
+      <c r="SO40" s="46"/>
+      <c r="SP40" s="46"/>
+      <c r="SQ40" s="46"/>
+      <c r="SR40" s="46"/>
+      <c r="SS40" s="46"/>
+      <c r="ST40" s="46"/>
+      <c r="SU40" s="46"/>
+      <c r="SV40" s="46"/>
+      <c r="SW40" s="46"/>
+      <c r="SX40" s="46"/>
+      <c r="SY40" s="46"/>
+      <c r="SZ40" s="46"/>
+      <c r="TA40" s="46"/>
+      <c r="TB40" s="46"/>
+      <c r="TC40" s="46"/>
+      <c r="TD40" s="46"/>
+      <c r="TE40" s="46"/>
+      <c r="TF40" s="46"/>
+      <c r="TG40" s="46"/>
+      <c r="TH40" s="46"/>
+      <c r="TI40" s="46"/>
+      <c r="TJ40" s="46"/>
+      <c r="TK40" s="46"/>
+      <c r="TL40" s="46"/>
+      <c r="TM40" s="46"/>
+      <c r="TN40" s="46"/>
+      <c r="TO40" s="46"/>
+      <c r="TP40" s="46"/>
+      <c r="TQ40" s="46"/>
+      <c r="TR40" s="46"/>
+      <c r="TS40" s="46"/>
+      <c r="TT40" s="46"/>
+      <c r="TU40" s="46"/>
+      <c r="TV40" s="46"/>
+      <c r="TW40" s="46"/>
+      <c r="TX40" s="46"/>
+      <c r="TY40" s="46"/>
+      <c r="TZ40" s="46"/>
+      <c r="UA40" s="46"/>
+      <c r="UB40" s="46"/>
+      <c r="UC40" s="46"/>
+      <c r="UD40" s="46"/>
+      <c r="UE40" s="46"/>
+      <c r="UF40" s="46"/>
+      <c r="UG40" s="46"/>
+      <c r="UH40" s="46"/>
+      <c r="UI40" s="46"/>
+      <c r="UJ40" s="46"/>
+      <c r="UK40" s="46"/>
+      <c r="UL40" s="46"/>
+      <c r="UM40" s="46"/>
+      <c r="UN40" s="46"/>
+      <c r="UO40" s="46"/>
+      <c r="UP40" s="46"/>
+      <c r="UQ40" s="46"/>
+      <c r="UR40" s="46"/>
+      <c r="US40" s="46"/>
+      <c r="UT40" s="46"/>
+      <c r="UU40" s="46"/>
+      <c r="UV40" s="46"/>
+      <c r="UW40" s="46"/>
+      <c r="UX40" s="46"/>
+      <c r="UY40" s="46"/>
+      <c r="UZ40" s="46"/>
+      <c r="VA40" s="46"/>
+      <c r="VB40" s="46"/>
+      <c r="VC40" s="46"/>
+      <c r="VD40" s="46"/>
+      <c r="VE40" s="46"/>
+      <c r="VF40" s="46"/>
+      <c r="VG40" s="46"/>
+      <c r="VH40" s="46"/>
+      <c r="VI40" s="46"/>
+      <c r="VJ40" s="46"/>
+      <c r="VK40" s="46"/>
+      <c r="VL40" s="46"/>
+      <c r="VM40" s="46"/>
+      <c r="VN40" s="46"/>
+      <c r="VO40" s="46"/>
+      <c r="VP40" s="46"/>
+      <c r="VQ40" s="46"/>
+      <c r="VR40" s="46"/>
+      <c r="VS40" s="46"/>
+      <c r="VT40" s="46"/>
+      <c r="VU40" s="46"/>
+      <c r="VV40" s="46"/>
+      <c r="VW40" s="46"/>
+      <c r="VX40" s="46"/>
+      <c r="VY40" s="46"/>
+      <c r="VZ40" s="46"/>
+      <c r="WA40" s="46"/>
+      <c r="WB40" s="46"/>
+      <c r="WC40" s="46"/>
+      <c r="WD40" s="46"/>
+      <c r="WE40" s="46"/>
+      <c r="WF40" s="46"/>
+      <c r="WG40" s="46"/>
+      <c r="WH40" s="46"/>
+      <c r="WI40" s="46"/>
+      <c r="WJ40" s="46"/>
+      <c r="WK40" s="46"/>
+      <c r="WL40" s="46"/>
+      <c r="WM40" s="46"/>
+      <c r="WN40" s="46"/>
+      <c r="WO40" s="46"/>
+      <c r="WP40" s="46"/>
+      <c r="WQ40" s="46"/>
+      <c r="WR40" s="46"/>
+      <c r="WS40" s="46"/>
+      <c r="WT40" s="46"/>
+      <c r="WU40" s="46"/>
+      <c r="WV40" s="46"/>
+      <c r="WW40" s="46"/>
+      <c r="WX40" s="46"/>
+      <c r="WY40" s="46"/>
+      <c r="WZ40" s="46"/>
+      <c r="XA40" s="46"/>
+      <c r="XB40" s="46"/>
+      <c r="XC40" s="46"/>
+      <c r="XD40" s="46"/>
+      <c r="XE40" s="46"/>
+      <c r="XF40" s="46"/>
+      <c r="XG40" s="46"/>
+      <c r="XH40" s="46"/>
+      <c r="XI40" s="46"/>
+      <c r="XJ40" s="46"/>
+      <c r="XK40" s="46"/>
+      <c r="XL40" s="46"/>
+      <c r="XM40" s="46"/>
+      <c r="XN40" s="46"/>
+      <c r="XO40" s="46"/>
+      <c r="XP40" s="46"/>
+      <c r="XQ40" s="46"/>
+      <c r="XR40" s="46"/>
+      <c r="XS40" s="46"/>
+      <c r="XT40" s="46"/>
+      <c r="XU40" s="46"/>
+      <c r="XV40" s="46"/>
+      <c r="XW40" s="46"/>
+      <c r="XX40" s="46"/>
+      <c r="XY40" s="46"/>
+      <c r="XZ40" s="46"/>
+      <c r="YA40" s="46"/>
+      <c r="YB40" s="46"/>
+      <c r="YC40" s="46"/>
+      <c r="YD40" s="46"/>
+      <c r="YE40" s="46"/>
+      <c r="YF40" s="46"/>
+      <c r="YG40" s="46"/>
+      <c r="YH40" s="46"/>
+      <c r="YI40" s="46"/>
+      <c r="YJ40" s="46"/>
+      <c r="YK40" s="46"/>
+      <c r="YL40" s="46"/>
+      <c r="YM40" s="46"/>
+      <c r="YN40" s="46"/>
+      <c r="YO40" s="46"/>
+      <c r="YP40" s="46"/>
+      <c r="YQ40" s="46"/>
+      <c r="YR40" s="46"/>
+      <c r="YS40" s="46"/>
+      <c r="YT40" s="46"/>
+      <c r="YU40" s="46"/>
+      <c r="YV40" s="46"/>
+      <c r="YW40" s="46"/>
+      <c r="YX40" s="46"/>
+      <c r="YY40" s="46"/>
+      <c r="YZ40" s="46"/>
+      <c r="ZA40" s="46"/>
+      <c r="ZB40" s="46"/>
+      <c r="ZC40" s="46"/>
+      <c r="ZD40" s="46"/>
+      <c r="ZE40" s="46"/>
+      <c r="ZF40" s="46"/>
+      <c r="ZG40" s="46"/>
+      <c r="ZH40" s="46"/>
+      <c r="ZI40" s="46"/>
+      <c r="ZJ40" s="46"/>
+      <c r="ZK40" s="46"/>
+      <c r="ZL40" s="46"/>
+      <c r="ZM40" s="46"/>
+      <c r="ZN40" s="46"/>
+      <c r="ZO40" s="46"/>
+      <c r="ZP40" s="46"/>
+      <c r="ZQ40" s="46"/>
+      <c r="ZR40" s="46"/>
+      <c r="ZS40" s="46"/>
+      <c r="ZT40" s="46"/>
+      <c r="ZU40" s="46"/>
+      <c r="ZV40" s="46"/>
+      <c r="ZW40" s="46"/>
+      <c r="ZX40" s="46"/>
+      <c r="ZY40" s="46"/>
+      <c r="ZZ40" s="46"/>
+      <c r="AAA40" s="46"/>
+      <c r="AAB40" s="46"/>
+      <c r="AAC40" s="46"/>
+      <c r="AAD40" s="46"/>
+      <c r="AAE40" s="46"/>
+      <c r="AAF40" s="46"/>
+      <c r="AAG40" s="46"/>
+      <c r="AAH40" s="46"/>
+      <c r="AAI40" s="46"/>
+      <c r="AAJ40" s="46"/>
+      <c r="AAK40" s="46"/>
+      <c r="AAL40" s="46"/>
+      <c r="AAM40" s="46"/>
+      <c r="AAN40" s="46"/>
+      <c r="AAO40" s="46"/>
+      <c r="AAP40" s="46"/>
+      <c r="AAQ40" s="46"/>
+      <c r="AAR40" s="46"/>
+      <c r="AAS40" s="46"/>
+      <c r="AAT40" s="46"/>
+      <c r="AAU40" s="46"/>
+      <c r="AAV40" s="46"/>
+      <c r="AAW40" s="46"/>
+      <c r="AAX40" s="46"/>
+      <c r="AAY40" s="46"/>
+      <c r="AAZ40" s="46"/>
+      <c r="ABA40" s="46"/>
+      <c r="ABB40" s="46"/>
+      <c r="ABC40" s="46"/>
+      <c r="ABD40" s="46"/>
+      <c r="ABE40" s="46"/>
+      <c r="ABF40" s="46"/>
+      <c r="ABG40" s="46"/>
+      <c r="ABH40" s="46"/>
+      <c r="ABI40" s="46"/>
+      <c r="ABJ40" s="46"/>
+      <c r="ABK40" s="46"/>
+      <c r="ABL40" s="46"/>
+      <c r="ABM40" s="46"/>
+      <c r="ABN40" s="46"/>
+      <c r="ABO40" s="46"/>
+      <c r="ABP40" s="46"/>
+      <c r="ABQ40" s="46"/>
+      <c r="ABR40" s="46"/>
+      <c r="ABS40" s="46"/>
+      <c r="ABT40" s="46"/>
+      <c r="ABU40" s="46"/>
+      <c r="ABV40" s="46"/>
+      <c r="ABW40" s="46"/>
+      <c r="ABX40" s="46"/>
+      <c r="ABY40" s="46"/>
+      <c r="ABZ40" s="46"/>
+      <c r="ACA40" s="46"/>
+      <c r="ACB40" s="46"/>
+      <c r="ACC40" s="46"/>
+      <c r="ACD40" s="46"/>
+      <c r="ACE40" s="46"/>
+      <c r="ACF40" s="46"/>
+      <c r="ACG40" s="46"/>
+      <c r="ACH40" s="46"/>
+      <c r="ACI40" s="46"/>
+      <c r="ACJ40" s="46"/>
+      <c r="ACK40" s="46"/>
+      <c r="ACL40" s="46"/>
+      <c r="ACM40" s="46"/>
+      <c r="ACN40" s="46"/>
+      <c r="ACO40" s="46"/>
+      <c r="ACP40" s="46"/>
+      <c r="ACQ40" s="46"/>
+      <c r="ACR40" s="46"/>
+      <c r="ACS40" s="46"/>
+      <c r="ACT40" s="46"/>
+      <c r="ACU40" s="46"/>
+      <c r="ACV40" s="46"/>
+      <c r="ACW40" s="46"/>
+      <c r="ACX40" s="46"/>
+      <c r="ACY40" s="46"/>
+      <c r="ACZ40" s="46"/>
+      <c r="ADA40" s="46"/>
+      <c r="ADB40" s="46"/>
+      <c r="ADC40" s="46"/>
+      <c r="ADD40" s="46"/>
+      <c r="ADE40" s="46"/>
+      <c r="ADF40" s="46"/>
+      <c r="ADG40" s="46"/>
+      <c r="ADH40" s="46"/>
+      <c r="ADI40" s="46"/>
+      <c r="ADJ40" s="46"/>
+      <c r="ADK40" s="46"/>
+      <c r="ADL40" s="46"/>
+      <c r="ADM40" s="46"/>
+      <c r="ADN40" s="46"/>
+      <c r="ADO40" s="46"/>
+      <c r="ADP40" s="46"/>
+      <c r="ADQ40" s="46"/>
+      <c r="ADR40" s="46"/>
+      <c r="ADS40" s="46"/>
+      <c r="ADT40" s="46"/>
+      <c r="ADU40" s="46"/>
+      <c r="ADV40" s="46"/>
+      <c r="ADW40" s="46"/>
+      <c r="ADX40" s="46"/>
+      <c r="ADY40" s="46"/>
+      <c r="ADZ40" s="46"/>
+      <c r="AEA40" s="46"/>
+      <c r="AEB40" s="46"/>
+      <c r="AEC40" s="46"/>
+      <c r="AED40" s="46"/>
+      <c r="AEE40" s="46"/>
+      <c r="AEF40" s="46"/>
+      <c r="AEG40" s="46"/>
+      <c r="AEH40" s="46"/>
+      <c r="AEI40" s="46"/>
+      <c r="AEJ40" s="46"/>
+      <c r="AEK40" s="46"/>
+      <c r="AEL40" s="46"/>
+      <c r="AEM40" s="46"/>
+      <c r="AEN40" s="46"/>
+      <c r="AEO40" s="46"/>
+      <c r="AEP40" s="46"/>
+      <c r="AEQ40" s="46"/>
+      <c r="AER40" s="46"/>
+      <c r="AES40" s="46"/>
+      <c r="AET40" s="46"/>
+      <c r="AEU40" s="46"/>
+      <c r="AEV40" s="46"/>
+      <c r="AEW40" s="46"/>
+      <c r="AEX40" s="46"/>
+      <c r="AEY40" s="46"/>
+      <c r="AEZ40" s="46"/>
+      <c r="AFA40" s="46"/>
+      <c r="AFB40" s="46"/>
+      <c r="AFC40" s="46"/>
+      <c r="AFD40" s="46"/>
+      <c r="AFE40" s="46"/>
+      <c r="AFF40" s="46"/>
+      <c r="AFG40" s="46"/>
+      <c r="AFH40" s="46"/>
+      <c r="AFI40" s="46"/>
+      <c r="AFJ40" s="46"/>
+      <c r="AFK40" s="46"/>
+      <c r="AFL40" s="46"/>
+      <c r="AFM40" s="46"/>
+      <c r="AFN40" s="46"/>
+      <c r="AFO40" s="46"/>
+      <c r="AFP40" s="46"/>
+      <c r="AFQ40" s="46"/>
+      <c r="AFR40" s="46"/>
+      <c r="AFS40" s="46"/>
+      <c r="AFT40" s="46"/>
+      <c r="AFU40" s="46"/>
+      <c r="AFV40" s="46"/>
+      <c r="AFW40" s="46"/>
+      <c r="AFX40" s="46"/>
+      <c r="AFY40" s="46"/>
+      <c r="AFZ40" s="46"/>
+      <c r="AGA40" s="46"/>
+      <c r="AGB40" s="46"/>
+      <c r="AGC40" s="46"/>
+      <c r="AGD40" s="46"/>
+      <c r="AGE40" s="46"/>
+      <c r="AGF40" s="46"/>
+      <c r="AGG40" s="46"/>
+      <c r="AGH40" s="46"/>
+      <c r="AGI40" s="46"/>
+      <c r="AGJ40" s="46"/>
+      <c r="AGK40" s="46"/>
+      <c r="AGL40" s="46"/>
+      <c r="AGM40" s="46"/>
+      <c r="AGN40" s="46"/>
+      <c r="AGO40" s="46"/>
+      <c r="AGP40" s="46"/>
+      <c r="AGQ40" s="46"/>
+      <c r="AGR40" s="46"/>
+      <c r="AGS40" s="46"/>
+      <c r="AGT40" s="46"/>
+      <c r="AGU40" s="46"/>
+      <c r="AGV40" s="46"/>
+      <c r="AGW40" s="46"/>
+      <c r="AGX40" s="46"/>
+      <c r="AGY40" s="46"/>
+      <c r="AGZ40" s="46"/>
+      <c r="AHA40" s="46"/>
+      <c r="AHB40" s="46"/>
+      <c r="AHC40" s="46"/>
+      <c r="AHD40" s="46"/>
+      <c r="AHE40" s="46"/>
+      <c r="AHF40" s="46"/>
+      <c r="AHG40" s="46"/>
+      <c r="AHH40" s="46"/>
+      <c r="AHI40" s="46"/>
+      <c r="AHJ40" s="46"/>
+      <c r="AHK40" s="46"/>
+      <c r="AHL40" s="46"/>
+      <c r="AHM40" s="46"/>
+      <c r="AHN40" s="46"/>
+      <c r="AHO40" s="46"/>
+      <c r="AHP40" s="46"/>
+      <c r="AHQ40" s="46"/>
+      <c r="AHR40" s="46"/>
+      <c r="AHS40" s="46"/>
+      <c r="AHT40" s="46"/>
+      <c r="AHU40" s="46"/>
+      <c r="AHV40" s="46"/>
+      <c r="AHW40" s="46"/>
+      <c r="AHX40" s="46"/>
+      <c r="AHY40" s="46"/>
+      <c r="AHZ40" s="46"/>
+      <c r="AIA40" s="46"/>
+      <c r="AIB40" s="46"/>
+      <c r="AIC40" s="46"/>
+      <c r="AID40" s="46"/>
+      <c r="AIE40" s="46"/>
+      <c r="AIF40" s="46"/>
+      <c r="AIG40" s="46"/>
+      <c r="AIH40" s="46"/>
+      <c r="AII40" s="46"/>
+      <c r="AIJ40" s="46"/>
+      <c r="AIK40" s="46"/>
+      <c r="AIL40" s="46"/>
+      <c r="AIM40" s="46"/>
+      <c r="AIN40" s="46"/>
+      <c r="AIO40" s="46"/>
+      <c r="AIP40" s="46"/>
+      <c r="AIQ40" s="46"/>
+      <c r="AIR40" s="46"/>
+      <c r="AIS40" s="46"/>
+      <c r="AIT40" s="46"/>
+      <c r="AIU40" s="46"/>
+      <c r="AIV40" s="46"/>
+      <c r="AIW40" s="46"/>
+      <c r="AIX40" s="46"/>
+      <c r="AIY40" s="46"/>
+      <c r="AIZ40" s="46"/>
+      <c r="AJA40" s="46"/>
+      <c r="AJB40" s="46"/>
+      <c r="AJC40" s="46"/>
+      <c r="AJD40" s="46"/>
+      <c r="AJE40" s="46"/>
+      <c r="AJF40" s="46"/>
+      <c r="AJG40" s="46"/>
+      <c r="AJH40" s="46"/>
+      <c r="AJI40" s="46"/>
+      <c r="AJJ40" s="46"/>
+      <c r="AJK40" s="46"/>
+      <c r="AJL40" s="46"/>
+      <c r="AJM40" s="46"/>
+      <c r="AJN40" s="46"/>
+      <c r="AJO40" s="46"/>
+      <c r="AJP40" s="46"/>
+      <c r="AJQ40" s="46"/>
+      <c r="AJR40" s="46"/>
+      <c r="AJS40" s="46"/>
+      <c r="AJT40" s="46"/>
+      <c r="AJU40" s="46"/>
+      <c r="AJV40" s="46"/>
+      <c r="AJW40" s="46"/>
+      <c r="AJX40" s="46"/>
+      <c r="AJY40" s="46"/>
+      <c r="AJZ40" s="46"/>
+      <c r="AKA40" s="46"/>
+      <c r="AKB40" s="46"/>
+      <c r="AKC40" s="46"/>
+      <c r="AKD40" s="46"/>
+      <c r="AKE40" s="46"/>
+      <c r="AKF40" s="46"/>
+      <c r="AKG40" s="46"/>
+      <c r="AKH40" s="46"/>
+      <c r="AKI40" s="46"/>
+      <c r="AKJ40" s="46"/>
+      <c r="AKK40" s="46"/>
+      <c r="AKL40" s="46"/>
+      <c r="AKM40" s="46"/>
+      <c r="AKN40" s="46"/>
+      <c r="AKO40" s="46"/>
+      <c r="AKP40" s="46"/>
+      <c r="AKQ40" s="46"/>
+      <c r="AKR40" s="46"/>
+      <c r="AKS40" s="46"/>
+      <c r="AKT40" s="46"/>
+      <c r="AKU40" s="46"/>
+      <c r="AKV40" s="46"/>
+      <c r="AKW40" s="46"/>
+      <c r="AKX40" s="46"/>
+      <c r="AKY40" s="46"/>
+      <c r="AKZ40" s="46"/>
+      <c r="ALA40" s="46"/>
+      <c r="ALB40" s="46"/>
+      <c r="ALC40" s="46"/>
+      <c r="ALD40" s="46"/>
+      <c r="ALE40" s="46"/>
+      <c r="ALF40" s="46"/>
+      <c r="ALG40" s="46"/>
+      <c r="ALH40" s="46"/>
+      <c r="ALI40" s="46"/>
+      <c r="ALJ40" s="46"/>
+      <c r="ALK40" s="46"/>
+      <c r="ALL40" s="46"/>
+      <c r="ALM40" s="46"/>
+      <c r="ALN40" s="46"/>
+      <c r="ALO40" s="46"/>
+      <c r="ALP40" s="46"/>
+      <c r="ALQ40" s="46"/>
+      <c r="ALR40" s="46"/>
+      <c r="ALS40" s="46"/>
+      <c r="ALT40" s="46"/>
+      <c r="ALU40" s="46"/>
+      <c r="ALV40" s="46"/>
+      <c r="ALW40" s="46"/>
+      <c r="ALX40" s="46"/>
+      <c r="ALY40" s="46"/>
+      <c r="ALZ40" s="46"/>
+      <c r="AMA40" s="46"/>
+      <c r="AMB40" s="46"/>
+      <c r="AMC40" s="46"/>
+      <c r="AMD40" s="46"/>
+      <c r="AME40" s="46"/>
+      <c r="AMF40" s="46"/>
+      <c r="AMG40" s="46"/>
+      <c r="AMH40" s="46"/>
+      <c r="AMI40" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6973,10 +7194,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI28"/>
+  <dimension ref="A1:AMI37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6997,14 +7218,14 @@
         <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -7015,20 +7236,20 @@
       <c r="L2" s="28"/>
       <c r="M2" s="46"/>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+    <row r="3" spans="2:13" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7039,31 +7260,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="B5" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -7126,103 +7347,141 @@
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="50"/>
+        <v>196</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="L10" s="13">
+        <f t="shared" ref="L9:L20" si="0">+SUM(E10:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="49" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="D11" s="12"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="50"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="49" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="D12" s="12"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="50"/>
+      <c r="M12" s="63"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="12">
-        <v>8</v>
-      </c>
-      <c r="L13" s="13">
-        <f>+SUM(E13:K13)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="50"/>
+        <v>182</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="13">
-        <f>+SUM(E14:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="50"/>
+        <v>197</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="49"/>
+      <c r="C15" s="49" t="s">
+        <v>198</v>
+      </c>
       <c r="D15" s="12"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="50"/>
+      <c r="M15" s="63"/>
     </row>
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="B16" s="11"/>
       <c r="C16" s="49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D16" s="12"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="50"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="12">
-        <v>4</v>
-      </c>
-      <c r="L17" s="13">
-        <f>+SUM(E17:K17)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="50"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="49" t="s">
-        <v>74</v>
+      <c r="B18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>71</v>
       </c>
       <c r="D18" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L18" s="13">
-        <f>+SUM(E18:K18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="50"/>
@@ -7230,20 +7489,17 @@
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="13">
-        <f>+SUM(E19:K19)</f>
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="50"/>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="49" t="s">
+        <v>72</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="L20" s="13"/>
       <c r="M20" s="50"/>
@@ -7251,139 +7507,222 @@
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="12">
-        <v>5</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="13">
-        <f t="shared" ref="L20:L21" si="0">+SUM(E21:K21)</f>
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="50"/>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-      <c r="C22" s="49"/>
+      <c r="C22" s="49" t="s">
+        <v>79</v>
+      </c>
       <c r="D22" s="12"/>
       <c r="L22" s="13"/>
       <c r="M22" s="50"/>
     </row>
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="50"/>
+    </row>
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="12">
+        <v>6</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" ref="L23:L25" si="1">+SUM(E24:K24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="66"/>
+    </row>
+    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="50"/>
+    </row>
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="50"/>
+    </row>
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="50"/>
+    </row>
+    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="50"/>
+    </row>
+    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="50"/>
+    </row>
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="12">
+        <v>5</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="13">
+        <f t="shared" ref="L30" si="2">+SUM(E30:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="50"/>
+    </row>
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="50"/>
+    </row>
+    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D32" s="12">
+        <v>2</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" ref="L32:L34" si="3">+SUM(E32:K32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="50"/>
+    </row>
+    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="12">
         <v>1</v>
       </c>
-      <c r="L23" s="13">
-        <f t="shared" ref="L10:L25" si="1">+SUM(E23:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="50"/>
-    </row>
-    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="12">
-        <v>2</v>
-      </c>
-      <c r="L24" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="50"/>
-    </row>
-    <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="35" t="s">
+      <c r="L33" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="50"/>
+    </row>
+    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="12">
-        <v>2</v>
-      </c>
-      <c r="L25" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="46"/>
-    </row>
-    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="16">
-        <f>+SUM(D8:D25)</f>
-        <v>28.5</v>
-      </c>
-      <c r="E26" s="16">
-        <f t="shared" ref="E26:K26" si="2">+SUM(E8:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="21">
-        <f>+SUM(L8:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="46"/>
-    </row>
-    <row r="27" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="43"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="43"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="30"/>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="46"/>
+    </row>
+    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="16">
+        <f>+SUM(D8:D34)</f>
+        <v>24.5</v>
+      </c>
+      <c r="E35" s="16">
+        <f t="shared" ref="E35:K35" si="4">+SUM(E8:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="21">
+        <f>+SUM(L8:L34)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="46"/>
+    </row>
+    <row r="36" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="43"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="30"/>
+    </row>
+    <row r="37" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="43"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TotalTid" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="257">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -718,6 +718,199 @@
       <t xml:space="preserve"> En html-kod att använda för css-manipulation som är så genomtänkt jag kan i ett första steg. Till denna ska finnas en default-cssmall att använda i kommande steg. Att kunna ta bort en sparad mall ska också vara möjligt efter iterationen.</t>
     </r>
   </si>
+  <si>
+    <t>Tillagt under sprinten. Insåg att det kan vara bra för man lär inte komma ihåg namnen på sina mallar</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Grundstruktur-komposition av sida</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Presentation av funktionalitet- Vilka val ska vara möjliga vid vilka tillfällen?</t>
+  </si>
+  <si>
+    <t>Läser, ritar, testar</t>
+  </si>
+  <si>
+    <t>Föreläsning gränssnitt</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>Felmeddelanden vid öppna o ta bort mall. Måste mallnamn och mallen måste finnas.</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Färgval - "grundsida"</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Användarvänlighet</t>
+  </si>
+  <si>
+    <t>Test scenario 4.1 - 4-8 Grundfunktionalitet i BK4 (Firebaselagring)</t>
+  </si>
+  <si>
+    <t>4.1-4.8</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>Se till att meddelanden avseende in-och utloggning ligger i anslutning till inloggning</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>Inte kunna spara mall med samma namn som en som redan finns</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>BK2.2 Byta layout</t>
+  </si>
+  <si>
+    <t>Scenario: Välja layouter</t>
+  </si>
+  <si>
+    <t>Givet att experimenteditor är laddad</t>
+  </si>
+  <si>
+    <t>Så kan användaren välja mellan några olika layouter</t>
+  </si>
+  <si>
+    <r>
+      <t>Scenario: B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2E74B5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF2E74B5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>ta layout</t>
+    </r>
+  </si>
+  <si>
+    <t>När användaren väljer en layout</t>
+  </si>
+  <si>
+    <t>Så visas css-koden till den valda layouten</t>
+  </si>
+  <si>
+    <t>Och css-koden till den valda layouten appliceras på html-koden</t>
+  </si>
+  <si>
+    <t>Och visas som resultat</t>
+  </si>
+  <si>
+    <t>Presentation av funktionalitet- Vilka val ska vara möjliga vid vilka tillfällen? Var ska de ligga i sidan?</t>
+  </si>
+  <si>
+    <t>2.2a</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.2b</t>
+  </si>
+  <si>
+    <t>Tänk igenom funktionerna visa, öppna och ta bort mall. Bättre o snyggare struktur.</t>
+  </si>
+  <si>
+    <t>Färgval /estetisk utformning- "grundsida"</t>
+  </si>
+  <si>
+    <t>BK2 Valbara css-mallar</t>
+  </si>
+  <si>
+    <t>BK2.1 Byta färgtema</t>
+  </si>
+  <si>
+    <t>Scenario: Välja färgtema</t>
+  </si>
+  <si>
+    <t>Så kan användaren välja mellan några olika färgteman</t>
+  </si>
+  <si>
+    <t>Scenario: Byta färgtema</t>
+  </si>
+  <si>
+    <t>När användaren väljer ett färgtema</t>
+  </si>
+  <si>
+    <t>Så visas css-koden till den valda mallen</t>
+  </si>
+  <si>
+    <t>Och css-koden till den valda mallen appliceras på html-koden</t>
+  </si>
+  <si>
+    <t>2.1a</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.1b</t>
+  </si>
+  <si>
+    <t>1d, 1e</t>
+  </si>
+  <si>
+    <t>Skriv testfall för 1d och 1e</t>
+  </si>
+  <si>
+    <r>
+      <t>Analys av föregående iteration:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Html-mall finns och delvis en default css-mall. Att ta bort en mall fungerar också. Inte tidigare inplanerat var utveckling av gränssnittet som kom in istället för jQuery-kurser då workshop i gränssnittsutveckling innebar utformning av gränssnitt för diskussion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mål: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Testa grundfunktionalitet i Firebase samt BK2 med möjlighet att välja css-mall och layout. Ett par extra av var siktar jag på. Ska dessutom gå vidare med idéer om gränssnittskomponenter mm från workshopen.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -726,7 +919,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$kr-41D];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$kr-41D]"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +1032,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E74B5"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF2E74B5"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -854,7 +1070,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -957,6 +1173,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -969,7 +1205,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1095,11 +1331,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -1387,7 +1636,7 @@
   <dimension ref="A1:AMI3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1433,8 +1682,8 @@
       </c>
       <c r="H2" s="4"/>
       <c r="L2" s="28">
-        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L35+'Sprint 6'!L14+'Sprint 7'!L14</f>
-        <v>141</v>
+        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L58+'Sprint 7'!L14</f>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1445,7 +1694,7 @@
       </c>
       <c r="L3" s="28">
         <f>+L1-L2</f>
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1460,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI15"/>
+  <dimension ref="A1:AMI59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1485,14 +1734,14 @@
         <v>25</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -1504,20 +1753,20 @@
       <c r="L2" s="28"/>
       <c r="M2" s="46"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1527,32 +1776,32 @@
       <c r="L4" s="6"/>
       <c r="M4" s="46"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -1611,114 +1860,859 @@
       <c r="C9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>1.5</v>
+      </c>
       <c r="L9" s="13">
-        <f t="shared" ref="L9:L14" si="0">+SUM(E9:K9)</f>
+        <f t="shared" ref="L9" si="0">+SUM(E9:K9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="46"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
-      <c r="C10" s="35" t="s">
-        <v>16</v>
-      </c>
+      <c r="C10" s="49"/>
       <c r="D10" s="12"/>
-      <c r="L10" s="13">
-        <f t="shared" si="0"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="72"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="72"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="72"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="69"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="72"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="72"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="72"/>
+    </row>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="72"/>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="72"/>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="72"/>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="72"/>
+    </row>
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="74"/>
+      <c r="C21" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="72"/>
+    </row>
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="74"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="72"/>
+    </row>
+    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="72"/>
+    </row>
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="72"/>
+    </row>
+    <row r="25" spans="2:13" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="72"/>
+    </row>
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="72"/>
+    </row>
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="72"/>
+    </row>
+    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="72"/>
+    </row>
+    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="72"/>
+    </row>
+    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="72"/>
+    </row>
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="72"/>
+    </row>
+    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="12">
+        <v>4</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="72"/>
+    </row>
+    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="72"/>
+    </row>
+    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+      <c r="C34" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="72"/>
+    </row>
+    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="72"/>
+    </row>
+    <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="72"/>
+    </row>
+    <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="72"/>
+    </row>
+    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="72"/>
+    </row>
+    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="72"/>
+    </row>
+    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="72"/>
+    </row>
+    <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="72"/>
+    </row>
+    <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="72"/>
+    </row>
+    <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="72"/>
+    </row>
+    <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="72"/>
+    </row>
+    <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="72"/>
+    </row>
+    <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="12">
+        <v>4</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="72"/>
+    </row>
+    <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="72"/>
+    </row>
+    <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="72"/>
+    </row>
+    <row r="49" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="72"/>
+    </row>
+    <row r="50" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="11"/>
+      <c r="C50" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="72"/>
+    </row>
+    <row r="51" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="72"/>
+    </row>
+    <row r="52" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+      <c r="C52" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="72"/>
+    </row>
+    <row r="53" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="72"/>
+    </row>
+    <row r="54" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="12"/>
+      <c r="L54" s="13">
+        <f t="shared" ref="L54:L58" si="1">+SUM(E54:K54)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="L12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="L13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="16">
-        <f t="shared" ref="D14:K14" si="1">+SUM(D9:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="M54" s="46"/>
+    </row>
+    <row r="55" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="12">
+        <v>2</v>
+      </c>
+      <c r="L55" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15">
+      <c r="M55" s="46"/>
+    </row>
+    <row r="56" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+      <c r="L56" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="15">
+      <c r="M56" s="46"/>
+    </row>
+    <row r="57" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="11"/>
+      <c r="C57" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="12">
+        <v>1</v>
+      </c>
+      <c r="L57" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M57" s="46"/>
+    </row>
+    <row r="58" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="14"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="16">
+        <f>+SUM(D8:D57)</f>
+        <v>32</v>
+      </c>
+      <c r="E58" s="15">
+        <f>+SUM(E54:E57)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="15">
+        <f>+SUM(F54:F57)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="15">
+        <f>+SUM(G54:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="15">
+        <f>+SUM(H54:H57)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="15">
+        <f>+SUM(I54:I57)</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="15">
+        <f>+SUM(J54:J57)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="15">
+        <f>+SUM(K54:K57)</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="46"/>
-    </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="30"/>
+      <c r="M58" s="46"/>
+    </row>
+    <row r="59" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="43"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1763,14 +2757,14 @@
         <v>25</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="28"/>
       <c r="M1" s="55"/>
     </row>
@@ -1783,19 +2777,19 @@
       <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1806,31 +2800,31 @@
       <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
       <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
       <c r="L6" s="28"/>
       <c r="M6" s="55"/>
     </row>
@@ -2041,14 +3035,14 @@
         <v>26</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -2057,19 +3051,19 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -2078,29 +3072,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -2701,14 +3695,14 @@
         <v>4</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,19 +3712,19 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -2739,19 +3733,19 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
     </row>
     <row r="6" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
@@ -2938,14 +3932,14 @@
         <v>14</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="3"/>
       <c r="M1" s="46"/>
     </row>
@@ -2957,19 +3951,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2980,32 +3974,32 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46"/>
     </row>
@@ -3272,15 +4266,15 @@
         <v>19</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
       <c r="M1" s="28"/>
       <c r="N1" s="46"/>
     </row>
@@ -3293,20 +4287,20 @@
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3318,33 +4312,33 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
       <c r="M6" s="28"/>
       <c r="N6" s="46"/>
     </row>
@@ -4061,7 +5055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
@@ -4083,14 +5077,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -4102,19 +5096,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4125,31 +5119,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -4866,14 +5860,14 @@
         <v>22</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="28"/>
       <c r="M2" s="32"/>
     </row>
@@ -4885,19 +5879,19 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4908,31 +5902,31 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
       <c r="L7" s="28"/>
       <c r="M7" s="32"/>
     </row>
@@ -5476,7 +6470,7 @@
   <dimension ref="A1:AMI40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5497,14 +6491,14 @@
         <v>24</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -5516,19 +6510,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5539,31 +6533,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -5667,7 +6661,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="13">
-        <f t="shared" ref="L10:L23" si="0">+SUM(E11:K11)</f>
+        <f t="shared" ref="L11:L19" si="0">+SUM(E11:K11)</f>
         <v>1</v>
       </c>
       <c r="M11" s="60"/>
@@ -5920,7 +6914,7 @@
         <v>0.25</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" ref="L20:L37" si="1">+SUM(E26:K26)</f>
+        <f t="shared" ref="L26:L37" si="1">+SUM(E26:K26)</f>
         <v>0.25</v>
       </c>
       <c r="M26" s="63"/>
@@ -5959,7 +6953,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M28" s="63"/>
+      <c r="M28" s="63" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
@@ -6102,35 +7098,35 @@
       <c r="B38" s="14"/>
       <c r="C38" s="42"/>
       <c r="D38" s="16">
-        <f>+SUM(D9:D37)</f>
+        <f t="shared" ref="D38:K38" si="2">+SUM(D9:D37)</f>
         <v>22.5</v>
       </c>
       <c r="E38" s="16">
-        <f>+SUM(E9:E37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F38" s="16">
-        <f>+SUM(F9:F37)</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="G38" s="16">
-        <f>+SUM(G9:G37)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H38" s="16">
-        <f>+SUM(H9:H37)</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="I38" s="16">
-        <f>+SUM(I9:I37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38" s="16">
-        <f>+SUM(J9:J37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <f>+SUM(K9:K37)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L38" s="21">
@@ -7194,10 +8190,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI37"/>
+  <dimension ref="A1:AMI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7218,14 +8214,14 @@
         <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -7237,19 +8233,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7260,31 +8256,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -7332,9 +8328,12 @@
       <c r="D8" s="12">
         <v>1.5</v>
       </c>
+      <c r="F8" s="1">
+        <v>0.75</v>
+      </c>
       <c r="L8" s="13">
         <f>+SUM(E8:K8)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M8" s="50"/>
     </row>
@@ -7355,15 +8354,12 @@
       <c r="D10" s="12">
         <v>2</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="F10" s="1">
+        <v>2.75</v>
+      </c>
       <c r="L10" s="13">
-        <f t="shared" ref="L9:L20" si="0">+SUM(E10:K10)</f>
-        <v>0</v>
+        <f t="shared" ref="L10:L18" si="0">+SUM(E10:K10)</f>
+        <v>2.75</v>
       </c>
       <c r="M10" s="63"/>
     </row>
@@ -7373,12 +8369,6 @@
         <v>180</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
       <c r="L11" s="13"/>
       <c r="M11" s="63"/>
     </row>
@@ -7388,12 +8378,6 @@
         <v>181</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
       <c r="L12" s="13"/>
       <c r="M12" s="63"/>
     </row>
@@ -7403,12 +8387,6 @@
         <v>182</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
       <c r="L13" s="13"/>
       <c r="M13" s="63"/>
     </row>
@@ -7418,12 +8396,6 @@
         <v>197</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
       <c r="L14" s="13"/>
       <c r="M14" s="63"/>
     </row>
@@ -7433,12 +8405,6 @@
         <v>198</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
       <c r="L15" s="13"/>
       <c r="M15" s="63"/>
     </row>
@@ -7448,12 +8414,6 @@
         <v>79</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
       <c r="L16" s="13"/>
       <c r="M16" s="66"/>
     </row>
@@ -7461,12 +8421,6 @@
       <c r="B17" s="11"/>
       <c r="C17" s="49"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
       <c r="L17" s="13"/>
       <c r="M17" s="66"/>
     </row>
@@ -7480,9 +8434,12 @@
       <c r="D18" s="12">
         <v>6</v>
       </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
       <c r="L18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="50"/>
     </row>
@@ -7539,13 +8496,17 @@
       <c r="D24" s="12">
         <v>6</v>
       </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
       <c r="L24" s="13">
-        <f t="shared" ref="L23:L25" si="1">+SUM(E24:K24)</f>
-        <v>0</v>
+        <f t="shared" ref="L24" si="1">+SUM(E24:K24)</f>
+        <v>2</v>
       </c>
       <c r="M24" s="66"/>
     </row>
     <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="69"/>
       <c r="C25" s="49" t="s">
         <v>76</v>
       </c>
@@ -7581,148 +8542,262 @@
       <c r="M28" s="50"/>
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="49"/>
       <c r="D29" s="12"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="50"/>
+      <c r="M29" s="67"/>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="49" t="s">
+      <c r="B30" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="F30" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="13">
+        <f t="shared" ref="L30:L33" si="2">+SUM(E30:K30)</f>
+        <v>8.5</v>
+      </c>
+      <c r="M30" s="67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M31" s="67"/>
+    </row>
+    <row r="32" spans="2:13" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="L33" s="13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M33" s="50"/>
+    </row>
+    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="68"/>
+    </row>
+    <row r="35" spans="2:13" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B35" s="74"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="12"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="68"/>
+    </row>
+    <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="69"/>
+      <c r="C36" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D36" s="12">
         <v>5</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="13">
-        <f t="shared" ref="L30" si="2">+SUM(E30:K30)</f>
+      <c r="L36" s="13">
+        <f t="shared" ref="L36" si="3">+SUM(E36:K36)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="50"/>
-    </row>
-    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="50"/>
-    </row>
-    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="35" t="s">
+      <c r="M36" s="50"/>
+    </row>
+    <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="12"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="50"/>
+    </row>
+    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D38" s="12">
         <v>2</v>
       </c>
-      <c r="L32" s="13">
-        <f t="shared" ref="L32:L34" si="3">+SUM(E32:K32)</f>
+      <c r="H38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="13">
+        <f t="shared" ref="L38:L40" si="4">+SUM(E38:K38)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M38" s="50"/>
+    </row>
+    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M39" s="50"/>
+    </row>
+    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
+      <c r="C40" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L40" s="13">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="M40" s="46"/>
+    </row>
+    <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="16">
+        <f>+SUM(D8:D40)</f>
+        <v>24.5</v>
+      </c>
+      <c r="E41" s="16">
+        <f t="shared" ref="E41:K41" si="5">+SUM(E8:E40)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="50"/>
-    </row>
-    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="L33" s="13">
-        <f t="shared" si="3"/>
+      <c r="F41" s="16">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G41" s="16">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M33" s="50"/>
-    </row>
-    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="12">
-        <v>1</v>
-      </c>
-      <c r="L34" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="46"/>
-    </row>
-    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="16">
-        <f>+SUM(D8:D34)</f>
-        <v>24.5</v>
-      </c>
-      <c r="E35" s="16">
-        <f t="shared" ref="E35:K35" si="4">+SUM(E8:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="21">
-        <f>+SUM(L8:L34)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="46"/>
-    </row>
-    <row r="36" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="43"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="30"/>
-    </row>
-    <row r="37" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="43"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="30"/>
+      <c r="K41" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L41" s="71">
+        <f>+SUM(E41:K41)</f>
+        <v>27</v>
+      </c>
+      <c r="M41" s="46"/>
+    </row>
+    <row r="42" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="43"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="30"/>
+    </row>
+    <row r="43" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="259">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -910,6 +910,12 @@
       </rPr>
       <t>Testa grundfunktionalitet i Firebase samt BK2 med möjlighet att välja css-mall och layout. Ett par extra av var siktar jag på. Ska dessutom gå vidare med idéer om gränssnittskomponenter mm från workshopen.</t>
     </r>
+  </si>
+  <si>
+    <t>Logga- groda</t>
+  </si>
+  <si>
+    <t>Sprint 6 (Construction): 26 maj – 1 maj</t>
   </si>
 </sst>
 </file>
@@ -1341,14 +1347,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -1683,7 +1689,7 @@
       <c r="H2" s="4"/>
       <c r="L2" s="28">
         <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L58+'Sprint 7'!L14</f>
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1694,7 +1700,7 @@
       </c>
       <c r="L3" s="28">
         <f>+L1-L2</f>
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1711,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1734,14 +1740,14 @@
         <v>25</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -1754,19 +1760,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1777,31 +1783,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -1845,13 +1851,6 @@
       <c r="B8" s="11"/>
       <c r="C8" s="33"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
       <c r="L8" s="13"/>
       <c r="M8" s="46"/>
     </row>
@@ -1864,7 +1863,7 @@
         <v>1.5</v>
       </c>
       <c r="L9" s="13">
-        <f t="shared" ref="L9" si="0">+SUM(E9:K9)</f>
+        <f t="shared" ref="L9:L57" si="0">+SUM(E9:K9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="72"/>
@@ -1873,13 +1872,6 @@
       <c r="B10" s="11"/>
       <c r="C10" s="49"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
       <c r="L10" s="13"/>
       <c r="M10" s="72"/>
     </row>
@@ -1893,27 +1885,16 @@
       <c r="D11" s="12">
         <v>4</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="13"/>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="49"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
       <c r="L12" s="13"/>
       <c r="M12" s="72"/>
     </row>
@@ -1927,27 +1908,16 @@
       <c r="D13" s="12">
         <v>0.5</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="13"/>
+      <c r="L13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M13" s="72"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="69"/>
       <c r="C14" s="49"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
       <c r="L14" s="13"/>
       <c r="M14" s="72"/>
     </row>
@@ -1961,14 +1931,10 @@
       <c r="D15" s="12">
         <v>2</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="13"/>
+      <c r="L15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M15" s="72"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1981,14 +1947,10 @@
       <c r="D16" s="12">
         <v>2</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="13"/>
+      <c r="L16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M16" s="72"/>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2001,15 +1963,16 @@
       <c r="D17" s="12">
         <v>2</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="72"/>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M17" s="72" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="74" t="s">
@@ -2021,14 +1984,10 @@
       <c r="D18" s="12">
         <v>1</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="13"/>
+      <c r="L18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M18" s="72"/>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2041,14 +2000,10 @@
       <c r="D19" s="12">
         <v>1</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="13"/>
+      <c r="L19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M19" s="72"/>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2061,14 +2016,10 @@
       <c r="D20" s="12">
         <v>2</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="13"/>
+      <c r="L20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M20" s="72"/>
     </row>
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2077,27 +2028,16 @@
         <v>79</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="13"/>
+      <c r="L21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M21" s="72"/>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="74"/>
       <c r="C22" s="49"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
       <c r="L22" s="13"/>
       <c r="M22" s="72"/>
     </row>
@@ -2111,44 +2051,29 @@
       <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="13"/>
+      <c r="L23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M23" s="72"/>
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="13"/>
+      <c r="L24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M24" s="72"/>
     </row>
     <row r="25" spans="2:13" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="75" t="s">
         <v>242</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
       <c r="L25" s="13"/>
       <c r="M25" s="72"/>
     </row>
@@ -2158,13 +2083,6 @@
         <v>243</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
       <c r="L26" s="13"/>
       <c r="M26" s="72"/>
     </row>
@@ -2178,14 +2096,10 @@
       <c r="D27" s="12">
         <v>1</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="13"/>
+      <c r="L27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M27" s="72"/>
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2194,13 +2108,6 @@
         <v>229</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
       <c r="L28" s="13"/>
       <c r="M28" s="72"/>
     </row>
@@ -2210,13 +2117,6 @@
         <v>245</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
       <c r="L29" s="13"/>
       <c r="M29" s="72"/>
     </row>
@@ -2226,26 +2126,12 @@
         <v>79</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
       <c r="L30" s="13"/>
       <c r="M30" s="72"/>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
       <c r="L31" s="13"/>
       <c r="M31" s="72"/>
     </row>
@@ -2259,14 +2145,10 @@
       <c r="D32" s="12">
         <v>4</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="13"/>
+      <c r="L32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M32" s="72"/>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2275,13 +2157,6 @@
         <v>81</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
       <c r="L33" s="13"/>
       <c r="M33" s="72"/>
     </row>
@@ -2291,13 +2166,9 @@
         <v>247</v>
       </c>
       <c r="D34" s="12"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
       <c r="L34" s="13"/>
       <c r="M34" s="72"/>
     </row>
@@ -2307,13 +2178,6 @@
         <v>248</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
       <c r="L35" s="13"/>
       <c r="M35" s="72"/>
     </row>
@@ -2323,13 +2187,6 @@
         <v>249</v>
       </c>
       <c r="D36" s="12"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
       <c r="L36" s="13"/>
       <c r="M36" s="72"/>
     </row>
@@ -2339,13 +2196,6 @@
         <v>235</v>
       </c>
       <c r="D37" s="12"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
       <c r="L37" s="13"/>
       <c r="M37" s="72"/>
     </row>
@@ -2355,13 +2205,6 @@
         <v>79</v>
       </c>
       <c r="D38" s="12"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
       <c r="L38" s="13"/>
       <c r="M38" s="72"/>
     </row>
@@ -2369,13 +2212,6 @@
       <c r="B39" s="11"/>
       <c r="C39" s="49"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
       <c r="L39" s="13"/>
       <c r="M39" s="72"/>
     </row>
@@ -2387,13 +2223,6 @@
         <v>227</v>
       </c>
       <c r="D40" s="12"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
       <c r="L40" s="13"/>
       <c r="M40" s="72"/>
     </row>
@@ -2407,14 +2236,10 @@
       <c r="D41" s="12">
         <v>1</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="13"/>
+      <c r="L41" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M41" s="72"/>
     </row>
     <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2423,13 +2248,6 @@
         <v>229</v>
       </c>
       <c r="D42" s="12"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
       <c r="L42" s="13"/>
       <c r="M42" s="72"/>
     </row>
@@ -2439,13 +2257,6 @@
         <v>230</v>
       </c>
       <c r="D43" s="12"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
       <c r="L43" s="13"/>
       <c r="M43" s="72"/>
     </row>
@@ -2455,26 +2266,12 @@
         <v>79</v>
       </c>
       <c r="D44" s="12"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
       <c r="L44" s="13"/>
       <c r="M44" s="72"/>
     </row>
     <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
       <c r="L45" s="13"/>
       <c r="M45" s="72"/>
     </row>
@@ -2488,14 +2285,10 @@
       <c r="D46" s="12">
         <v>4</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="13"/>
+      <c r="L46" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M46" s="72"/>
     </row>
     <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2504,13 +2297,6 @@
         <v>81</v>
       </c>
       <c r="D47" s="12"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
       <c r="L47" s="13"/>
       <c r="M47" s="72"/>
     </row>
@@ -2520,13 +2306,6 @@
         <v>232</v>
       </c>
       <c r="D48" s="12"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
       <c r="L48" s="13"/>
       <c r="M48" s="72"/>
     </row>
@@ -2536,13 +2315,6 @@
         <v>233</v>
       </c>
       <c r="D49" s="12"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
       <c r="L49" s="13"/>
       <c r="M49" s="72"/>
     </row>
@@ -2552,13 +2324,6 @@
         <v>234</v>
       </c>
       <c r="D50" s="12"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
       <c r="L50" s="13"/>
       <c r="M50" s="72"/>
     </row>
@@ -2568,13 +2333,6 @@
         <v>235</v>
       </c>
       <c r="D51" s="12"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
       <c r="L51" s="13"/>
       <c r="M51" s="72"/>
     </row>
@@ -2584,13 +2342,6 @@
         <v>79</v>
       </c>
       <c r="D52" s="12"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
       <c r="L52" s="13"/>
       <c r="M52" s="72"/>
     </row>
@@ -2598,13 +2349,6 @@
       <c r="B53" s="11"/>
       <c r="C53" s="33"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
       <c r="L53" s="13"/>
       <c r="M53" s="72"/>
     </row>
@@ -2612,10 +2356,7 @@
       <c r="B54" s="11"/>
       <c r="C54" s="35"/>
       <c r="D54" s="12"/>
-      <c r="L54" s="13">
-        <f t="shared" ref="L54:L58" si="1">+SUM(E54:K54)</f>
-        <v>0</v>
-      </c>
+      <c r="L54" s="13"/>
       <c r="M54" s="46"/>
     </row>
     <row r="55" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2627,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="L55" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M55" s="46"/>
@@ -2641,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M56" s="46"/>
@@ -2655,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M57" s="46"/>
@@ -2668,36 +2409,36 @@
         <v>32</v>
       </c>
       <c r="E58" s="15">
-        <f>+SUM(E54:E57)</f>
-        <v>0</v>
+        <f>+SUM(E8:E57)</f>
+        <v>3</v>
       </c>
       <c r="F58" s="15">
-        <f>+SUM(F54:F57)</f>
-        <v>0</v>
+        <f t="shared" ref="F58:K58" si="1">+SUM(F8:F57)</f>
+        <v>2</v>
       </c>
       <c r="G58" s="15">
-        <f>+SUM(G54:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="15">
-        <f>+SUM(H54:H57)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="15">
-        <f>+SUM(I54:I57)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="15">
-        <f>+SUM(J54:J57)</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="15">
-        <f>+SUM(K54:K57)</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="H58" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="21">
+        <f t="shared" ref="L54:L58" si="2">+SUM(E58:K58)</f>
+        <v>5</v>
       </c>
       <c r="M58" s="46"/>
     </row>
@@ -2735,7 +2476,7 @@
   <dimension ref="A1:AMI15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2754,17 +2495,17 @@
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="28"/>
       <c r="M1" s="55"/>
     </row>
@@ -2777,19 +2518,19 @@
       <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2800,31 +2541,31 @@
       <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="28"/>
       <c r="M6" s="55"/>
     </row>
@@ -3035,14 +2776,14 @@
         <v>26</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -3051,19 +2792,19 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -3072,29 +2813,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -3695,14 +3436,14 @@
         <v>4</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3712,19 +3453,19 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -3733,19 +3474,19 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
@@ -3932,14 +3673,14 @@
         <v>14</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="3"/>
       <c r="M1" s="46"/>
     </row>
@@ -3951,19 +3692,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3974,32 +3715,32 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46"/>
     </row>
@@ -4266,15 +4007,15 @@
         <v>19</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
       <c r="M1" s="28"/>
       <c r="N1" s="46"/>
     </row>
@@ -4287,20 +4028,20 @@
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4312,33 +4053,33 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
       <c r="M6" s="28"/>
       <c r="N6" s="46"/>
     </row>
@@ -5077,14 +4818,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -5096,19 +4837,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5119,31 +4860,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -5860,14 +5601,14 @@
         <v>22</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
       <c r="L2" s="28"/>
       <c r="M2" s="32"/>
     </row>
@@ -5879,19 +5620,19 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5902,31 +5643,31 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="28"/>
       <c r="M7" s="32"/>
     </row>
@@ -6491,14 +6232,14 @@
         <v>24</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -6510,19 +6251,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6533,31 +6274,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -8192,7 +7933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -8214,14 +7955,14 @@
         <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -8233,19 +7974,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8256,31 +7997,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>

--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TotalTid" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="269">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -771,9 +771,6 @@
   </si>
   <si>
     <t>4.11</t>
-  </si>
-  <si>
-    <t>Inte kunna spara mall med samma namn som en som redan finns</t>
   </si>
   <si>
     <t>4.9</t>
@@ -917,6 +914,39 @@
   <si>
     <t>Sprint 6 (Construction): 26 maj – 1 maj</t>
   </si>
+  <si>
+    <t>När användare väljer att spara en mall med ett namn som redan finns visas ett meddelande som meddelar att en mall med namnet existerar och en fråga om han vill ersätta den.</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>Inte kunna ha lösenord '' (tomt fält)</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>Ta bort tidigare felmeddelanden när en ny mall öppnats</t>
+  </si>
+  <si>
+    <t>Efter test har följande två krav lyfts in som högre prioriterade än 4.9 och 4.11</t>
+  </si>
+  <si>
+    <t>"Reservlista" Vill gärna hinna med så de får stå kvar här i reserv!</t>
+  </si>
+  <si>
+    <t>Fick ändra i många funktioner…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ändringar med anledning av 7.2 </t>
+  </si>
+  <si>
+    <t>Login-funktion</t>
+  </si>
+  <si>
+    <t>Hade tänkt bestämma layouten för 7.2 denna vecka och koda nästa men det var innan handledningen när jag insåg att funktionalitet borde vara klar denna veckan.</t>
+  </si>
 </sst>
 </file>
 
@@ -925,7 +955,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$kr-41D];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$kr-41D]"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,8 +1091,27 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,6 +1122,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1211,7 +1266,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1342,13 +1397,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1688,8 +1764,8 @@
       </c>
       <c r="H2" s="4"/>
       <c r="L2" s="28">
-        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L58+'Sprint 7'!L14</f>
-        <v>173</v>
+        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L67+'Sprint 7'!L14</f>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1700,7 +1776,7 @@
       </c>
       <c r="L3" s="28">
         <f>+L1-L2</f>
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1715,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI59"/>
+  <dimension ref="A1:AMI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1805,7 @@
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="41.625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="72" style="32" customWidth="1"/>
     <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
     <col min="1024" max="16384" width="9" style="46"/>
   </cols>
@@ -1740,16 +1816,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="28"/>
-      <c r="M1" s="46"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -1757,59 +1833,59 @@
       <c r="C2" s="32"/>
       <c r="D2" s="3"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="46"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="46"/>
+      <c r="B3" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
       <c r="D4" s="3"/>
       <c r="E4" s="28"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="46"/>
+      <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="46"/>
+      <c r="B5" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="46"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -1845,14 +1921,14 @@
       <c r="L7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="46"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="33"/>
       <c r="D8" s="12"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="46"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
@@ -1863,47 +1939,50 @@
         <v>1.5</v>
       </c>
       <c r="L9" s="13">
-        <f t="shared" ref="L9:L57" si="0">+SUM(E9:K9)</f>
+        <f t="shared" ref="L9:L66" si="0">+SUM(E9:K9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="72"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="12"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="72"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="56" t="s">
         <v>220</v>
       </c>
       <c r="D11" s="12">
         <v>4</v>
       </c>
+      <c r="H11" s="1">
+        <v>3.5</v>
+      </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="72"/>
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="12"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="72"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>253</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>254</v>
       </c>
       <c r="D13" s="12">
         <v>0.5</v>
@@ -1912,20 +1991,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="72"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="69"/>
-      <c r="C14" s="49"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="12"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="72"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="56" t="s">
         <v>209</v>
       </c>
       <c r="D15" s="12">
@@ -1935,30 +2014,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="72"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>210</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="12">
         <v>2</v>
       </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="72"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="70" t="s">
-        <v>241</v>
+      <c r="C17" s="75" t="s">
+        <v>240</v>
       </c>
       <c r="D17" s="12">
         <v>2</v>
@@ -1970,490 +2052,591 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M17" s="72" t="s">
-        <v>257</v>
+      <c r="M17" s="32" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="56" t="s">
         <v>223</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
       </c>
+      <c r="H18" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L18" s="13">
         <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="73"/>
+      <c r="C19" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="L19" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="72"/>
-    </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="72"/>
-    </row>
-    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2</v>
-      </c>
-      <c r="L20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="72"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="74"/>
-      <c r="C21" s="49" t="s">
+      <c r="B21" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="73"/>
+      <c r="C22" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="L21" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="72"/>
-    </row>
-    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="74"/>
-      <c r="C22" s="49"/>
       <c r="D22" s="12"/>
+      <c r="H22" s="1">
+        <v>0.25</v>
+      </c>
       <c r="L22" s="13"/>
-      <c r="M22" s="72"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="12">
-        <v>2</v>
-      </c>
-      <c r="L23" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="72"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="56" t="s">
+        <v>266</v>
+      </c>
       <c r="D24" s="12"/>
-      <c r="L24" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="72"/>
-    </row>
-    <row r="25" spans="2:13" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>242</v>
+      <c r="L24" s="13"/>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="73"/>
+      <c r="C25" s="56" t="s">
+        <v>267</v>
       </c>
       <c r="D25" s="12"/>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
       <c r="L25" s="13"/>
-      <c r="M25" s="72"/>
+      <c r="M25" s="32" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="57" t="s">
-        <v>243</v>
-      </c>
+      <c r="B26" s="73"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="12"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="72"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="12">
-        <v>1</v>
-      </c>
-      <c r="L27" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="49" t="s">
-        <v>229</v>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81" t="s">
+        <v>264</v>
       </c>
       <c r="D28" s="12"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="72"/>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="49" t="s">
-        <v>245</v>
+      <c r="B29" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>239</v>
       </c>
       <c r="D29" s="12"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="72"/>
-    </row>
-    <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="49" t="s">
-        <v>79</v>
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="2:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>258</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="72"/>
+      <c r="L30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="12"/>
       <c r="L31" s="13"/>
-      <c r="M31" s="72"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>246</v>
+        <v>75</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>204</v>
       </c>
       <c r="D32" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="72"/>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
-      <c r="C33" s="49" t="s">
-        <v>81</v>
-      </c>
+      <c r="C33" s="35"/>
       <c r="D33" s="12"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="72"/>
-    </row>
-    <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="49" t="s">
-        <v>247</v>
+      <c r="L33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="32"/>
+    </row>
+    <row r="34" spans="2:13" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>241</v>
       </c>
       <c r="D34" s="12"/>
-      <c r="F34" s="1">
-        <v>2</v>
-      </c>
       <c r="L34" s="13"/>
-      <c r="M34" s="72"/>
+      <c r="M34" s="32"/>
     </row>
     <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
-      <c r="C35" s="49" t="s">
-        <v>248</v>
+      <c r="C35" s="78" t="s">
+        <v>242</v>
       </c>
       <c r="D35" s="12"/>
       <c r="L35" s="13"/>
-      <c r="M35" s="72"/>
+      <c r="M35" s="32"/>
     </row>
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="49" t="s">
+      <c r="B36" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="72"/>
+      <c r="C36" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="32"/>
     </row>
     <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
-      <c r="C37" s="49" t="s">
-        <v>235</v>
+      <c r="C37" s="56" t="s">
+        <v>228</v>
       </c>
       <c r="D37" s="12"/>
       <c r="L37" s="13"/>
-      <c r="M37" s="72"/>
+      <c r="M37" s="32"/>
     </row>
     <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
-      <c r="C38" s="49" t="s">
-        <v>79</v>
+      <c r="C38" s="56" t="s">
+        <v>244</v>
       </c>
       <c r="D38" s="12"/>
       <c r="L38" s="13"/>
-      <c r="M38" s="72"/>
+      <c r="M38" s="32"/>
     </row>
     <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
-      <c r="C39" s="49"/>
+      <c r="C39" s="56" t="s">
+        <v>79</v>
+      </c>
       <c r="D39" s="12"/>
       <c r="L39" s="13"/>
-      <c r="M39" s="72"/>
+      <c r="M39" s="32"/>
     </row>
     <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>227</v>
-      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="12"/>
       <c r="L40" s="13"/>
-      <c r="M40" s="72"/>
+      <c r="M40" s="32"/>
     </row>
     <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>228</v>
+        <v>251</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>245</v>
       </c>
       <c r="D41" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L41" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="72"/>
+      <c r="M41" s="32"/>
     </row>
     <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
-      <c r="C42" s="49" t="s">
-        <v>229</v>
+      <c r="C42" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="D42" s="12"/>
       <c r="L42" s="13"/>
-      <c r="M42" s="72"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
-      <c r="C43" s="49" t="s">
-        <v>230</v>
+      <c r="C43" s="56" t="s">
+        <v>246</v>
       </c>
       <c r="D43" s="12"/>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
       <c r="L43" s="13"/>
-      <c r="M43" s="72"/>
+      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
-      <c r="C44" s="49" t="s">
-        <v>79</v>
+      <c r="C44" s="56" t="s">
+        <v>247</v>
       </c>
       <c r="D44" s="12"/>
       <c r="L44" s="13"/>
-      <c r="M44" s="72"/>
+      <c r="M44" s="32"/>
     </row>
     <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
+      <c r="C45" s="56" t="s">
+        <v>248</v>
+      </c>
       <c r="D45" s="12"/>
       <c r="L45" s="13"/>
-      <c r="M45" s="72"/>
+      <c r="M45" s="32"/>
     </row>
     <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="12">
-        <v>4</v>
-      </c>
-      <c r="L46" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="72"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="32"/>
     </row>
     <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
-      <c r="C47" s="49" t="s">
-        <v>81</v>
+      <c r="C47" s="56" t="s">
+        <v>79</v>
       </c>
       <c r="D47" s="12"/>
       <c r="L47" s="13"/>
-      <c r="M47" s="72"/>
+      <c r="M47" s="32"/>
     </row>
     <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
-      <c r="C48" s="49" t="s">
-        <v>232</v>
-      </c>
+      <c r="C48" s="56"/>
       <c r="D48" s="12"/>
       <c r="L48" s="13"/>
-      <c r="M48" s="72"/>
+      <c r="M48" s="32"/>
     </row>
     <row r="49" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
-      <c r="C49" s="49" t="s">
-        <v>233</v>
+      <c r="B49" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="78" t="s">
+        <v>226</v>
       </c>
       <c r="D49" s="12"/>
       <c r="L49" s="13"/>
-      <c r="M49" s="72"/>
+      <c r="M49" s="32"/>
     </row>
     <row r="50" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="C50" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="72"/>
+      <c r="B50" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="L50" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="32"/>
     </row>
     <row r="51" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
-      <c r="C51" s="49" t="s">
-        <v>235</v>
+      <c r="C51" s="56" t="s">
+        <v>228</v>
       </c>
       <c r="D51" s="12"/>
       <c r="L51" s="13"/>
-      <c r="M51" s="72"/>
+      <c r="M51" s="32"/>
     </row>
     <row r="52" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
-      <c r="C52" s="49" t="s">
-        <v>79</v>
+      <c r="C52" s="56" t="s">
+        <v>229</v>
       </c>
       <c r="D52" s="12"/>
       <c r="L52" s="13"/>
-      <c r="M52" s="72"/>
+      <c r="M52" s="32"/>
     </row>
     <row r="53" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
-      <c r="C53" s="33"/>
+      <c r="C53" s="56" t="s">
+        <v>79</v>
+      </c>
       <c r="D53" s="12"/>
       <c r="L53" s="13"/>
-      <c r="M53" s="72"/>
+      <c r="M53" s="32"/>
     </row>
     <row r="54" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
       <c r="C54" s="35"/>
       <c r="D54" s="12"/>
       <c r="L54" s="13"/>
-      <c r="M54" s="46"/>
+      <c r="M54" s="32"/>
     </row>
     <row r="55" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="11"/>
-      <c r="C55" s="35" t="s">
-        <v>85</v>
+      <c r="B55" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" s="76" t="s">
+        <v>230</v>
       </c>
       <c r="D55" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L55" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="46"/>
+      <c r="M55" s="32"/>
     </row>
     <row r="56" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
-      <c r="C56" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="12">
-        <v>1</v>
-      </c>
-      <c r="L56" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="46"/>
+      <c r="C56" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="32"/>
     </row>
     <row r="57" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="32"/>
+    </row>
+    <row r="58" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="32"/>
+    </row>
+    <row r="59" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="11"/>
+      <c r="C59" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="32"/>
+    </row>
+    <row r="60" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="11"/>
+      <c r="C60" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="32"/>
+    </row>
+    <row r="61" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="11"/>
+      <c r="C61" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="32"/>
+    </row>
+    <row r="62" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="11"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="12"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="32"/>
+    </row>
+    <row r="63" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="11"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="12"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="32"/>
+    </row>
+    <row r="64" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="C64" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2</v>
+      </c>
+      <c r="L64" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="32"/>
+    </row>
+    <row r="65" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+      <c r="C65" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L65" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M65" s="32"/>
+    </row>
+    <row r="66" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="11"/>
+      <c r="C66" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D66" s="12">
         <v>1</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L66" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M57" s="46"/>
-    </row>
-    <row r="58" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="16">
-        <f>+SUM(D8:D57)</f>
-        <v>32</v>
-      </c>
-      <c r="E58" s="15">
-        <f>+SUM(E8:E57)</f>
+      <c r="M66" s="32"/>
+    </row>
+    <row r="67" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="16">
+        <f>+SUM(D8:D66)</f>
+        <v>31</v>
+      </c>
+      <c r="E67" s="15">
+        <f>+SUM(E8:E66)</f>
         <v>3</v>
       </c>
-      <c r="F58" s="15">
-        <f t="shared" ref="F58:K58" si="1">+SUM(F8:F57)</f>
+      <c r="F67" s="15">
+        <f t="shared" ref="F67:K67" si="1">+SUM(F8:F66)</f>
         <v>2</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G67" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H67" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I67" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58" s="15">
+      <c r="J67" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J58" s="15">
+      <c r="K67" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K58" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="21">
-        <f t="shared" ref="L54:L58" si="2">+SUM(E58:K58)</f>
-        <v>5</v>
-      </c>
-      <c r="M58" s="46"/>
-    </row>
-    <row r="59" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="43"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="30"/>
+      <c r="L67" s="21">
+        <f t="shared" ref="L67" si="2">+SUM(E67:K67)</f>
+        <v>17</v>
+      </c>
+      <c r="M67" s="32"/>
+    </row>
+    <row r="68" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="43"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2495,17 +2678,17 @@
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
       <c r="B1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="28"/>
       <c r="M1" s="55"/>
     </row>
@@ -2518,19 +2701,19 @@
       <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2541,31 +2724,31 @@
       <c r="M4" s="55"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="55"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="28"/>
       <c r="M6" s="55"/>
     </row>
@@ -2776,14 +2959,14 @@
         <v>26</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -2792,19 +2975,19 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -2813,29 +2996,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -3436,14 +3619,14 @@
         <v>4</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3453,19 +3636,19 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -3474,19 +3657,19 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
     </row>
     <row r="6" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
@@ -3673,14 +3856,14 @@
         <v>14</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="3"/>
       <c r="M1" s="46"/>
     </row>
@@ -3692,19 +3875,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3715,32 +3898,32 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46"/>
     </row>
@@ -4007,15 +4190,15 @@
         <v>19</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
       <c r="M1" s="28"/>
       <c r="N1" s="46"/>
     </row>
@@ -4028,20 +4211,20 @@
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4053,33 +4236,33 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
       <c r="M6" s="28"/>
       <c r="N6" s="46"/>
     </row>
@@ -4818,14 +5001,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -4837,19 +5020,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4860,31 +5043,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -5601,14 +5784,14 @@
         <v>22</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="28"/>
       <c r="M2" s="32"/>
     </row>
@@ -5620,19 +5803,19 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5643,31 +5826,31 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="28"/>
       <c r="M7" s="32"/>
     </row>
@@ -6232,14 +6415,14 @@
         <v>24</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -6251,19 +6434,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="84" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6274,31 +6457,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -7955,14 +8138,14 @@
         <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -7974,19 +8157,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7997,31 +8180,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -8290,7 +8473,7 @@
       <c r="M29" s="67"/>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="73" t="s">
         <v>208</v>
       </c>
       <c r="C30" s="70" t="s">
@@ -8315,7 +8498,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="73" t="s">
         <v>210</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -8335,7 +8518,7 @@
       <c r="M31" s="67"/>
     </row>
     <row r="32" spans="2:13" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="73" t="s">
         <v>216</v>
       </c>
       <c r="C32" s="70" t="s">
@@ -8357,7 +8540,7 @@
       </c>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="73" t="s">
         <v>214</v>
       </c>
       <c r="C33" s="70" t="s">
@@ -8374,7 +8557,7 @@
       <c r="M33" s="50"/>
     </row>
     <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="73" t="s">
         <v>218</v>
       </c>
       <c r="C34" s="70" t="s">
@@ -8388,8 +8571,8 @@
       <c r="M34" s="68"/>
     </row>
     <row r="35" spans="2:13" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="74"/>
-      <c r="C35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="12"/>
       <c r="L35" s="13"/>
       <c r="M35" s="68"/>

--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TotalTid" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="288">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -78,15 +78,6 @@
   </si>
   <si>
     <t>Uppskattad tid</t>
-  </si>
-  <si>
-    <t>Leverans</t>
-  </si>
-  <si>
-    <t>Test efter alla ändringar</t>
-  </si>
-  <si>
-    <t>Tidrapportering</t>
   </si>
   <si>
     <t>Sprint 1 (Elaborationtion): 14 april – 20 april</t>
@@ -909,12 +900,6 @@
     </r>
   </si>
   <si>
-    <t>Logga- groda</t>
-  </si>
-  <si>
-    <t>Sprint 6 (Construction): 26 maj – 1 maj</t>
-  </si>
-  <si>
     <t>När användare väljer att spara en mall med ett namn som redan finns visas ett meddelande som meddelar att en mall med namnet existerar och en fråga om han vill ersätta den.</t>
   </si>
   <si>
@@ -936,16 +921,110 @@
     <t>"Reservlista" Vill gärna hinna med så de får stå kvar här i reserv!</t>
   </si>
   <si>
-    <t>Fick ändra i många funktioner…</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ändringar med anledning av 7.2 </t>
   </si>
   <si>
-    <t>Login-funktion</t>
-  </si>
-  <si>
     <t>Hade tänkt bestämma layouten för 7.2 denna vecka och koda nästa men det var innan handledningen när jag insåg att funktionalitet borde vara klar denna veckan.</t>
+  </si>
+  <si>
+    <t>Klart</t>
+  </si>
+  <si>
+    <t>*-</t>
+  </si>
+  <si>
+    <t>Logga- groda färdig. Att få in den i layout *-</t>
+  </si>
+  <si>
+    <t>Klart. Testfall skrivna. Ej testat</t>
+  </si>
+  <si>
+    <t>Klart. Testfall skrivna. Ej testat. Fick ändra i många funktioner…</t>
+  </si>
+  <si>
+    <t>Login-funktion (knappar) - dölja/presentera olika knappar (Logga in/logga ut) beroende på om man är in- eller utloggad.</t>
+  </si>
+  <si>
+    <t>*- Klar avseende inloggning och knappar kring det. Inte funktionalitet på sidan.</t>
+  </si>
+  <si>
+    <t>Klart. Kan förbättras men anses klar. Default är layoutmall Simple och colormall Black&amp;White.</t>
+  </si>
+  <si>
+    <t>För att kunna ändra layout och färgschema var för sig var jag tvungen att göra om "inladdningen" av css dels i rutan med css-kod och dels i resultatet. En css-mall för layout och en för färger ska slås ihop.</t>
+  </si>
+  <si>
+    <t>Klart.  Två färgteman finns. Inga testfall skrivna och inga tester utförda,</t>
+  </si>
+  <si>
+    <t>Klart. Det går att byta färgtema och laddning sker. Inga testfall skrivna och inte tester utförda</t>
+  </si>
+  <si>
+    <t>Klart. Två olika layouter finns. Inga testfall. Inga tester.</t>
+  </si>
+  <si>
+    <t>Klart. Det går att byta layout och laddning sker. Inga testfall. Inga tester.</t>
+  </si>
+  <si>
+    <t>* Förändringar efter handledning när jag insåg att funktionaliteten skulle vara klar denna veckan. Fick då omprioritera så att den skulle vara det och viss grafik/layout får vänta till nästa vecka. Funktionalitet som ej hunnits med blir ej utförd inom kursen då den då inte hinner testas. *+ = tillkommit  *- = skjuts fram p g a detta</t>
+  </si>
+  <si>
+    <t>Skriv testfall för 1d, 1e, 2.1a, 2.1b, 2.2a och 2.2b</t>
+  </si>
+  <si>
+    <t>Test av krav ovan samt 4.13 och 4.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Färgval /estetisk utformning- "grundsida" . </t>
+  </si>
+  <si>
+    <t>Marginaler. Placeringar för helheten av funktionalitet, delar av header …</t>
+  </si>
+  <si>
+    <t>Vet inte hur man bedömer det här… Har gjort massor av test i olika ordning under tiden jag kodar men inte några i förväg bestämda sekvenser som dokumenterats.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Analys av föregående iteration: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Grundfunktionalitet i Firebase testades och fungerade. Ett antal förbättringsmöjligheter fr f a gällande meddelanden hittades. Eftersom det stod klart på handledningen att funktionalitet skulle vara klar denna veckan fick viss gränssnittsutveckling av "huvudsidan" vänta för att koda om förflyttning av login-funktion samt dölja Login/Logout-knappar beroende på inloggningsstatus. Att försöka förstå var saker sker i Firebase olika funktioner för inloggning och utloggning har hela tiden varit jättesvårt tycker jag. För att förstå var/i vilken funktion man bör lägga till och plocka bort knappar krävs det annars kan de läggas till eller tas bort flera gånger eller ingen... Funktionen för BK2 med möjlighet att välja css-mall och layout har också gjorts, vilket innebar att dela upp layout och färg i olika css-dokument och lyckas sammanfoga dem och ladda. Det visade sig även vara klurigt att göra layouter på en befintlig html-kod utan att kunna göra boxar att rama in i eftersom det kunde strula i en annan layout. Att få till layouter som fungerade till olika kombinationer av färg var också ett pyssel. Två layouter och två färgscheman finns.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mål: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Testad version med ett färdigt gränssnitt av huvudsidan.</t>
+    </r>
+  </si>
+  <si>
+    <t>Färg bakgrund på sida, i rutor. Färg och typsnitt på tecken. Färg meddelanden. Header med logga. Utseende på knappar.</t>
+  </si>
+  <si>
+    <t>Var ska funkgionalitet ligga.</t>
+  </si>
+  <si>
+    <t>Layouten på ul för visning av sparade mallar</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>Sprint 6 (Construction): 26 maj – 1 juni</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1345,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1401,6 +1480,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1764,19 +1844,19 @@
       </c>
       <c r="H2" s="4"/>
       <c r="L2" s="28">
-        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L67+'Sprint 7'!L14</f>
-        <v>185</v>
+        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L67+'Sprint 7'!L21</f>
+        <v>201.5</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
       <c r="C3" s="32"/>
       <c r="D3" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L3" s="28">
         <f>+L1-L2</f>
-        <v>55</v>
+        <v>38.5</v>
       </c>
     </row>
   </sheetData>
@@ -1793,15 +1873,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="35" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
@@ -1813,17 +1895,17 @@
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -1836,19 +1918,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="B3" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1859,31 +1941,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
+      <c r="B5" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -1930,10 +2012,10 @@
       <c r="L8" s="13"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12">
         <v>1.5</v>
@@ -1942,7 +2024,9 @@
         <f t="shared" ref="L9:L66" si="0">+SUM(E9:K9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="32"/>
+      <c r="M9" s="32" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="69"/>
@@ -1953,10 +2037,10 @@
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D11" s="12">
         <v>4</v>
@@ -1968,7 +2052,9 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="M11" s="32"/>
+      <c r="M11" s="32" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="69"/>
@@ -1979,10 +2065,10 @@
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D13" s="12">
         <v>0.5</v>
@@ -1991,7 +2077,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="32"/>
+      <c r="M13" s="32" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="69"/>
@@ -2002,10 +2090,10 @@
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="73" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -2014,14 +2102,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="32"/>
+      <c r="M15" s="32" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="73" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D16" s="12">
         <v>2</v>
@@ -2033,14 +2123,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M16" s="32"/>
+      <c r="M16" s="32" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>240</v>
+        <v>213</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>237</v>
       </c>
       <c r="D17" s="12">
         <v>2</v>
@@ -2053,15 +2145,15 @@
         <v>3</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="73" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
@@ -2074,27 +2166,24 @@
         <v>1.5</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B19" s="73"/>
-      <c r="C19" s="79" t="s">
-        <v>263</v>
+      <c r="C19" s="80" t="s">
+        <v>258</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="L19" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L19" s="13"/>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>255</v>
       </c>
       <c r="D20" s="12">
         <v>1.5</v>
@@ -2103,14 +2192,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="32" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>262</v>
+        <v>256</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>257</v>
       </c>
       <c r="D21" s="12">
         <v>0.5</v>
@@ -2118,19 +2209,27 @@
       <c r="H21" s="1">
         <v>0.25</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="32"/>
+      <c r="L21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="73"/>
       <c r="C22" s="56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="12"/>
       <c r="H22" s="1">
         <v>0.25</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2143,13 +2242,13 @@
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="73"/>
       <c r="C24" s="56" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D24" s="12"/>
       <c r="L24" s="13"/>
       <c r="M24" s="32"/>
     </row>
-    <row r="25" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="73"/>
       <c r="C25" s="56" t="s">
         <v>267</v>
@@ -2158,9 +2257,12 @@
       <c r="H25" s="1">
         <v>5</v>
       </c>
-      <c r="L25" s="13"/>
+      <c r="L25" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="M25" s="32" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2178,37 +2280,34 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="80"/>
-      <c r="C28" s="81" t="s">
-        <v>264</v>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82" t="s">
+        <v>259</v>
       </c>
       <c r="D28" s="12"/>
       <c r="L28" s="13"/>
       <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="80" t="s">
-        <v>225</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>239</v>
+    <row r="29" spans="2:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>236</v>
       </c>
       <c r="D29" s="12"/>
       <c r="L29" s="13"/>
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>258</v>
+      <c r="B30" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>253</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="L30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L30" s="13"/>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2218,21 +2317,29 @@
       <c r="L31" s="13"/>
       <c r="M31" s="32"/>
     </row>
-    <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="76" t="s">
-        <v>204</v>
+        <v>72</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>201</v>
       </c>
       <c r="D32" s="12">
         <v>2</v>
       </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
       <c r="L32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
@@ -2244,21 +2351,26 @@
       </c>
       <c r="M33" s="32"/>
     </row>
-    <row r="34" spans="2:13" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C34" s="77" t="s">
-        <v>241</v>
+        <v>247</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>238</v>
       </c>
       <c r="D34" s="12"/>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
       <c r="L34" s="13"/>
-      <c r="M34" s="32"/>
+      <c r="M34" s="32" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
-      <c r="C35" s="78" t="s">
-        <v>242</v>
+      <c r="C35" s="79" t="s">
+        <v>239</v>
       </c>
       <c r="D35" s="12"/>
       <c r="L35" s="13"/>
@@ -2266,10 +2378,10 @@
     </row>
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" s="76" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>240</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -2278,12 +2390,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="32"/>
+      <c r="M36" s="32" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="56" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D37" s="12"/>
       <c r="L37" s="13"/>
@@ -2292,7 +2406,7 @@
     <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="56" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D38" s="12"/>
       <c r="L38" s="13"/>
@@ -2301,7 +2415,7 @@
     <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
       <c r="C39" s="56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" s="12"/>
       <c r="L39" s="13"/>
@@ -2314,26 +2428,34 @@
       <c r="L40" s="13"/>
       <c r="M40" s="32"/>
     </row>
-    <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C41" s="76" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>242</v>
       </c>
       <c r="D41" s="12">
         <v>4</v>
       </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
       <c r="L41" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="32"/>
+        <v>4</v>
+      </c>
+      <c r="M41" s="32" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D42" s="12"/>
       <c r="L42" s="13"/>
@@ -2342,7 +2464,7 @@
     <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="C43" s="56" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D43" s="12"/>
       <c r="F43" s="1">
@@ -2354,7 +2476,7 @@
     <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="56" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D44" s="12"/>
       <c r="L44" s="13"/>
@@ -2363,7 +2485,7 @@
     <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="56" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D45" s="12"/>
       <c r="L45" s="13"/>
@@ -2372,7 +2494,7 @@
     <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="C46" s="56" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D46" s="12"/>
       <c r="L46" s="13"/>
@@ -2381,7 +2503,7 @@
     <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
       <c r="C47" s="56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47" s="12"/>
       <c r="L47" s="13"/>
@@ -2396,35 +2518,43 @@
     </row>
     <row r="49" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49" s="78" t="s">
-        <v>226</v>
+        <v>234</v>
+      </c>
+      <c r="C49" s="79" t="s">
+        <v>223</v>
       </c>
       <c r="D49" s="12"/>
       <c r="L49" s="13"/>
-      <c r="M49" s="32"/>
+      <c r="M49" s="32" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="50" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="76" t="s">
-        <v>227</v>
+        <v>233</v>
+      </c>
+      <c r="C50" s="77" t="s">
+        <v>224</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
       </c>
+      <c r="J50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.5</v>
+      </c>
       <c r="L50" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>+SUM(E50:K50)</f>
+        <v>1</v>
       </c>
       <c r="M50" s="32"/>
     </row>
     <row r="51" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
       <c r="C51" s="56" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D51" s="12"/>
       <c r="L51" s="13"/>
@@ -2433,7 +2563,7 @@
     <row r="52" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="C52" s="56" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D52" s="12"/>
       <c r="L52" s="13"/>
@@ -2442,7 +2572,7 @@
     <row r="53" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="C53" s="56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D53" s="12"/>
       <c r="L53" s="13"/>
@@ -2457,24 +2587,29 @@
     </row>
     <row r="55" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C55" s="76" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="C55" s="77" t="s">
+        <v>227</v>
       </c>
       <c r="D55" s="12">
         <v>4</v>
       </c>
+      <c r="J55" s="1">
+        <v>4</v>
+      </c>
       <c r="L55" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="32"/>
+        <v>4</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="56" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
       <c r="C56" s="56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D56" s="12"/>
       <c r="L56" s="13"/>
@@ -2483,7 +2618,7 @@
     <row r="57" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
       <c r="C57" s="56" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D57" s="12"/>
       <c r="L57" s="13"/>
@@ -2492,7 +2627,7 @@
     <row r="58" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
       <c r="C58" s="56" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D58" s="12"/>
       <c r="L58" s="13"/>
@@ -2501,7 +2636,7 @@
     <row r="59" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="11"/>
       <c r="C59" s="56" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D59" s="12"/>
       <c r="L59" s="13"/>
@@ -2510,7 +2645,7 @@
     <row r="60" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
       <c r="C60" s="56" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D60" s="12"/>
       <c r="L60" s="13"/>
@@ -2519,7 +2654,7 @@
     <row r="61" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="11"/>
       <c r="C61" s="56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D61" s="12"/>
       <c r="L61" s="13"/>
@@ -2539,10 +2674,10 @@
       <c r="L63" s="13"/>
       <c r="M63" s="32"/>
     </row>
-    <row r="64" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
       <c r="C64" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D64" s="12">
         <v>2</v>
@@ -2551,12 +2686,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M64" s="32"/>
+      <c r="M64" s="32" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="65" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="11"/>
       <c r="C65" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D65" s="12">
         <v>1</v>
@@ -2564,9 +2701,12 @@
       <c r="H65" s="1">
         <v>0.5</v>
       </c>
+      <c r="K65" s="1">
+        <v>0.75</v>
+      </c>
       <c r="L65" s="13">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="M65" s="32"/>
     </row>
@@ -2578,9 +2718,12 @@
       <c r="D66" s="12">
         <v>1</v>
       </c>
+      <c r="K66" s="1">
+        <v>0.75</v>
+      </c>
       <c r="L66" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M66" s="32"/>
     </row>
@@ -2609,19 +2752,19 @@
       </c>
       <c r="I67" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J67" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K67" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L67" s="21">
         <f t="shared" ref="L67" si="2">+SUM(E67:K67)</f>
-        <v>17</v>
+        <v>33.5</v>
       </c>
       <c r="M67" s="32"/>
     </row>
@@ -2656,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI15"/>
+  <dimension ref="A1:AMI24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2678,17 +2821,17 @@
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
       <c r="B1" s="5" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="28"/>
       <c r="M1" s="55"/>
     </row>
@@ -2698,59 +2841,59 @@
       <c r="C2" s="32"/>
       <c r="D2" s="3"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="55"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="55"/>
+      <c r="M2" s="74"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
       <c r="D4" s="3"/>
       <c r="E4" s="28"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="55"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="55"/>
+      <c r="M4" s="74"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="55"/>
+      <c r="M6" s="74"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -2786,135 +2929,312 @@
       <c r="L7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="55"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="55"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="35" t="s">
-        <v>20</v>
-      </c>
+      <c r="M7" s="74"/>
+    </row>
+    <row r="8" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="13">
+        <f t="shared" ref="L8:L16" si="0">+SUM(E8:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="74"/>
+    </row>
+    <row r="9" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="12"/>
-      <c r="L9" s="13">
-        <f t="shared" ref="L9:L14" si="0">+SUM(E9:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="55"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="12"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="74"/>
+    </row>
+    <row r="10" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="69"/>
+      <c r="C10" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="55"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12"/>
+      <c r="M10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="12">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="55"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="35" t="s">
-        <v>18</v>
-      </c>
+      <c r="M11" s="74"/>
+    </row>
+    <row r="12" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="69"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="12"/>
-      <c r="L12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="55"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="28" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="55"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="16">
-        <f t="shared" ref="D14:K14" si="1">+SUM(D9:D13)</f>
+      <c r="M13" s="32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="12">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="15">
+      <c r="M14" s="74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="12">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="74"/>
+    </row>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="73"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="74"/>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="12">
+        <v>6</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" ref="L18:L21" si="1">+SUM(E18:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="74"/>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="15">
+      <c r="M19" s="74"/>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="15">
+      <c r="M20" s="74"/>
+    </row>
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="16">
+        <f>+SUM(D8:D20)</f>
+        <v>26.5</v>
+      </c>
+      <c r="E21" s="15">
+        <f>+SUM(E18:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <f>+SUM(F18:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <f>+SUM(G18:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <f>+SUM(H18:H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <f>+SUM(I18:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <f>+SUM(J18:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <f>+SUM(K18:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="55"/>
-    </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="43"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="30"/>
+      <c r="M21" s="74"/>
+    </row>
+    <row r="22" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="43"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="30"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="74"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2937,7 +3257,7 @@
   <dimension ref="A1:AMI12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A164" sqref="A1:XFD164"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2956,17 +3276,17 @@
     <row r="1" spans="1:13" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46"/>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -2975,19 +3295,19 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -2996,29 +3316,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -3058,7 +3378,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="28"/>
@@ -3073,7 +3393,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="3"/>
@@ -3088,7 +3408,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="28"/>
@@ -3188,23 +3508,23 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3225,59 +3545,59 @@
         <v>1</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="18">
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="18">
         <v>2</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="18">
         <v>2</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3295,59 +3615,59 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="18">
         <v>1</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="18">
         <v>2</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="18">
         <v>1</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="18">
         <v>2</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -3360,23 +3680,23 @@
         <v>3</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="18">
         <v>1</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>98</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -3384,7 +3704,7 @@
       <c r="C18" s="18"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -3392,37 +3712,37 @@
       <c r="C19" s="18"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E21" s="40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E22" s="40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="54" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="D23" s="32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G23" s="32"/>
     </row>
@@ -3431,7 +3751,7 @@
       <c r="B24" s="53"/>
       <c r="D24" s="32"/>
       <c r="E24" s="40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G24" s="32"/>
     </row>
@@ -3440,7 +3760,7 @@
       <c r="B25" s="53"/>
       <c r="D25" s="32"/>
       <c r="E25" s="40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G25" s="32"/>
     </row>
@@ -3449,61 +3769,61 @@
         <v>4</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C27" s="50">
         <v>2</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D28" s="56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D29" s="32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D30" s="32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="D31" s="32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E31" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="54" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="D32" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>125</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="G32" s="32"/>
     </row>
@@ -3519,32 +3839,32 @@
         <v>5</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C34" s="50">
         <v>2</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D35" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D36" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E36" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -3559,24 +3879,24 @@
         <v>6</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C38" s="50">
         <v>2</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D39" s="56" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -3619,14 +3939,14 @@
         <v>4</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3636,19 +3956,19 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -3657,19 +3977,19 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
     </row>
     <row r="6" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
@@ -3856,14 +4176,14 @@
         <v>14</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="3"/>
       <c r="M1" s="46"/>
     </row>
@@ -3875,19 +4195,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="B3" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3898,32 +4218,32 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
+      <c r="B5" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46"/>
     </row>
@@ -3966,7 +4286,7 @@
     <row r="8" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="3"/>
@@ -3982,7 +4302,7 @@
     <row r="9" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="12">
         <v>7</v>
@@ -4009,7 +4329,7 @@
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="12">
         <v>7</v>
@@ -4048,13 +4368,13 @@
         <v>0.5</v>
       </c>
       <c r="M11" s="46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="12">
         <v>4</v>
@@ -4070,7 +4390,7 @@
         <v>3.5</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4086,7 +4406,7 @@
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -4187,18 +4507,18 @@
   <sheetData>
     <row r="1" spans="2:14" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
       <c r="M1" s="28"/>
       <c r="N1" s="46"/>
     </row>
@@ -4211,20 +4531,20 @@
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
+      <c r="B3" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4236,33 +4556,33 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="B5" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
       <c r="M6" s="28"/>
       <c r="N6" s="46"/>
     </row>
@@ -4277,7 +4597,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -4308,7 +4628,7 @@
     <row r="8" spans="2:14" s="28" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="12">
         <v>1.5</v>
@@ -4348,10 +4668,10 @@
     </row>
     <row r="10" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -4368,7 +4688,7 @@
     <row r="11" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
@@ -4394,7 +4714,7 @@
     <row r="12" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="12">
         <v>2</v>
@@ -4416,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4439,7 +4759,7 @@
     <row r="14" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4456,7 +4776,7 @@
     <row r="15" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="12">
         <v>3</v>
@@ -4482,13 +4802,13 @@
         <v>5.5</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -4505,7 +4825,7 @@
     <row r="17" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="12">
         <v>1</v>
@@ -4525,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4545,10 +4865,10 @@
     </row>
     <row r="19" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -4565,7 +4885,7 @@
     <row r="20" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20" s="12">
         <v>3</v>
@@ -4583,13 +4903,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -4606,7 +4926,7 @@
     <row r="22" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
@@ -4630,13 +4950,13 @@
         <v>5</v>
       </c>
       <c r="N22" s="46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -4653,7 +4973,7 @@
     <row r="24" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -4673,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4693,10 +5013,10 @@
     </row>
     <row r="26" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -4713,7 +5033,7 @@
     <row r="27" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -4730,7 +5050,7 @@
     <row r="28" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12">
@@ -4751,7 +5071,7 @@
     <row r="29" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12">
@@ -4772,7 +5092,7 @@
     <row r="30" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12">
@@ -4793,7 +5113,7 @@
     <row r="31" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12">
@@ -4842,7 +5162,7 @@
     <row r="34" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
@@ -4855,13 +5175,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -4883,7 +5203,7 @@
         <v>3.5</v>
       </c>
       <c r="N35" s="46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4998,17 +5318,17 @@
   <sheetData>
     <row r="1" spans="2:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -5020,19 +5340,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="B3" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5043,31 +5363,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
+      <c r="B5" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -5124,7 +5444,7 @@
     <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12">
         <v>1.5</v>
@@ -5147,10 +5467,10 @@
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D11" s="12">
         <v>2</v>
@@ -5176,10 +5496,10 @@
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D13" s="12">
         <v>2</v>
@@ -5195,7 +5515,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5207,10 +5527,10 @@
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13"/>
@@ -5219,7 +5539,7 @@
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" s="12"/>
       <c r="L16" s="13"/>
@@ -5228,7 +5548,7 @@
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" s="12"/>
       <c r="L17" s="13"/>
@@ -5237,7 +5557,7 @@
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" s="12">
         <v>2</v>
@@ -5253,13 +5573,13 @@
         <v>3</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" s="12">
         <v>2</v>
@@ -5272,13 +5592,13 @@
         <v>2</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="12">
         <v>0.5</v>
@@ -5292,7 +5612,7 @@
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="12"/>
       <c r="L21" s="13"/>
@@ -5301,7 +5621,7 @@
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22" s="12">
         <v>1.5</v>
@@ -5318,7 +5638,7 @@
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" s="12">
         <v>4</v>
@@ -5338,7 +5658,7 @@
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="49" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24" s="12"/>
       <c r="L24" s="13"/>
@@ -5347,7 +5667,7 @@
     <row r="25" spans="2:13" s="1" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="49" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D25" s="12">
         <v>2</v>
@@ -5360,13 +5680,13 @@
         <v>1.5</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="12">
         <v>0.5</v>
@@ -5390,7 +5710,7 @@
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D28" s="12"/>
       <c r="L28" s="13"/>
@@ -5399,18 +5719,18 @@
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="57" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D29" s="12"/>
       <c r="L29" s="13"/>
       <c r="M29" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D30" s="12">
         <v>0</v>
@@ -5420,24 +5740,24 @@
         <v>0</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" s="12"/>
       <c r="L31" s="13"/>
       <c r="M31" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D32" s="12"/>
       <c r="L32" s="13"/>
@@ -5446,7 +5766,7 @@
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D33" s="12"/>
       <c r="L33" s="13"/>
@@ -5455,7 +5775,7 @@
     <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" s="12"/>
       <c r="L34" s="13"/>
@@ -5464,7 +5784,7 @@
     <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D35" s="12"/>
       <c r="L35" s="13"/>
@@ -5473,7 +5793,7 @@
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D36" s="12"/>
       <c r="L36" s="13"/>
@@ -5482,7 +5802,7 @@
     <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" s="12">
         <v>0.25</v>
@@ -5506,7 +5826,7 @@
     <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
       <c r="C39" s="57" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D39" s="12">
         <v>0</v>
@@ -5520,7 +5840,7 @@
     <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="C40" s="49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D40" s="12"/>
       <c r="L40" s="13"/>
@@ -5529,7 +5849,7 @@
     <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="C41" s="49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D41" s="12"/>
       <c r="L41" s="13"/>
@@ -5538,7 +5858,7 @@
     <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D42" s="12"/>
       <c r="L42" s="13"/>
@@ -5547,7 +5867,7 @@
     <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="C43" s="49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D43" s="12"/>
       <c r="L43" s="13"/>
@@ -5556,7 +5876,7 @@
     <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="12"/>
       <c r="L44" s="13"/>
@@ -5565,7 +5885,7 @@
     <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="49" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="12"/>
       <c r="L45" s="13"/>
@@ -5574,7 +5894,7 @@
     <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="C46" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46" s="12">
         <v>0.25</v>
@@ -5598,7 +5918,7 @@
     <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" s="49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D48" s="12">
         <v>4</v>
@@ -5621,7 +5941,7 @@
     <row r="49" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
       <c r="C49" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D49" s="12">
         <v>1</v>
@@ -5634,13 +5954,13 @@
         <v>1</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
@@ -5659,7 +5979,7 @@
         <v>1.5</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5781,17 +6101,17 @@
     </row>
     <row r="2" spans="2:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
       <c r="L2" s="28"/>
       <c r="M2" s="32"/>
     </row>
@@ -5803,19 +6123,19 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
+      <c r="B4" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5826,31 +6146,31 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
+      <c r="B6" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="28"/>
       <c r="M7" s="32"/>
     </row>
@@ -5907,7 +6227,7 @@
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="12">
         <v>1.5</v>
@@ -5930,10 +6250,10 @@
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D12" s="12"/>
       <c r="G12" s="1">
@@ -5944,13 +6264,13 @@
         <v>3.5</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="49" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D13" s="12"/>
       <c r="L13" s="13"/>
@@ -5959,7 +6279,7 @@
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D14" s="12"/>
       <c r="L14" s="13"/>
@@ -5968,7 +6288,7 @@
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13"/>
@@ -5977,7 +6297,7 @@
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D16" s="12"/>
       <c r="L16" s="13"/>
@@ -5992,10 +6312,10 @@
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -6021,7 +6341,7 @@
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D19" s="12"/>
       <c r="L19" s="13">
@@ -6029,13 +6349,13 @@
         <v>0</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D20" s="12"/>
       <c r="L20" s="13">
@@ -6047,7 +6367,7 @@
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D21" s="12"/>
       <c r="L21" s="13">
@@ -6055,13 +6375,13 @@
         <v>0</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="12"/>
       <c r="L22" s="13"/>
@@ -6076,10 +6396,10 @@
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D24" s="12"/>
       <c r="J24" s="1">
@@ -6093,13 +6413,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="49" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D25" s="12"/>
       <c r="L25" s="13"/>
@@ -6108,7 +6428,7 @@
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="62" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D26" s="12"/>
       <c r="L26" s="13"/>
@@ -6123,10 +6443,10 @@
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D28" s="12">
         <v>5</v>
@@ -6146,7 +6466,7 @@
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D29" s="12"/>
       <c r="L29" s="13">
@@ -6154,13 +6474,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D30" s="12"/>
       <c r="L30" s="13">
@@ -6172,7 +6492,7 @@
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D31" s="12"/>
       <c r="L31" s="13">
@@ -6184,7 +6504,7 @@
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" s="12"/>
       <c r="L32" s="13">
@@ -6203,7 +6523,7 @@
     <row r="34" spans="2:13" s="1" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="49" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D34" s="12"/>
       <c r="G34" s="1">
@@ -6211,7 +6531,7 @@
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6224,7 +6544,7 @@
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D36" s="12">
         <v>6</v>
@@ -6251,7 +6571,7 @@
     <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D38" s="12">
         <v>5</v>
@@ -6271,7 +6591,7 @@
     <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="C40" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
@@ -6285,7 +6605,7 @@
     <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="C41" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D41" s="12">
         <v>1.5</v>
@@ -6412,17 +6732,17 @@
   <sheetData>
     <row r="1" spans="2:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -6434,19 +6754,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="B3" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6457,31 +6777,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
+      <c r="B5" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -6538,7 +6858,7 @@
     <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12">
         <v>1.5</v>
@@ -6567,10 +6887,10 @@
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
@@ -6605,10 +6925,10 @@
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D13" s="12">
         <v>6</v>
@@ -6630,7 +6950,7 @@
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="28"/>
@@ -6645,7 +6965,7 @@
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="28"/>
@@ -6660,7 +6980,7 @@
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="28"/>
@@ -6675,7 +6995,7 @@
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="28"/>
@@ -6708,10 +7028,10 @@
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D19" s="12">
         <v>10</v>
@@ -6735,7 +7055,7 @@
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="28"/>
@@ -6750,7 +7070,7 @@
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="28"/>
@@ -6765,7 +7085,7 @@
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="28"/>
@@ -6780,7 +7100,7 @@
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="49" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="28"/>
@@ -6795,7 +7115,7 @@
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="28"/>
@@ -6810,7 +7130,7 @@
     <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="49" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="28"/>
@@ -6825,7 +7145,7 @@
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="28"/>
@@ -6858,10 +7178,10 @@
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="28"/>
@@ -6878,13 +7198,13 @@
         <v>3</v>
       </c>
       <c r="M28" s="63" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="49" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="28"/>
@@ -6900,7 +7220,7 @@
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="28"/>
@@ -6916,7 +7236,7 @@
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="49" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="28"/>
@@ -6931,7 +7251,7 @@
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="49" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="28"/>
@@ -6946,7 +7266,7 @@
     <row r="33" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="28"/>
@@ -6973,7 +7293,7 @@
     <row r="35" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D35" s="12">
         <v>2</v>
@@ -6984,7 +7304,7 @@
     <row r="36" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -8135,17 +8455,17 @@
   <sheetData>
     <row r="1" spans="2:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -8157,19 +8477,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="B3" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8180,31 +8500,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
+      <c r="B5" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -8247,7 +8567,7 @@
     <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="12">
         <v>1.5</v>
@@ -8270,10 +8590,10 @@
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D10" s="12">
         <v>2</v>
@@ -8290,7 +8610,7 @@
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="49" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D11" s="12"/>
       <c r="L11" s="13"/>
@@ -8299,7 +8619,7 @@
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D12" s="12"/>
       <c r="L12" s="13"/>
@@ -8308,7 +8628,7 @@
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13" s="12"/>
       <c r="L13" s="13"/>
@@ -8317,7 +8637,7 @@
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D14" s="12"/>
       <c r="L14" s="13"/>
@@ -8326,7 +8646,7 @@
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13"/>
@@ -8335,7 +8655,7 @@
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="12"/>
       <c r="L16" s="13"/>
@@ -8350,10 +8670,10 @@
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" s="12">
         <v>6</v>
@@ -8370,7 +8690,7 @@
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="12"/>
       <c r="L19" s="13"/>
@@ -8379,7 +8699,7 @@
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="12"/>
       <c r="L20" s="13"/>
@@ -8388,7 +8708,7 @@
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="12"/>
       <c r="L21" s="13"/>
@@ -8397,7 +8717,7 @@
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="12"/>
       <c r="L22" s="13"/>
@@ -8412,10 +8732,10 @@
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D24" s="12">
         <v>6</v>
@@ -8432,7 +8752,7 @@
     <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="69"/>
       <c r="C25" s="49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="12"/>
       <c r="L25" s="13"/>
@@ -8441,7 +8761,7 @@
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="12"/>
       <c r="L26" s="13"/>
@@ -8450,7 +8770,7 @@
     <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" s="12"/>
       <c r="L27" s="13"/>
@@ -8459,7 +8779,7 @@
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" s="12"/>
       <c r="L28" s="13"/>
@@ -8474,10 +8794,10 @@
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="73" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D30" s="12"/>
       <c r="F30" s="1">
@@ -8494,15 +8814,15 @@
         <v>8.5</v>
       </c>
       <c r="M30" s="67" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="73" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D31" s="12"/>
       <c r="H31" s="1">
@@ -8519,10 +8839,10 @@
     </row>
     <row r="32" spans="2:13" s="70" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="73" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1"/>
@@ -8541,10 +8861,10 @@
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="73" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D33" s="12"/>
       <c r="H33" s="1">
@@ -8558,10 +8878,10 @@
     </row>
     <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D34" s="12"/>
       <c r="I34" s="1">
@@ -8580,7 +8900,7 @@
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="69"/>
       <c r="C36" s="49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D36" s="12">
         <v>5</v>
@@ -8601,7 +8921,7 @@
     <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D38" s="12">
         <v>2</v>
@@ -8618,7 +8938,7 @@
     <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
       <c r="C39" s="35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D39" s="12">
         <v>1</v>
@@ -8708,7 +9028,7 @@
     </row>
     <row r="43" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="27"/>

--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TotalTid" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="290">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -1015,9 +1015,6 @@
     <t>Färg bakgrund på sida, i rutor. Färg och typsnitt på tecken. Färg meddelanden. Header med logga. Utseende på knappar.</t>
   </si>
   <si>
-    <t>Var ska funkgionalitet ligga.</t>
-  </si>
-  <si>
     <t>Layouten på ul för visning av sparade mallar</t>
   </si>
   <si>
@@ -1025,6 +1022,15 @@
   </si>
   <si>
     <t>Sprint 6 (Construction): 26 maj – 1 juni</t>
+  </si>
+  <si>
+    <t>Var ska funkgionalitet ligga. Dölja lista sparade mallar tillagd.</t>
+  </si>
+  <si>
+    <t>Gjorde knapp för att dölja lista med sparade mallar</t>
+  </si>
+  <si>
+    <t>Funderat på protokoll samt gjort lite explorativ testning. Hur dokumenterar man det på ett bra sätt…?</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1351,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1506,6 +1512,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1845,7 +1852,7 @@
       <c r="H2" s="4"/>
       <c r="L2" s="28">
         <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L67+'Sprint 7'!L21</f>
-        <v>201.5</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1856,7 +1863,7 @@
       </c>
       <c r="L3" s="28">
         <f>+L1-L2</f>
-        <v>38.5</v>
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
@@ -1873,10 +1880,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
-      <selection pane="topRight" activeCell="M64" sqref="M64"/>
+      <selection pane="topRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1898,14 +1905,14 @@
         <v>22</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -1918,19 +1925,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1941,31 +1948,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -2801,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2813,7 +2820,7 @@
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="41.625" style="55" customWidth="1"/>
+    <col min="13" max="13" width="62.375" style="55" customWidth="1"/>
     <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
     <col min="1024" max="16384" width="9" style="55"/>
   </cols>
@@ -2821,17 +2828,17 @@
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
       <c r="B1" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="28"/>
       <c r="M1" s="55"/>
     </row>
@@ -2844,19 +2851,19 @@
       <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2867,31 +2874,31 @@
       <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
       <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="28"/>
       <c r="M6" s="74"/>
     </row>
@@ -2939,16 +2946,18 @@
       <c r="D8" s="12">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="13">
         <f t="shared" ref="L8:L16" si="0">+SUM(E8:K8)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M8" s="74"/>
     </row>
@@ -2956,13 +2965,13 @@
       <c r="B9" s="29"/>
       <c r="C9" s="35"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="13"/>
       <c r="M9" s="74"/>
     </row>
@@ -2974,16 +2983,20 @@
       <c r="D10" s="12">
         <v>2</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M10" s="74"/>
     </row>
@@ -2995,16 +3008,18 @@
       <c r="D11" s="12">
         <v>3</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="74"/>
     </row>
@@ -3012,13 +3027,13 @@
       <c r="B12" s="69"/>
       <c r="C12" s="56"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="13"/>
       <c r="M12" s="74"/>
     </row>
@@ -3032,16 +3047,18 @@
       <c r="D13" s="12">
         <v>2</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="32" t="s">
         <v>279</v>
@@ -3057,19 +3074,23 @@
       <c r="D14" s="12">
         <v>4</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M14" s="74" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
@@ -3082,16 +3103,20 @@
       <c r="D15" s="12">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M15" s="32" t="s">
         <v>283</v>
@@ -3099,42 +3124,33 @@
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="12">
         <v>0.5</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="74"/>
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="84" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="73"/>
       <c r="C17" s="76"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
       <c r="L17" s="13"/>
       <c r="M17" s="74"/>
     </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="35" t="s">
         <v>82</v>
@@ -3142,11 +3158,16 @@
       <c r="D18" s="12">
         <v>6</v>
       </c>
+      <c r="G18" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L18" s="13">
-        <f t="shared" ref="L18:L21" si="1">+SUM(E18:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="74"/>
+        <f t="shared" ref="L18:L20" si="1">+SUM(E18:K18)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
@@ -3156,9 +3177,15 @@
       <c r="D19" s="12">
         <v>1</v>
       </c>
+      <c r="E19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L19" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="M19" s="74"/>
     </row>
@@ -3183,37 +3210,37 @@
         <f>+SUM(D8:D20)</f>
         <v>26.5</v>
       </c>
-      <c r="E21" s="15">
-        <f>+SUM(E18:E20)</f>
+      <c r="E21" s="16">
+        <f t="shared" ref="E21:K21" si="2">+SUM(E8:E20)</f>
+        <v>6.25</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F21" s="15">
-        <f>+SUM(F18:F20)</f>
+      <c r="I21" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="15">
-        <f>+SUM(G18:G20)</f>
+      <c r="J21" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="15">
-        <f>+SUM(H18:H20)</f>
+      <c r="K21" s="16">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="15">
-        <f>+SUM(I18:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="15">
-        <f>+SUM(J18:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="15">
-        <f>+SUM(K18:K20)</f>
-        <v>0</v>
-      </c>
       <c r="L21" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>+SUM(E21:K21)</f>
+        <v>15</v>
       </c>
       <c r="M21" s="74"/>
     </row>
@@ -3279,14 +3306,14 @@
         <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -3295,19 +3322,19 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -3316,29 +3343,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -3939,14 +3966,14 @@
         <v>4</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3956,19 +3983,19 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -3977,19 +4004,19 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
@@ -4176,14 +4203,14 @@
         <v>14</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="3"/>
       <c r="M1" s="46"/>
     </row>
@@ -4195,19 +4222,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4218,32 +4245,32 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46"/>
     </row>
@@ -4510,15 +4537,15 @@
         <v>16</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
       <c r="M1" s="28"/>
       <c r="N1" s="46"/>
     </row>
@@ -4531,20 +4558,20 @@
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4556,33 +4583,33 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
       <c r="M6" s="28"/>
       <c r="N6" s="46"/>
     </row>
@@ -5299,7 +5326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
@@ -5321,14 +5348,14 @@
         <v>18</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -5340,19 +5367,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5363,31 +5390,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -6104,14 +6131,14 @@
         <v>19</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
       <c r="L2" s="28"/>
       <c r="M2" s="32"/>
     </row>
@@ -6123,19 +6150,19 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6146,31 +6173,31 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="28"/>
       <c r="M7" s="32"/>
     </row>
@@ -6735,14 +6762,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -6754,19 +6781,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6777,31 +6804,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -8437,7 +8464,7 @@
   <dimension ref="A1:AMI43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B18" sqref="B18:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8458,14 +8485,14 @@
         <v>20</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -8477,19 +8504,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8500,31 +8527,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>

--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="291">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -978,9 +978,6 @@
     <t xml:space="preserve">Färgval /estetisk utformning- "grundsida" . </t>
   </si>
   <si>
-    <t>Marginaler. Placeringar för helheten av funktionalitet, delar av header …</t>
-  </si>
-  <si>
     <t>Vet inte hur man bedömer det här… Har gjort massor av test i olika ordning under tiden jag kodar men inte några i förväg bestämda sekvenser som dokumenterats.</t>
   </si>
   <si>
@@ -1012,9 +1009,6 @@
     </r>
   </si>
   <si>
-    <t>Färg bakgrund på sida, i rutor. Färg och typsnitt på tecken. Färg meddelanden. Header med logga. Utseende på knappar.</t>
-  </si>
-  <si>
     <t>Layouten på ul för visning av sparade mallar</t>
   </si>
   <si>
@@ -1031,6 +1025,15 @@
   </si>
   <si>
     <t>Funderat på protokoll samt gjort lite explorativ testning. Hur dokumenterar man det på ett bra sätt…?</t>
+  </si>
+  <si>
+    <t>Färg bakgrund på sida, i rutor. Färg och typsnitt på tecken. Färg meddelanden. Header med logga. Utseende på knappar. Header.</t>
+  </si>
+  <si>
+    <t>Marginaler. Placeringar för helheten av funktionalitet, header</t>
+  </si>
+  <si>
+    <t>Rättningar, testfall och tester av fel upptäckta i test</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1354,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1513,11 +1516,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -1851,8 +1856,8 @@
       </c>
       <c r="H2" s="4"/>
       <c r="L2" s="28">
-        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L67+'Sprint 7'!L21</f>
-        <v>216.5</v>
+        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L67+'Sprint 7'!L22</f>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1863,7 +1868,7 @@
       </c>
       <c r="L3" s="28">
         <f>+L1-L2</f>
-        <v>23.5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1905,14 +1910,14 @@
         <v>22</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -1925,19 +1930,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1948,31 +1953,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -2694,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2806,10 +2811,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI24"/>
+  <dimension ref="A1:AMI25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2828,17 +2833,17 @@
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55"/>
       <c r="B1" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="28"/>
       <c r="M1" s="55"/>
     </row>
@@ -2851,19 +2856,19 @@
       <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="B3" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2874,31 +2879,31 @@
       <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="B5" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="28"/>
       <c r="M6" s="74"/>
     </row>
@@ -2956,7 +2961,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="13">
-        <f t="shared" ref="L8:L16" si="0">+SUM(E8:K8)</f>
+        <f t="shared" ref="L8:L17" si="0">+SUM(E8:K8)</f>
         <v>0.75</v>
       </c>
       <c r="M8" s="74"/>
@@ -3014,94 +3019,89 @@
         <v>1</v>
       </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="74"/>
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="56" t="s">
+        <v>290</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18">
+        <v>2</v>
+      </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
       <c r="L12" s="13"/>
-      <c r="M12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" s="28" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
+      <c r="M12" s="85"/>
+    </row>
+    <row r="13" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="69"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="L13" s="13"/>
+      <c r="M13" s="74"/>
+    </row>
+    <row r="14" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="D14" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="18">
-        <v>2</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
       <c r="K14" s="18"/>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="M14" s="74" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>278</v>
+        <v>207</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>232</v>
       </c>
       <c r="D15" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="18">
         <v>2</v>
@@ -3118,150 +3118,186 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="M15" s="32" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="74" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="28" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B16" s="73" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D16" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.5</v>
+        <v>6</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="K16" s="18">
+        <v>1</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="12">
         <v>0.5</v>
       </c>
-      <c r="M16" s="84" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="73"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="74"/>
-    </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="12">
-        <v>6</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L18" s="13">
-        <f t="shared" ref="L18:L20" si="1">+SUM(E18:K18)</f>
-        <v>1.5</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="84" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="73"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="74"/>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="35" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.25</v>
+        <v>6</v>
       </c>
       <c r="G19" s="1">
         <v>1.5</v>
       </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
       <c r="L19" s="13">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="M19" s="74"/>
+        <f t="shared" ref="L19:L21" si="1">+SUM(E19:K19)</f>
+        <v>4.5</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="35" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.5</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="M20" s="74"/>
+    </row>
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="74"/>
-    </row>
-    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="16">
-        <f>+SUM(D8:D20)</f>
+      <c r="M21" s="74"/>
+    </row>
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="16">
+        <f>+SUM(D8:D21)</f>
         <v>26.5</v>
       </c>
-      <c r="E21" s="16">
-        <f t="shared" ref="E21:K21" si="2">+SUM(E8:E20)</f>
+      <c r="E22" s="16">
+        <f t="shared" ref="E22:K22" si="2">+SUM(E8:E21)</f>
         <v>6.25</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F22" s="16">
         <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G22" s="16">
         <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="H21" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="H22" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I22" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J22" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="K22" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="21">
-        <f>+SUM(E21:K21)</f>
-        <v>15</v>
-      </c>
-      <c r="M21" s="74"/>
-    </row>
-    <row r="22" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="43"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="30"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M23" s="74"/>
+        <v>5</v>
+      </c>
+      <c r="L22" s="21">
+        <f>+SUM(E22:K22)</f>
+        <v>26.5</v>
+      </c>
+      <c r="M22" s="74"/>
+    </row>
+    <row r="23" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="43"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="30"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M24" s="74"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3306,14 +3342,14 @@
         <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -3322,19 +3358,19 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -3343,29 +3379,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -3966,14 +4002,14 @@
         <v>4</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3983,19 +4019,19 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -4004,19 +4040,19 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
@@ -4203,14 +4239,14 @@
         <v>14</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="3"/>
       <c r="M1" s="46"/>
     </row>
@@ -4222,19 +4258,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4245,32 +4281,32 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46"/>
     </row>
@@ -4537,15 +4573,15 @@
         <v>16</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
       <c r="M1" s="28"/>
       <c r="N1" s="46"/>
     </row>
@@ -4558,20 +4594,20 @@
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4583,33 +4619,33 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="28"/>
       <c r="N6" s="46"/>
     </row>
@@ -5348,14 +5384,14 @@
         <v>18</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -5367,19 +5403,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5390,31 +5426,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -6131,14 +6167,14 @@
         <v>19</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="28"/>
       <c r="M2" s="32"/>
     </row>
@@ -6150,19 +6186,19 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6173,31 +6209,31 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
       <c r="L7" s="28"/>
       <c r="M7" s="32"/>
     </row>
@@ -6762,14 +6798,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -6781,19 +6817,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6804,31 +6840,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -8485,14 +8521,14 @@
         <v>20</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -8504,19 +8540,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="87" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8527,31 +8563,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>

--- a/sprintBacklogTime.xlsx
+++ b/sprintBacklogTime.xlsx
@@ -9,28 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="TotalTid" sheetId="12" r:id="rId1"/>
-    <sheet name="Testfall" sheetId="13" r:id="rId2"/>
-    <sheet name="Sprint-1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sprint 0" sheetId="3" r:id="rId4"/>
-    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
-    <sheet name="Sprint 2" sheetId="2" r:id="rId6"/>
-    <sheet name="Sprint 3" sheetId="4" r:id="rId7"/>
-    <sheet name="Sprint 4" sheetId="7" r:id="rId8"/>
-    <sheet name="Sprint 5" sheetId="6" r:id="rId9"/>
-    <sheet name="Sprint 6" sheetId="8" r:id="rId10"/>
-    <sheet name="Sprint 7" sheetId="14" r:id="rId11"/>
-    <sheet name="Avslut_Redovisning" sheetId="10" r:id="rId12"/>
+    <sheet name="Sprint-1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sprint 0" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sprint 3" sheetId="4" r:id="rId6"/>
+    <sheet name="Sprint 4" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint 5" sheetId="6" r:id="rId8"/>
+    <sheet name="Sprint 6" sheetId="8" r:id="rId9"/>
+    <sheet name="Sprint 7" sheetId="14" r:id="rId10"/>
+    <sheet name="Avslut_Redovisning" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="258">
   <si>
     <t>Individuellt Mjukvaruutvecklingsprojekt</t>
   </si>
@@ -104,9 +103,6 @@
     <t>Avslut och redovisning: 2 juni – 8 juni</t>
   </si>
   <si>
-    <t>Färdigställande av dokumentation</t>
-  </si>
-  <si>
     <t>Systemtest och testrapport</t>
   </si>
   <si>
@@ -305,39 +301,6 @@
     <t>Ändrat innehållet i veckans sprint efter handledning.</t>
   </si>
   <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Förväntat resultat</t>
-  </si>
-  <si>
-    <t>Utfall</t>
-  </si>
-  <si>
-    <t>Kod till en html-sida visas i en del av sidan</t>
-  </si>
-  <si>
-    <t>Användaren går in på sidan</t>
-  </si>
-  <si>
-    <t>Användaren laddar om sidan</t>
-  </si>
-  <si>
-    <t>Css-kod visas i en del av sidan</t>
-  </si>
-  <si>
-    <t>En bild av en webbsida såsom den vore i webbläsaren visas i en del av sidan</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>Kommentar/Åtgärd</t>
-  </si>
-  <si>
     <t>Har gjort så att filer kan läsas in med Ajax istället för att hårdkoda i variabler. Tror att det bör underlätta för resultatet att slå igenom.</t>
   </si>
   <si>
@@ -356,60 +319,12 @@
     <t>Det slår igenom i resultatet men jag jag har problem med att iframen inte har laddat när css-koden ska läsas in. Har löst det med timer vilket ger mig två frågor: Är tiden okej? Är timer ett bra sätt eller bör jag göra på annat sätt?</t>
   </si>
   <si>
-    <t>3.1.a</t>
-  </si>
-  <si>
     <t>1f</t>
   </si>
   <si>
     <t>Gick fortare genom att jag läst på och testat i tidigare steg och lagt tid på CodeSchool</t>
   </si>
   <si>
-    <t>Koden är densamma som i HtmlPage.html</t>
-  </si>
-  <si>
-    <t>Css-koden är densamma som i StyleDefault.css</t>
-  </si>
-  <si>
-    <t>html-koden som ger bilden är densamma som den html-kod som visas i sidan (se TF 1)</t>
-  </si>
-  <si>
-    <t>Och css-koden som ger bilden är densamma som den css-kod som visas i sidan (se TF 2)</t>
-  </si>
-  <si>
-    <t>Användaren laddar om sidan tre gånger direkt efter varandra</t>
-  </si>
-  <si>
-    <t>Css-koden är i ett element som är editerbart och det är möjligt att ta bort ett värde på ett attribut och skriva dit ett nytt.</t>
-  </si>
-  <si>
-    <t>Användaren ändrar bodyns bakgrundsfärg till green och trycker uppdatera</t>
-  </si>
-  <si>
-    <t>Användaren ändrar bodyns bakgrundsfärg till "green" och trycker uppdatera</t>
-  </si>
-  <si>
-    <t>Hjälptext som säger att citat-tecken inte ska finnas?</t>
-  </si>
-  <si>
-    <t>Användaren ändrar bodyns bakgrundsfärg till kanin och trycker uppdatera</t>
-  </si>
-  <si>
-    <t>Hjälptext som säger att värdet inte är ett giltigt värde?</t>
-  </si>
-  <si>
-    <t>Användaren ändrar bodyns bakgrundsfärg till #fff och trycker uppdatera</t>
-  </si>
-  <si>
-    <t>Iframens bakgrundsfärg blir grön och attributets värde i style-taggen ändras till inmatat värde.</t>
-  </si>
-  <si>
-    <t>Iframens bakgrundsfärg försvinner d v s samma som index.htmls bakgrundsfärg och attributets värde i style-taggen ändras till inmatat värde.</t>
-  </si>
-  <si>
-    <t>Iframens bakgrundsfärg blir vit och attributets värde i style-taggen ändras till inmatat värde.</t>
-  </si>
-  <si>
     <t>BK3.2 Lägga till css-attribut</t>
   </si>
   <si>
@@ -456,33 +371,6 @@
   </si>
   <si>
     <t>Skriva testfall 1a, 1b, 1c, 1f</t>
-  </si>
-  <si>
-    <t>Användaren skriver in ett nytt css-attribut, color på elementet p,  och ett värde, red,  på attributet i css-koden</t>
-  </si>
-  <si>
-    <t>Användaren skriver in ett nytt css-attribut, color på elementet orvar,  och ett värde, red,  på attributet i css-koden</t>
-  </si>
-  <si>
-    <t>Hjälptext?</t>
-  </si>
-  <si>
-    <t>Textfärgen på alla p-taggar i iframen ändras till röd i resultatrutan och attributet med värde läggs till i style-taggen</t>
-  </si>
-  <si>
-    <t>Användaren väljer att ta bort ett css-attribut</t>
-  </si>
-  <si>
-    <t>Värdet på attributet ärvs från stylen p index.html</t>
-  </si>
-  <si>
-    <t>Har svårt nu att ange ett exakt testfall. Ingen mall är klar och den kan dessutom ha ändrats av användare hur mycket som helst</t>
-  </si>
-  <si>
-    <t>3.2.a</t>
-  </si>
-  <si>
-    <t>3.3.a</t>
   </si>
   <si>
     <t>Scenario: Logga in</t>
@@ -1034,6 +922,18 @@
   </si>
   <si>
     <t>Rättningar, testfall och tester av fel upptäckta i test</t>
+  </si>
+  <si>
+    <t>Post mortem</t>
+  </si>
+  <si>
+    <t>Presentation och redovisning</t>
+  </si>
+  <si>
+    <t>Analys av föregående iteration: Mest testning och justeringar i gränssnittet. Önskar jag hunnit mycket mer där men tiden inom projektveckorna har inte räckt till för mig.</t>
+  </si>
+  <si>
+    <t>Mål: Färdigställa presentation och post mortem.</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1254,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1452,12 +1352,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1517,12 +1411,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -1809,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1856,19 +1750,19 @@
       </c>
       <c r="H2" s="4"/>
       <c r="L2" s="28">
-        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L67+'Sprint 7'!L22</f>
-        <v>228</v>
+        <f>'Sprint-1'!L11+'Sprint 0'!L15+Sprint1!M37+'Sprint 2'!L52+'Sprint 3'!L43+'Sprint 4'!L38+'Sprint 5'!L41+'Sprint 6'!L67+'Sprint 7'!L22+Avslut_Redovisning!L11</f>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="28"/>
       <c r="C3" s="32"/>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" s="28">
         <f>+L1-L2</f>
-        <v>12</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -1883,938 +1777,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI68"/>
-  <sheetViews>
-    <sheetView topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B31" sqref="B31"/>
-      <selection pane="topRight" activeCell="G57" sqref="G57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="72" style="32" customWidth="1"/>
-    <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
-    <col min="1024" max="16384" width="9" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46"/>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="3"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="33"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="28"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="35"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>3</v>
-      </c>
-      <c r="H7" s="9">
-        <v>4</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9">
-        <v>6</v>
-      </c>
-      <c r="K7" s="9">
-        <v>7</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="L9" s="13">
-        <f t="shared" ref="L9:L66" si="0">+SUM(E9:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="69"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="12">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="L11" s="13">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="32"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="32"/>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2</v>
-      </c>
-      <c r="L15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="12">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="L17" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L18" s="13">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="73"/>
-      <c r="C19" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="L20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="L21" s="13">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="73"/>
-      <c r="C22" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="H22" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="L22" s="13">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="M22" s="32"/>
-    </row>
-    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="73"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="12"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="32"/>
-    </row>
-    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="73"/>
-      <c r="C24" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="32"/>
-    </row>
-    <row r="25" spans="2:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="73"/>
-      <c r="C25" s="56" t="s">
-        <v>267</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="H25" s="1">
-        <v>5</v>
-      </c>
-      <c r="L25" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M25" s="32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="73"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="12"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="32"/>
-    </row>
-    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="73"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="12"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="32"/>
-    </row>
-    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="32"/>
-    </row>
-    <row r="29" spans="2:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>236</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="32"/>
-    </row>
-    <row r="30" spans="2:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="83" t="s">
-        <v>253</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="32"/>
-    </row>
-    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="73"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="32"/>
-    </row>
-    <row r="32" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="12">
-        <v>2</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="L32" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M32" s="32" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="12"/>
-      <c r="L33" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="32"/>
-    </row>
-    <row r="34" spans="2:13" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="I34" s="1">
-        <v>4</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="32" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="32"/>
-    </row>
-    <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="L36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="32"/>
-    </row>
-    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="56" t="s">
-        <v>241</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="32"/>
-    </row>
-    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="32"/>
-    </row>
-    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="12"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="32"/>
-    </row>
-    <row r="41" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="12">
-        <v>4</v>
-      </c>
-      <c r="J41" s="1">
-        <v>3</v>
-      </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M41" s="32" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="32"/>
-    </row>
-    <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="F43" s="1">
-        <v>2</v>
-      </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="32"/>
-    </row>
-    <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="32"/>
-    </row>
-    <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
-      <c r="C45" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="32"/>
-    </row>
-    <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="32"/>
-    </row>
-    <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="11"/>
-      <c r="C47" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="32"/>
-    </row>
-    <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="12"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="32"/>
-    </row>
-    <row r="49" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C49" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="32" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C50" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="12">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L50" s="13">
-        <f>+SUM(E50:K50)</f>
-        <v>1</v>
-      </c>
-      <c r="M50" s="32"/>
-    </row>
-    <row r="51" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
-      <c r="C51" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="32"/>
-    </row>
-    <row r="52" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
-      <c r="C52" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="32"/>
-    </row>
-    <row r="53" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="11"/>
-      <c r="C53" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="32"/>
-    </row>
-    <row r="54" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="12"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="32"/>
-    </row>
-    <row r="55" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="12">
-        <v>4</v>
-      </c>
-      <c r="J55" s="1">
-        <v>4</v>
-      </c>
-      <c r="L55" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M55" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="11"/>
-      <c r="C56" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="32"/>
-    </row>
-    <row r="57" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="11"/>
-      <c r="C57" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" s="12"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="32"/>
-    </row>
-    <row r="58" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="11"/>
-      <c r="C58" s="56" t="s">
-        <v>229</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="32"/>
-    </row>
-    <row r="59" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="11"/>
-      <c r="C59" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="32"/>
-    </row>
-    <row r="60" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="11"/>
-      <c r="C60" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="32"/>
-    </row>
-    <row r="61" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="11"/>
-      <c r="C61" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="12"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="32"/>
-    </row>
-    <row r="62" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="11"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="12"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="32"/>
-    </row>
-    <row r="63" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="11"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="12"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="32"/>
-    </row>
-    <row r="64" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B64" s="11"/>
-      <c r="C64" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="12">
-        <v>2</v>
-      </c>
-      <c r="L64" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="11"/>
-      <c r="C65" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="12">
-        <v>1</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K65" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="L65" s="13">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="M65" s="32"/>
-    </row>
-    <row r="66" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="11"/>
-      <c r="C66" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="12">
-        <v>1</v>
-      </c>
-      <c r="K66" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="L66" s="13">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="M66" s="32"/>
-    </row>
-    <row r="67" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="14"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="16">
-        <f>+SUM(D8:D66)</f>
-        <v>31</v>
-      </c>
-      <c r="E67" s="15">
-        <f>+SUM(E8:E66)</f>
-        <v>3</v>
-      </c>
-      <c r="F67" s="15">
-        <f t="shared" ref="F67:K67" si="1">+SUM(F8:F66)</f>
-        <v>2</v>
-      </c>
-      <c r="G67" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="15">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I67" s="15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J67" s="15">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="K67" s="15">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L67" s="21">
-        <f t="shared" ref="L67" si="2">+SUM(E67:K67)</f>
-        <v>33.5</v>
-      </c>
-      <c r="M67" s="32"/>
-    </row>
-    <row r="68" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="43"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B5:L5"/>
-  </mergeCells>
-  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CSida &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2825,87 +1791,87 @@
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
-    <col min="13" max="13" width="62.375" style="55" customWidth="1"/>
+    <col min="13" max="13" width="62.375" style="51" customWidth="1"/>
     <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
-    <col min="1024" max="16384" width="9" style="55"/>
+    <col min="1024" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
+      <c r="A1" s="51"/>
       <c r="B1" s="5" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="28"/>
-      <c r="M1" s="55"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="55"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="32"/>
       <c r="D2" s="3"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="74"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="74"/>
+      <c r="B3" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="70"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
       <c r="D4" s="3"/>
       <c r="E4" s="28"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="74"/>
+      <c r="M4" s="70"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="74"/>
+      <c r="B5" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="74"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -2941,7 +1907,7 @@
       <c r="L7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="74"/>
+      <c r="M7" s="70"/>
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
@@ -2964,7 +1930,7 @@
         <f t="shared" ref="L8:L17" si="0">+SUM(E8:K8)</f>
         <v>0.75</v>
       </c>
-      <c r="M8" s="74"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
@@ -2978,12 +1944,12 @@
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="74"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="69"/>
-      <c r="C10" s="56" t="s">
-        <v>276</v>
+      <c r="B10" s="65"/>
+      <c r="C10" s="52" t="s">
+        <v>239</v>
       </c>
       <c r="D10" s="12">
         <v>2</v>
@@ -3003,12 +1969,12 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="M10" s="74"/>
+      <c r="M10" s="70"/>
     </row>
     <row r="11" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
-      <c r="C11" s="56" t="s">
-        <v>277</v>
+      <c r="C11" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="D11" s="12">
         <v>3</v>
@@ -3028,12 +1994,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M11" s="74"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="89"/>
-      <c r="C12" s="56" t="s">
-        <v>290</v>
+      <c r="B12" s="82"/>
+      <c r="C12" s="52" t="s">
+        <v>253</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="18"/>
@@ -3048,11 +2014,11 @@
         <v>1</v>
       </c>
       <c r="L12" s="13"/>
-      <c r="M12" s="85"/>
+      <c r="M12" s="81"/>
     </row>
     <row r="13" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="12"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -3062,14 +2028,14 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="74"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>206</v>
+      <c r="B14" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>169</v>
       </c>
       <c r="D14" s="12">
         <v>2</v>
@@ -3090,15 +2056,15 @@
         <v>2</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>232</v>
+      <c r="B15" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>195</v>
       </c>
       <c r="D15" s="12">
         <v>4</v>
@@ -3118,16 +2084,16 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="M15" s="74" t="s">
-        <v>285</v>
+      <c r="M15" s="70" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="28" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>278</v>
+      <c r="B16" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>241</v>
       </c>
       <c r="D16" s="12">
         <v>6</v>
@@ -3152,15 +2118,15 @@
         <v>7</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="73" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>282</v>
+      <c r="B17" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>245</v>
       </c>
       <c r="D17" s="12">
         <v>0.5</v>
@@ -3172,21 +2138,21 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M17" s="84" t="s">
-        <v>286</v>
+      <c r="M17" s="80" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="12"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="74"/>
+      <c r="M18" s="70"/>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -3202,13 +2168,13 @@
         <v>4.5</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
@@ -3223,7 +2189,7 @@
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
-      <c r="M20" s="74"/>
+      <c r="M20" s="70"/>
     </row>
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
@@ -3237,7 +2203,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="74"/>
+      <c r="M21" s="70"/>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
@@ -3278,7 +2244,7 @@
         <f>+SUM(E22:K22)</f>
         <v>26.5</v>
       </c>
-      <c r="M22" s="74"/>
+      <c r="M22" s="70"/>
     </row>
     <row r="23" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
@@ -3294,10 +2260,10 @@
       <c r="M23" s="30"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="74"/>
+      <c r="M24" s="70"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M25" s="74"/>
+      <c r="M25" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3315,12 +2281,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3342,14 +2308,14 @@
         <v>23</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -3357,20 +2323,20 @@
       <c r="C2" s="32"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+    <row r="3" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -3379,29 +2345,29 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
+      <c r="B5" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
@@ -3441,37 +2407,51 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="35" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="I8" s="28">
+        <v>5</v>
+      </c>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
-      <c r="L8" s="13"/>
+      <c r="L8" s="13">
+        <f>SUM(E8:K8)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="35" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="13"/>
+      <c r="L9" s="13">
+        <f>SUM(E9:K9)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="28"/>
@@ -3486,35 +2466,35 @@
       </c>
       <c r="E11" s="16">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="I11" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="16">
+      <c r="K11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L11" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M11" s="30"/>
     </row>
@@ -3549,439 +2529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G43"/>
-  <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="525" activePane="bottomLeft"/>
-      <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.125" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="80.875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="9" style="50" customWidth="1"/>
-    <col min="7" max="7" width="75.375" style="32" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="50"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="53">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="18">
-        <v>2</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="18">
-        <v>2</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="53">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="18">
-        <v>1</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="18">
-        <v>2</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="18">
-        <v>1</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="18">
-        <v>2</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="53">
-        <v>3</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="18">
-        <v>1</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E21" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E22" s="40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="54" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="D23" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="53">
-        <v>4</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="50">
-        <v>2</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D28" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D29" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D30" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="D31" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="54" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="D32" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" spans="1:7" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="56"/>
-      <c r="G33" s="32"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="53">
-        <v>5</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="50">
-        <v>2</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D35" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D36" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="32"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="53">
-        <v>6</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="50">
-        <v>2</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D39" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="D41" s="56"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="D42" s="56"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="D43" s="56"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4002,14 +2553,14 @@
         <v>4</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4019,19 +2570,19 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" s="33"/>
@@ -4040,19 +2591,19 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
     </row>
     <row r="6" spans="2:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="33"/>
@@ -4213,7 +2764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI16"/>
   <sheetViews>
@@ -4239,14 +2790,14 @@
         <v>14</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="3"/>
       <c r="M1" s="46"/>
     </row>
@@ -4258,19 +2809,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="B3" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4281,32 +2832,32 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
+      <c r="B5" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="3"/>
       <c r="M6" s="46"/>
     </row>
@@ -4349,7 +2900,7 @@
     <row r="8" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="3"/>
@@ -4365,7 +2916,7 @@
     <row r="9" spans="2:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="12">
         <v>7</v>
@@ -4392,7 +2943,7 @@
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="12">
         <v>7</v>
@@ -4431,13 +2982,13 @@
         <v>0.5</v>
       </c>
       <c r="M11" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="12">
         <v>4</v>
@@ -4453,7 +3004,7 @@
         <v>3.5</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4469,7 +3020,7 @@
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -4547,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
@@ -4573,15 +3124,15 @@
         <v>16</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
       <c r="M1" s="28"/>
       <c r="N1" s="46"/>
     </row>
@@ -4594,20 +3145,20 @@
       <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4619,33 +3170,33 @@
       <c r="N4" s="46"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="B5" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
       <c r="N5" s="46"/>
     </row>
     <row r="6" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
       <c r="M6" s="28"/>
       <c r="N6" s="46"/>
     </row>
@@ -4660,7 +3211,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
@@ -4691,7 +3242,7 @@
     <row r="8" spans="2:14" s="28" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="12">
         <v>1.5</v>
@@ -4731,10 +3282,10 @@
     </row>
     <row r="10" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -4751,7 +3302,7 @@
     <row r="11" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
@@ -4777,7 +3328,7 @@
     <row r="12" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="12">
         <v>2</v>
@@ -4799,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4822,7 +3373,7 @@
     <row r="14" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4839,7 +3390,7 @@
     <row r="15" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="12">
         <v>3</v>
@@ -4865,13 +3416,13 @@
         <v>5.5</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -4888,7 +3439,7 @@
     <row r="17" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="12">
         <v>1</v>
@@ -4908,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4928,10 +3479,10 @@
     </row>
     <row r="19" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -4948,7 +3499,7 @@
     <row r="20" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="12">
         <v>3</v>
@@ -4966,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -4989,7 +3540,7 @@
     <row r="22" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="12">
         <v>5</v>
@@ -5013,13 +3564,13 @@
         <v>5</v>
       </c>
       <c r="N22" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -5036,7 +3587,7 @@
     <row r="24" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -5056,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5076,10 +3627,10 @@
     </row>
     <row r="26" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -5096,7 +3647,7 @@
     <row r="27" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -5113,7 +3664,7 @@
     <row r="28" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12">
@@ -5134,7 +3685,7 @@
     <row r="29" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12">
@@ -5155,7 +3706,7 @@
     <row r="30" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12">
@@ -5176,7 +3727,7 @@
     <row r="31" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12">
@@ -5225,7 +3776,7 @@
     <row r="34" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
@@ -5238,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -5266,7 +3817,7 @@
         <v>3.5</v>
       </c>
       <c r="N35" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5358,7 +3909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI53"/>
   <sheetViews>
@@ -5384,14 +3935,14 @@
         <v>18</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="28"/>
       <c r="M1" s="32"/>
     </row>
@@ -5403,19 +3954,19 @@
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="B3" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5426,31 +3977,31 @@
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
+      <c r="B5" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="28"/>
       <c r="M6" s="32"/>
     </row>
@@ -5530,10 +4081,10 @@
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D11" s="12">
         <v>2</v>
@@ -5559,10 +4110,10 @@
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D13" s="12">
         <v>2</v>
@@ -5578,7 +4129,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5590,10 +4141,10 @@
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>83</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>84</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13"/>
@@ -5602,7 +4153,7 @@
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="12"/>
       <c r="L16" s="13"/>
@@ -5611,7 +4162,7 @@
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="12"/>
       <c r="L17" s="13"/>
@@ -5620,7 +4171,7 @@
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="12">
         <v>2</v>
@@ -5636,13 +4187,13 @@
         <v>3</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="49" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D19" s="12">
         <v>2</v>
@@ -5655,13 +4206,13 @@
         <v>2</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="12">
         <v>0.5</v>
@@ -5675,7 +4226,7 @@
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="12"/>
       <c r="L21" s="13"/>
@@ -5684,7 +4235,7 @@
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D22" s="12">
         <v>1.5</v>
@@ -5701,7 +4252,7 @@
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="12">
         <v>4</v>
@@ -5721,7 +4272,7 @@
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="12"/>
       <c r="L24" s="13"/>
@@ -5730,7 +4281,7 @@
     <row r="25" spans="2:13" s="1" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="12">
         <v>2</v>
@@ -5743,13 +4294,13 @@
         <v>1.5</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="12">
         <v>0.5</v>
@@ -5772,8 +4323,8 @@
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
-      <c r="C28" s="58" t="s">
-        <v>137</v>
+      <c r="C28" s="54" t="s">
+        <v>109</v>
       </c>
       <c r="D28" s="12"/>
       <c r="L28" s="13"/>
@@ -5781,19 +4332,19 @@
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
-      <c r="C29" s="57" t="s">
-        <v>126</v>
+      <c r="C29" s="53" t="s">
+        <v>98</v>
       </c>
       <c r="D29" s="12"/>
       <c r="L29" s="13"/>
       <c r="M29" s="32" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="49" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D30" s="12">
         <v>0</v>
@@ -5803,24 +4354,24 @@
         <v>0</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="12"/>
       <c r="L31" s="13"/>
       <c r="M31" s="32" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="49" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="D32" s="12"/>
       <c r="L32" s="13"/>
@@ -5829,7 +4380,7 @@
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="49" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D33" s="12"/>
       <c r="L33" s="13"/>
@@ -5838,7 +4389,7 @@
     <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="12"/>
       <c r="L34" s="13"/>
@@ -5847,7 +4398,7 @@
     <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="49" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="D35" s="12"/>
       <c r="L35" s="13"/>
@@ -5856,7 +4407,7 @@
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="49" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D36" s="12"/>
       <c r="L36" s="13"/>
@@ -5865,7 +4416,7 @@
     <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="12">
         <v>0.25</v>
@@ -5888,8 +4439,8 @@
     </row>
     <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
-      <c r="C39" s="57" t="s">
-        <v>132</v>
+      <c r="C39" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="D39" s="12">
         <v>0</v>
@@ -5903,7 +4454,7 @@
     <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="C40" s="49" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D40" s="12"/>
       <c r="L40" s="13"/>
@@ -5912,7 +4463,7 @@
     <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="C41" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="12"/>
       <c r="L41" s="13"/>
@@ -5921,7 +4472,7 @@
     <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="49" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="D42" s="12"/>
       <c r="L42" s="13"/>
@@ -5930,7 +4481,7 @@
     <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="C43" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="12"/>
       <c r="L43" s="13"/>
@@ -5939,7 +4490,7 @@
     <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="49" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D44" s="12"/>
       <c r="L44" s="13"/>
@@ -5948,7 +4499,7 @@
     <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="49" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D45" s="12"/>
       <c r="L45" s="13"/>
@@ -5957,7 +4508,7 @@
     <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="C46" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="12">
         <v>0.25</v>
@@ -5981,7 +4532,7 @@
     <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="12">
         <v>4</v>
@@ -6004,7 +4555,7 @@
     <row r="49" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
       <c r="C49" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" s="12">
         <v>1</v>
@@ -6017,13 +4568,13 @@
         <v>1</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
@@ -6042,7 +4593,7 @@
         <v>1.5</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6128,7 +4679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI44"/>
   <sheetViews>
@@ -6167,14 +4718,14 @@
         <v>19</v>
       </c>
       <c r="C2" s="32"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="28"/>
       <c r="M2" s="32"/>
     </row>
@@ -6186,19 +4737,19 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
+      <c r="B4" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
       <c r="M4" s="32"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6209,31 +4760,31 @@
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
+      <c r="B6" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="35"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="28"/>
       <c r="M7" s="32"/>
     </row>
@@ -6313,10 +4864,10 @@
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D12" s="12"/>
       <c r="G12" s="1">
@@ -6327,13 +4878,13 @@
         <v>3.5</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="49" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="D13" s="12"/>
       <c r="L13" s="13"/>
@@ -6342,7 +4893,7 @@
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="D14" s="12"/>
       <c r="L14" s="13"/>
@@ -6351,7 +4902,7 @@
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="49" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13"/>
@@ -6359,8 +4910,8 @@
     </row>
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="59" t="s">
-        <v>169</v>
+      <c r="C16" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="D16" s="12"/>
       <c r="L16" s="13"/>
@@ -6375,10 +4926,10 @@
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -6404,7 +4955,7 @@
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="49" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="D19" s="12"/>
       <c r="L19" s="13">
@@ -6412,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D20" s="12"/>
       <c r="L20" s="13">
@@ -6430,7 +4981,7 @@
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="D21" s="12"/>
       <c r="L21" s="13">
@@ -6438,13 +4989,13 @@
         <v>0</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="12"/>
       <c r="L22" s="13"/>
@@ -6459,10 +5010,10 @@
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="D24" s="12"/>
       <c r="J24" s="1">
@@ -6476,13 +5027,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="49" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D25" s="12"/>
       <c r="L25" s="13"/>
@@ -6490,8 +5041,8 @@
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
-      <c r="C26" s="62" t="s">
-        <v>186</v>
+      <c r="C26" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="D26" s="12"/>
       <c r="L26" s="13"/>
@@ -6506,10 +5057,10 @@
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D28" s="12">
         <v>5</v>
@@ -6529,7 +5080,7 @@
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="49" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="D29" s="12"/>
       <c r="L29" s="13">
@@ -6537,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="49" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D30" s="12"/>
       <c r="L30" s="13">
@@ -6555,7 +5106,7 @@
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="49" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D31" s="12"/>
       <c r="L31" s="13">
@@ -6567,7 +5118,7 @@
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="12"/>
       <c r="L32" s="13">
@@ -6586,7 +5137,7 @@
     <row r="34" spans="2:13" s="1" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="49" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D34" s="12"/>
       <c r="G34" s="1">
@@ -6594,7 +5145,7 @@
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="32" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6607,7 +5158,7 @@
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="35" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="D36" s="12">
         <v>6</v>
@@ -6634,7 +5185,7 @@
     <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="49" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="D38" s="12">
         <v>5</v>
@@ -6654,7 +5205,7 @@
     <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="C40" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
@@ -6668,7 +5219,7 @@
     <row r="41" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="C41" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="12">
         <v>1.5</v>
@@ -6772,7 +5323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI40"/>
   <sheetViews>
@@ -6798,14 +5349,14 @@
         <v>21</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -6817,19 +5368,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="B3" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6840,31 +5391,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
+      <c r="B5" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -6905,8 +5456,8 @@
       <c r="M7" s="46"/>
     </row>
     <row r="8" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="12"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -6916,7 +5467,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="18"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="61"/>
+      <c r="M8" s="57"/>
     </row>
     <row r="9" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
@@ -6950,10 +5501,10 @@
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
@@ -6971,7 +5522,7 @@
         <f t="shared" ref="L11:L19" si="0">+SUM(E11:K11)</f>
         <v>1</v>
       </c>
-      <c r="M11" s="60"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
@@ -6984,14 +5535,14 @@
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="60"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="D13" s="12">
         <v>6</v>
@@ -7008,12 +5559,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M13" s="60"/>
+      <c r="M13" s="56"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="28"/>
@@ -7023,12 +5574,12 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="60"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="49" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="28"/>
@@ -7038,12 +5589,12 @@
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="60"/>
+      <c r="M15" s="56"/>
     </row>
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="49" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="28"/>
@@ -7053,12 +5604,12 @@
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="60"/>
+      <c r="M16" s="56"/>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="28"/>
@@ -7074,7 +5625,7 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M17" s="60"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
@@ -7087,14 +5638,14 @@
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="60"/>
+      <c r="M18" s="56"/>
     </row>
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="D19" s="12">
         <v>10</v>
@@ -7113,12 +5664,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M19" s="60"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="28"/>
@@ -7128,12 +5679,12 @@
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="60"/>
+      <c r="M20" s="56"/>
     </row>
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="28"/>
@@ -7143,12 +5694,12 @@
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="60"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="28"/>
@@ -7158,12 +5709,12 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="60"/>
+      <c r="M22" s="56"/>
     </row>
     <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="49" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="28"/>
@@ -7173,12 +5724,12 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="60"/>
+      <c r="M23" s="56"/>
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="49" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="28"/>
@@ -7188,12 +5739,12 @@
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="60"/>
+      <c r="M24" s="56"/>
     </row>
     <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="49" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="28"/>
@@ -7203,12 +5754,12 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="60"/>
+      <c r="M25" s="56"/>
     </row>
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="28"/>
@@ -7224,7 +5775,7 @@
         <f t="shared" ref="L26:L37" si="1">+SUM(E26:K26)</f>
         <v>0.25</v>
       </c>
-      <c r="M26" s="63"/>
+      <c r="M26" s="59"/>
     </row>
     <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
@@ -7237,14 +5788,14 @@
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="L27" s="13"/>
-      <c r="M27" s="63"/>
+      <c r="M27" s="59"/>
     </row>
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="28"/>
@@ -7260,14 +5811,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M28" s="63" t="s">
-        <v>204</v>
+      <c r="M28" s="59" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="49" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="28"/>
@@ -7278,12 +5829,12 @@
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="63"/>
+      <c r="M29" s="59"/>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="49" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="28"/>
@@ -7294,12 +5845,12 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="13"/>
-      <c r="M30" s="63"/>
+      <c r="M30" s="59"/>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="49" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="28"/>
@@ -7309,12 +5860,12 @@
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="L31" s="13"/>
-      <c r="M31" s="63"/>
+      <c r="M31" s="59"/>
     </row>
     <row r="32" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="49" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="28"/>
@@ -7324,12 +5875,12 @@
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="63"/>
+      <c r="M32" s="59"/>
     </row>
     <row r="33" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="28"/>
@@ -7345,7 +5896,7 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="M33" s="66"/>
+      <c r="M33" s="62"/>
     </row>
     <row r="34" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
@@ -7356,7 +5907,7 @@
     <row r="35" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="12">
         <v>2</v>
@@ -7367,7 +5918,7 @@
     <row r="36" spans="1:1023" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -8495,7 +7046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI43"/>
   <sheetViews>
@@ -8521,14 +7072,14 @@
         <v>20</v>
       </c>
       <c r="C1" s="32"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="28"/>
       <c r="M1" s="46"/>
     </row>
@@ -8540,19 +7091,19 @@
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
+      <c r="B3" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8563,31 +7114,31 @@
       <c r="M4" s="46"/>
     </row>
     <row r="5" spans="2:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
+      <c r="B5" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="46"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="35"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="28"/>
       <c r="M6" s="46"/>
     </row>
@@ -8653,10 +7204,10 @@
     </row>
     <row r="10" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D10" s="12">
         <v>2</v>
@@ -8668,75 +7219,75 @@
         <f t="shared" ref="L10:L18" si="0">+SUM(E10:K10)</f>
         <v>2.75</v>
       </c>
-      <c r="M10" s="63"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="49" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="D11" s="12"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="63"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="49" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="D12" s="12"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="63"/>
+      <c r="M12" s="59"/>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="49" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="D13" s="12"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="63"/>
+      <c r="M13" s="59"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="49" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D14" s="12"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="63"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="49" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D15" s="12"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="63"/>
+      <c r="M15" s="59"/>
     </row>
     <row r="16" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="12"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="66"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="49"/>
       <c r="D17" s="12"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="66"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="12">
         <v>6</v>
@@ -8753,7 +7304,7 @@
     <row r="19" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="12"/>
       <c r="L19" s="13"/>
@@ -8762,7 +7313,7 @@
     <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="12"/>
       <c r="L20" s="13"/>
@@ -8771,7 +7322,7 @@
     <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="12"/>
       <c r="L21" s="13"/>
@@ -8780,7 +7331,7 @@
     <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="12"/>
       <c r="L22" s="13"/>
@@ -8795,10 +7346,10 @@
     </row>
     <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="D24" s="12">
         <v>6</v>
@@ -8810,12 +7361,12 @@
         <f t="shared" ref="L24" si="1">+SUM(E24:K24)</f>
         <v>2</v>
       </c>
-      <c r="M24" s="66"/>
+      <c r="M24" s="62"/>
     </row>
     <row r="25" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="12"/>
       <c r="L25" s="13"/>
@@ -8824,7 +7375,7 @@
     <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="12"/>
       <c r="L26" s="13"/>
@@ -8833,7 +7384,7 @@
     <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="12"/>
       <c r="L27" s="13"/>
@@ -8842,25 +7393,25 @@
     <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="12"/>
       <c r="L28" s="13"/>
       <c r="M28" s="50"/>
     </row>
     <row r="29" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="49"/>
       <c r="D29" s="12"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="67"/>
+      <c r="M29" s="63"/>
     </row>
     <row r="30" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>206</v>
+      <c r="B30" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>169</v>
       </c>
       <c r="D30" s="12"/>
       <c r="F30" s="1">
@@ -8876,16 +7427,16 @@
         <f t="shared" ref="L30:L33" si="2">+SUM(E30:K30)</f>
         <v>8.5</v>
       </c>
-      <c r="M30" s="67" t="s">
-        <v>209</v>
+      <c r="M30" s="63" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>208</v>
+      <c r="B31" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>171</v>
       </c>
       <c r="D31" s="12"/>
       <c r="H31" s="1">
@@ -8898,14 +7449,14 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M31" s="67"/>
-    </row>
-    <row r="32" spans="2:13" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>214</v>
+      <c r="M31" s="63"/>
+    </row>
+    <row r="32" spans="2:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>177</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1"/>
@@ -8923,11 +7474,11 @@
       </c>
     </row>
     <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>212</v>
+      <c r="B33" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>175</v>
       </c>
       <c r="D33" s="12"/>
       <c r="H33" s="1">
@@ -8940,30 +7491,30 @@
       <c r="M33" s="50"/>
     </row>
     <row r="34" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>216</v>
+      <c r="B34" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>179</v>
       </c>
       <c r="D34" s="12"/>
       <c r="I34" s="1">
         <v>1</v>
       </c>
       <c r="L34" s="13"/>
-      <c r="M34" s="68"/>
+      <c r="M34" s="64"/>
     </row>
     <row r="35" spans="2:13" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="73"/>
-      <c r="C35" s="72"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="12"/>
       <c r="L35" s="13"/>
-      <c r="M35" s="68"/>
+      <c r="M35" s="64"/>
     </row>
     <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="69"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="49" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="D36" s="12">
         <v>5</v>
@@ -8984,7 +7535,7 @@
     <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="12">
         <v>2</v>
@@ -9001,7 +7552,7 @@
     <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
       <c r="C39" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="12">
         <v>1</v>
@@ -9070,7 +7621,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="L41" s="71">
+      <c r="L41" s="67">
         <f>+SUM(E41:K41)</f>
         <v>27</v>
       </c>
@@ -9091,7 +7642,7 @@
     </row>
     <row r="43" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="27"/>
@@ -9120,4 +7671,932 @@
     <oddFooter>&amp;CSida &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI68"/>
+  <sheetViews>
+    <sheetView topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="G57" sqref="G57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="11" width="7.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="28" customWidth="1"/>
+    <col min="13" max="13" width="72" style="32" customWidth="1"/>
+    <col min="14" max="1023" width="10.75" style="1" customWidth="1"/>
+    <col min="1024" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46"/>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="3"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="33"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="28"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="35"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" ref="L9:L66" si="0">+SUM(E9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="65"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="65"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="65"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="32"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="69"/>
+      <c r="C19" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="69"/>
+      <c r="C22" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="H22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="69"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="69"/>
+      <c r="C24" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" spans="2:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="69"/>
+      <c r="C25" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="69"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="12"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="69"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="77"/>
+      <c r="C28" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" spans="2:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="2:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="69"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="32"/>
+    </row>
+    <row r="32" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="12">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="12"/>
+      <c r="L33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="32"/>
+    </row>
+    <row r="34" spans="2:13" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="32"/>
+    </row>
+    <row r="36" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="32"/>
+    </row>
+    <row r="38" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="32"/>
+    </row>
+    <row r="39" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="32"/>
+    </row>
+    <row r="40" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="12"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="32"/>
+    </row>
+    <row r="41" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="12">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M41" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="32"/>
+    </row>
+    <row r="43" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="13"/>
+      <c r="M43" s="32"/>
+    </row>
+    <row r="44" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11"/>
+      <c r="C44" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="32"/>
+    </row>
+    <row r="45" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="C45" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="32"/>
+    </row>
+    <row r="46" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
+      <c r="C46" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="32"/>
+    </row>
+    <row r="47" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+      <c r="C47" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="32"/>
+    </row>
+    <row r="48" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="12"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="32"/>
+    </row>
+    <row r="49" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="13">
+        <f>+SUM(E50:K50)</f>
+        <v>1</v>
+      </c>
+      <c r="M50" s="32"/>
+    </row>
+    <row r="51" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="32"/>
+    </row>
+    <row r="52" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+      <c r="C52" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="32"/>
+    </row>
+    <row r="53" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="11"/>
+      <c r="C53" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="32"/>
+    </row>
+    <row r="54" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="12"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="32"/>
+    </row>
+    <row r="55" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="12">
+        <v>4</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4</v>
+      </c>
+      <c r="L55" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="32"/>
+    </row>
+    <row r="57" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="11"/>
+      <c r="C57" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="32"/>
+    </row>
+    <row r="58" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="C58" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="32"/>
+    </row>
+    <row r="59" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="11"/>
+      <c r="C59" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="32"/>
+    </row>
+    <row r="60" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="11"/>
+      <c r="C60" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="32"/>
+    </row>
+    <row r="61" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="11"/>
+      <c r="C61" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="32"/>
+    </row>
+    <row r="62" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="11"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="12"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="32"/>
+    </row>
+    <row r="63" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="11"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="12"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="32"/>
+    </row>
+    <row r="64" spans="2:13" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="C64" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2</v>
+      </c>
+      <c r="L64" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+      <c r="C65" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L65" s="13">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="M65" s="32"/>
+    </row>
+    <row r="66" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="11"/>
+      <c r="C66" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="12">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L66" s="13">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="M66" s="32"/>
+    </row>
+    <row r="67" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="16">
+        <f>+SUM(D8:D66)</f>
+        <v>31</v>
+      </c>
+      <c r="E67" s="15">
+        <f>+SUM(E8:E66)</f>
+        <v>3</v>
+      </c>
+      <c r="F67" s="15">
+        <f t="shared" ref="F67:K67" si="1">+SUM(F8:F66)</f>
+        <v>2</v>
+      </c>
+      <c r="G67" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I67" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J67" s="15">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="K67" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L67" s="21">
+        <f t="shared" ref="L67" si="2">+SUM(E67:K67)</f>
+        <v>33.5</v>
+      </c>
+      <c r="M67" s="32"/>
+    </row>
+    <row r="68" spans="2:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="43"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B5:L5"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSida &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>